--- a/4 четверть_4_JavaScript_Back.xlsx
+++ b/4 четверть_4_JavaScript_Back.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF4E6BF-AE7B-48AD-A9F8-12B7858B995A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE4D8DE-AB4B-4839-BB42-7B7D53E8CB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Крутой онлайн debugger" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,11 @@
     <sheet name="empty" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="1096">
   <si>
     <t>Крутой онлайн debugger</t>
   </si>
@@ -18075,31 +18074,6 @@
   </si>
   <si>
     <t>find</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Основной смысл</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Функция должна идти по массиву и проверять условие, на каждом его элементе. Если условие вернет true, вернуть текущее значение из массива.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">
@@ -18590,208 +18564,6 @@
     <t>bind; bind(car1,1,2,3);</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Семантика</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.forEach((</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>element</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">index, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =&gt; {});
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Пояснение по </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>array</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Бывает так, что массив передан не в виде переменной. В таком случае доступ к нему можно получить только через переменную array
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[1,2,3,4,5]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.forEach((element, index, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =&gt; {});</t>
-    </r>
-  </si>
-  <si>
     <t>ECMAScript - Семинар 1 - 01:06:00</t>
   </si>
   <si>
@@ -25653,16 +25425,476 @@
       <t>))</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Очень важно! Если </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>искомое значение является ссылочным типом данным, то мы получаем не только этот объект, но и ссылку на него в массиве. То есть изменяя  поля внутри этого объекта, мы изменяем его и в массиве</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>То есть!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Если мы присвоим другой ссылочный объект через = к идентефикатору, в которому хранится найденный объект , то мы потеряем ссылку на найденный ссылочный объект</t>
+    </r>
+  </si>
+  <si>
+    <t>findIndex</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Основной смысл</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Функция должна идти по массиву и проверять условие, на каждом его элементе. Если условие вернет true, вернуть текущее значение из массива.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Основной смысл: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Возвращает не объект, а его индекс в массиве</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Семантика array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.forEach((</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>element</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">index, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; {});
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение по </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Бывает так, что массив передан не в виде переменной. В таком случае доступ к нему можно получить только через переменную array
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[1,2,3,4,5]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.forEach((element, index, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; {});</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Семантика map:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.forEach((</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; {});</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26338,10 +26570,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -26359,164 +26591,164 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="8" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="8" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -26525,94 +26757,115 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -26621,56 +26874,80 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="17" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="17" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="18" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="17" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="17" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="18" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -26678,73 +26955,40 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="43" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="24" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="24" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="24" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -26753,23 +26997,17 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="24" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="24" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="24" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -28174,8 +28412,52 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6184900" y="15509346"/>
+          <a:off x="6184900" y="24900996"/>
           <a:ext cx="1860550" cy="1731345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>88901</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4883151</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>413354</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31ACE54-5B24-72A9-FA67-DDE6CC999A07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134101" y="27012900"/>
+          <a:ext cx="4794250" cy="286354"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -28612,10 +28894,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="142"/>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
+      <c r="A1" s="143"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -28957,7 +29239,7 @@
   </sheetPr>
   <dimension ref="A2:V450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A371" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A371" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B376" sqref="B376"/>
     </sheetView>
   </sheetViews>
@@ -29115,8 +29397,8 @@
         <v>69</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="87" t="s">
-        <v>834</v>
+      <c r="C10" s="86" t="s">
+        <v>832</v>
       </c>
       <c r="D10" s="22"/>
       <c r="F10" s="8" t="s">
@@ -30019,8 +30301,8 @@
       <c r="A95" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="B95" s="83" t="s">
-        <v>841</v>
+      <c r="B95" s="82" t="s">
+        <v>839</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>213</v>
@@ -30150,7 +30432,7 @@
         <v>268</v>
       </c>
       <c r="D107" s="71" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="V107" s="8"/>
     </row>
@@ -30159,7 +30441,7 @@
         <v>269</v>
       </c>
       <c r="B108" s="71" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>270</v>
@@ -31015,7 +31297,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B195" s="8" t="s">
         <v>424</v>
       </c>
@@ -31455,11 +31737,11 @@
     </row>
     <row r="241" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A241" s="2"/>
-      <c r="B241" s="137" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C241" s="137" t="s">
-        <v>1092</v>
+      <c r="B241" s="136" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C241" s="136" t="s">
+        <v>1090</v>
       </c>
       <c r="D241" s="2"/>
     </row>
@@ -32079,12 +32361,12 @@
       </c>
     </row>
     <row r="309" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A309" s="143" t="s">
-        <v>803</v>
-      </c>
-      <c r="B309" s="143"/>
-      <c r="C309" s="143"/>
-      <c r="D309" s="143"/>
+      <c r="A309" s="144" t="s">
+        <v>801</v>
+      </c>
+      <c r="B309" s="144"/>
+      <c r="C309" s="144"/>
+      <c r="D309" s="144"/>
     </row>
     <row r="310" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A310" s="13"/>
@@ -32161,7 +32443,7 @@
         <v>663</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="P317" s="9"/>
       <c r="U317" s="9"/>
@@ -32175,7 +32457,7 @@
       <c r="U318" s="9"/>
       <c r="V318" s="8"/>
     </row>
-    <row r="319" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="C319" s="8" t="s">
         <v>665</v>
       </c>
@@ -32215,7 +32497,7 @@
         <v>670</v>
       </c>
       <c r="C323" s="71" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="P323" s="9"/>
       <c r="U323" s="9"/>
@@ -32350,14 +32632,14 @@
       <c r="A338" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="C338" s="86" t="s">
-        <v>832</v>
+      <c r="C338" s="85" t="s">
+        <v>830</v>
       </c>
       <c r="V338" s="8"/>
     </row>
     <row r="339" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A339" s="85" t="s">
-        <v>827</v>
+      <c r="A339" s="84" t="s">
+        <v>825</v>
       </c>
       <c r="B339" s="69"/>
       <c r="C339" s="69"/>
@@ -32370,7 +32652,7 @@
     </row>
     <row r="341" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C341" s="71" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="342" spans="1:22" x14ac:dyDescent="0.35">
@@ -32392,7 +32674,7 @@
       </c>
     </row>
     <row r="345" spans="1:22" ht="145" x14ac:dyDescent="0.35">
-      <c r="C345" s="88" t="s">
+      <c r="C345" s="87" t="s">
         <v>696</v>
       </c>
       <c r="D345" s="8" t="s">
@@ -32413,51 +32695,51 @@
       </c>
     </row>
     <row r="348" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A348" s="76" t="s">
-        <v>820</v>
-      </c>
-      <c r="B348" s="78" t="s">
+      <c r="A348" s="75" t="s">
+        <v>818</v>
+      </c>
+      <c r="B348" s="77" t="s">
         <v>700</v>
       </c>
-      <c r="C348" s="79"/>
-      <c r="D348" s="80"/>
+      <c r="C348" s="78"/>
+      <c r="D348" s="79"/>
     </row>
     <row r="349" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A349" s="71" t="s">
+        <v>804</v>
+      </c>
+      <c r="B349" s="71" t="s">
         <v>806</v>
       </c>
-      <c r="B349" s="71" t="s">
-        <v>808</v>
-      </c>
       <c r="C349" s="71" t="s">
+        <v>809</v>
+      </c>
+      <c r="D349" s="71" t="s">
         <v>811</v>
-      </c>
-      <c r="D349" s="71" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="350" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A350" s="71" t="s">
+        <v>805</v>
+      </c>
+      <c r="C350" s="87" t="s">
         <v>807</v>
       </c>
-      <c r="C350" s="88" t="s">
-        <v>809</v>
-      </c>
       <c r="D350" s="71" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="351" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A351" s="76" t="s">
-        <v>845</v>
-      </c>
-      <c r="C351" s="88"/>
+      <c r="A351" s="75" t="s">
+        <v>843</v>
+      </c>
+      <c r="C351" s="87"/>
       <c r="D351" s="71"/>
     </row>
     <row r="352" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A352" s="71"/>
-      <c r="C352" s="88" t="s">
-        <v>844</v>
+      <c r="C352" s="87" t="s">
+        <v>842</v>
       </c>
       <c r="D352" s="71"/>
     </row>
@@ -32481,17 +32763,17 @@
       <c r="U353" s="14"/>
     </row>
     <row r="354" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A354" s="77" t="s">
-        <v>829</v>
-      </c>
-      <c r="C354" s="86" t="s">
-        <v>830</v>
+      <c r="A354" s="76" t="s">
+        <v>827</v>
+      </c>
+      <c r="C354" s="85" t="s">
+        <v>828</v>
       </c>
       <c r="V354" s="8"/>
     </row>
     <row r="355" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A355" s="89" t="s">
-        <v>788</v>
+      <c r="A355" s="88" t="s">
+        <v>787</v>
       </c>
       <c r="B355" s="69"/>
       <c r="C355" s="69"/>
@@ -32503,37 +32785,37 @@
       </c>
     </row>
     <row r="357" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="B357" s="88" t="s">
-        <v>847</v>
-      </c>
-      <c r="C357" s="88" t="s">
-        <v>810</v>
+      <c r="B357" s="87" t="s">
+        <v>845</v>
+      </c>
+      <c r="C357" s="87" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="358" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A358" s="71" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C358" s="71" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="359" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A359" s="71" t="s">
+        <v>805</v>
+      </c>
+      <c r="C359" s="71" t="s">
         <v>807</v>
-      </c>
-      <c r="C359" s="71" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="360" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A360" s="72" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B360" s="71" t="s">
-        <v>789</v>
-      </c>
-      <c r="C360" s="88" t="s">
+        <v>788</v>
+      </c>
+      <c r="C360" s="87" t="s">
         <v>462</v>
       </c>
     </row>
@@ -32553,12 +32835,12 @@
         <v>703</v>
       </c>
     </row>
-    <row r="364" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="B364" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C364" s="88" t="s">
-        <v>850</v>
+      <c r="C364" s="87" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="365" spans="1:22" ht="116" x14ac:dyDescent="0.35">
@@ -32576,102 +32858,102 @@
       <c r="C366" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="F366" s="99"/>
+      <c r="F366" s="98"/>
     </row>
     <row r="367" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A367" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="D367" s="94" t="s">
-        <v>852</v>
-      </c>
-      <c r="F367" s="99"/>
+      <c r="D367" s="93" t="s">
+        <v>850</v>
+      </c>
+      <c r="F367" s="98"/>
     </row>
     <row r="368" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B368" s="91" t="s">
-        <v>849</v>
-      </c>
-      <c r="C368" s="96" t="s">
-        <v>874</v>
-      </c>
-      <c r="F368" s="99"/>
+      <c r="B368" s="90" t="s">
+        <v>847</v>
+      </c>
+      <c r="C368" s="95" t="s">
+        <v>872</v>
+      </c>
+      <c r="F368" s="98"/>
     </row>
     <row r="369" spans="1:6" ht="203" x14ac:dyDescent="0.35">
       <c r="A369" s="8"/>
-      <c r="B369" s="90" t="s">
-        <v>848</v>
-      </c>
-      <c r="C369" s="96" t="s">
-        <v>875</v>
-      </c>
-      <c r="D369" s="93"/>
-      <c r="F369" s="99"/>
+      <c r="B369" s="89" t="s">
+        <v>846</v>
+      </c>
+      <c r="C369" s="95" t="s">
+        <v>873</v>
+      </c>
+      <c r="D369" s="92"/>
+      <c r="F369" s="98"/>
     </row>
     <row r="370" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A370" s="100" t="s">
-        <v>876</v>
-      </c>
-      <c r="B370" s="93"/>
-      <c r="C370" s="96"/>
-      <c r="D370" s="93"/>
-      <c r="F370" s="99"/>
+      <c r="A370" s="99" t="s">
+        <v>874</v>
+      </c>
+      <c r="B370" s="92"/>
+      <c r="C370" s="95"/>
+      <c r="D370" s="92"/>
+      <c r="F370" s="98"/>
     </row>
     <row r="371" spans="1:6" ht="232" x14ac:dyDescent="0.35">
-      <c r="A371" s="93"/>
-      <c r="B371" s="93"/>
-      <c r="C371" s="96" t="s">
-        <v>887</v>
-      </c>
-      <c r="D371" s="93"/>
-      <c r="F371" s="99"/>
+      <c r="A371" s="92"/>
+      <c r="B371" s="92"/>
+      <c r="C371" s="95" t="s">
+        <v>885</v>
+      </c>
+      <c r="D371" s="92"/>
+      <c r="F371" s="98"/>
     </row>
     <row r="372" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A372" s="96" t="s">
+      <c r="A372" s="95" t="s">
+        <v>881</v>
+      </c>
+      <c r="B372" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="C372" s="95" t="s">
         <v>883</v>
       </c>
-      <c r="B372" s="96" t="s">
-        <v>886</v>
-      </c>
-      <c r="C372" s="96" t="s">
-        <v>885</v>
-      </c>
-      <c r="D372" s="101" t="s">
-        <v>884</v>
-      </c>
-      <c r="F372" s="99"/>
+      <c r="D372" s="100" t="s">
+        <v>882</v>
+      </c>
+      <c r="F372" s="98"/>
     </row>
     <row r="373" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A373" s="96" t="s">
+      <c r="A373" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="B373" s="95" t="s">
+        <v>879</v>
+      </c>
+      <c r="C373" s="95" t="s">
+        <v>878</v>
+      </c>
+      <c r="D373" s="100" t="s">
         <v>882</v>
       </c>
-      <c r="B373" s="96" t="s">
-        <v>881</v>
-      </c>
-      <c r="C373" s="96" t="s">
-        <v>880</v>
-      </c>
-      <c r="D373" s="101" t="s">
-        <v>884</v>
-      </c>
-      <c r="F373" s="99"/>
+      <c r="F373" s="98"/>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="73" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A375" s="74" t="s">
-        <v>798</v>
-      </c>
-      <c r="B375" s="96"/>
-      <c r="C375" s="83" t="s">
-        <v>836</v>
+        <v>797</v>
+      </c>
+      <c r="B375" s="95"/>
+      <c r="C375" s="82" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A376" s="71" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B376" s="8" t="s">
         <v>704</v>
@@ -32679,18 +32961,18 @@
       <c r="C376" s="71" t="s">
         <v>705</v>
       </c>
-      <c r="D376" s="77" t="s">
-        <v>835</v>
+      <c r="D376" s="76" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="74" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A378" s="71" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>706</v>
@@ -32710,12 +32992,12 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="74" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A381" s="71" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B381" s="8" t="s">
         <v>708</v>
@@ -32725,16 +33007,16 @@
       </c>
     </row>
     <row r="382" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A382" s="76" t="s">
-        <v>846</v>
+      <c r="A382" s="75" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A383" s="71" t="s">
+        <v>794</v>
+      </c>
+      <c r="B383" s="71" t="s">
         <v>795</v>
-      </c>
-      <c r="B383" s="71" t="s">
-        <v>796</v>
       </c>
       <c r="C383" s="71" t="s">
         <v>477</v>
@@ -32742,16 +33024,16 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" s="56" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="385" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A385" s="8"/>
-      <c r="B385" s="96" t="s">
-        <v>856</v>
+      <c r="B385" s="95" t="s">
+        <v>854</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="386" spans="1:22" x14ac:dyDescent="0.35">
@@ -32779,23 +33061,23 @@
       <c r="U387" s="14"/>
     </row>
     <row r="388" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A388" s="77" t="s">
-        <v>829</v>
-      </c>
-      <c r="C388" s="95" t="s">
-        <v>853</v>
+      <c r="A388" s="76" t="s">
+        <v>827</v>
+      </c>
+      <c r="C388" s="94" t="s">
+        <v>851</v>
       </c>
       <c r="V388" s="8"/>
     </row>
     <row r="389" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A389" s="98" t="s">
-        <v>872</v>
+      <c r="A389" s="97" t="s">
+        <v>870</v>
       </c>
       <c r="C389" s="56" t="s">
-        <v>857</v>
-      </c>
-      <c r="D389" s="97" t="s">
-        <v>858</v>
+        <v>855</v>
+      </c>
+      <c r="D389" s="96" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="390" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
@@ -32803,79 +33085,79 @@
       <c r="B390" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="C390" s="96" t="s">
+      <c r="C390" s="95" t="s">
         <v>482</v>
       </c>
       <c r="D390" s="8" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="391" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A391" s="8" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C391" s="8" t="s">
         <v>482</v>
       </c>
       <c r="D391" s="8" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="392" spans="1:22" ht="290" x14ac:dyDescent="0.35">
       <c r="A392" s="8"/>
       <c r="B392" s="8" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C392" s="8" t="s">
         <v>482</v>
       </c>
       <c r="D392" s="8" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="393" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A393" s="8"/>
       <c r="D393" s="8" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="394" spans="1:22" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A394" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="B394" s="96" t="s">
-        <v>873</v>
+      <c r="B394" s="95" t="s">
+        <v>871</v>
       </c>
       <c r="C394" s="8" t="s">
         <v>482</v>
       </c>
       <c r="D394" s="8" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="395" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A395" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="C395" s="8" t="s">
         <v>867</v>
       </c>
-      <c r="B395" s="8" t="s">
+      <c r="D395" s="8" t="s">
         <v>868</v>
       </c>
-      <c r="C395" s="8" t="s">
-        <v>869</v>
-      </c>
-      <c r="D395" s="8" t="s">
-        <v>870</v>
-      </c>
     </row>
     <row r="396" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A396" s="96" t="s">
+      <c r="A396" s="95" t="s">
         <v>497</v>
       </c>
-      <c r="B396" s="96" t="s">
-        <v>888</v>
+      <c r="B396" s="95" t="s">
+        <v>886</v>
       </c>
       <c r="C396" s="8" t="s">
         <v>499</v>
@@ -32893,7 +33175,7 @@
     </row>
     <row r="398" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A398" s="8" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B398" s="8" t="s">
         <v>503</v>
@@ -32939,125 +33221,125 @@
       <c r="U401" s="14"/>
     </row>
     <row r="402" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A402" s="77" t="s">
-        <v>833</v>
-      </c>
-      <c r="C402" s="86" t="s">
+      <c r="A402" s="76" t="s">
         <v>831</v>
       </c>
+      <c r="C402" s="85" t="s">
+        <v>829</v>
+      </c>
       <c r="V402" s="8"/>
     </row>
     <row r="403" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A403" s="85" t="s">
-        <v>828</v>
-      </c>
-      <c r="D403" s="77" t="s">
+      <c r="A403" s="84" t="s">
+        <v>826</v>
+      </c>
+      <c r="D403" s="76" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="404" spans="1:22" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="B404" s="95" t="s">
+        <v>877</v>
+      </c>
+      <c r="C404" s="95" t="s">
+        <v>876</v>
+      </c>
+      <c r="D404" s="95" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="405" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A405" s="95" t="s">
+        <v>881</v>
+      </c>
+      <c r="B405" s="95" t="s">
+        <v>889</v>
+      </c>
+      <c r="C405" s="95"/>
+      <c r="D405" s="72"/>
+    </row>
+    <row r="406" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A406" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="B406" s="95" t="s">
+        <v>888</v>
+      </c>
+      <c r="C406" s="95" t="s">
+        <v>887</v>
+      </c>
+      <c r="D406" s="72"/>
+    </row>
+    <row r="407" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A407" s="95" t="s">
+        <v>894</v>
+      </c>
+      <c r="B407" s="95"/>
+      <c r="C407" s="95" t="s">
+        <v>896</v>
+      </c>
+      <c r="D407" s="72"/>
+    </row>
+    <row r="408" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A408" s="95" t="s">
+        <v>895</v>
+      </c>
+      <c r="B408" s="95"/>
+      <c r="C408" s="95" t="s">
+        <v>897</v>
+      </c>
+      <c r="D408" s="72"/>
+    </row>
+    <row r="409" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A409" s="75" t="s">
+        <v>817</v>
+      </c>
+      <c r="B409" s="77" t="s">
+        <v>816</v>
+      </c>
+      <c r="C409" s="81" t="s">
+        <v>819</v>
+      </c>
+      <c r="D409" s="80" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="410" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+      <c r="A410" s="82" t="s">
+        <v>820</v>
+      </c>
+      <c r="C410" s="8" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="404" spans="1:22" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="B404" s="96" t="s">
-        <v>879</v>
-      </c>
-      <c r="C404" s="96" t="s">
-        <v>878</v>
-      </c>
-      <c r="D404" s="96" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A405" s="96" t="s">
-        <v>883</v>
-      </c>
-      <c r="B405" s="96" t="s">
-        <v>891</v>
-      </c>
-      <c r="C405" s="96"/>
-      <c r="D405" s="72"/>
-    </row>
-    <row r="406" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A406" s="96" t="s">
-        <v>882</v>
-      </c>
-      <c r="B406" s="96" t="s">
-        <v>890</v>
-      </c>
-      <c r="C406" s="96" t="s">
-        <v>889</v>
-      </c>
-      <c r="D406" s="72"/>
-    </row>
-    <row r="407" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A407" s="96" t="s">
-        <v>896</v>
-      </c>
-      <c r="B407" s="96"/>
-      <c r="C407" s="96" t="s">
-        <v>898</v>
-      </c>
-      <c r="D407" s="72"/>
-    </row>
-    <row r="408" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A408" s="96" t="s">
-        <v>897</v>
-      </c>
-      <c r="B408" s="96"/>
-      <c r="C408" s="96" t="s">
-        <v>899</v>
-      </c>
-      <c r="D408" s="72"/>
-    </row>
-    <row r="409" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A409" s="76" t="s">
-        <v>819</v>
-      </c>
-      <c r="B409" s="78" t="s">
-        <v>818</v>
-      </c>
-      <c r="C409" s="82" t="s">
-        <v>821</v>
-      </c>
-      <c r="D409" s="81" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="410" spans="1:22" ht="203" x14ac:dyDescent="0.35">
-      <c r="A410" s="83" t="s">
-        <v>822</v>
-      </c>
-      <c r="C410" s="8" t="s">
-        <v>817</v>
-      </c>
-    </row>
     <row r="411" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A411" s="76" t="s">
-        <v>842</v>
+      <c r="A411" s="75" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="412" spans="1:22" ht="203" x14ac:dyDescent="0.35">
       <c r="A412" s="8"/>
-      <c r="B412" s="88" t="s">
-        <v>843</v>
-      </c>
-      <c r="C412" s="92" t="s">
-        <v>851</v>
+      <c r="B412" s="87" t="s">
+        <v>841</v>
+      </c>
+      <c r="C412" s="91" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="413" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A413" s="84" t="s">
+      <c r="A413" s="83" t="s">
+        <v>821</v>
+      </c>
+      <c r="D413" s="76" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="414" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+      <c r="B414" s="82" t="s">
+        <v>824</v>
+      </c>
+      <c r="C414" s="82" t="s">
         <v>823</v>
-      </c>
-      <c r="D413" s="77" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="414" spans="1:22" ht="203" x14ac:dyDescent="0.35">
-      <c r="B414" s="83" t="s">
-        <v>826</v>
-      </c>
-      <c r="C414" s="83" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="415" spans="1:22" x14ac:dyDescent="0.35">
@@ -33080,48 +33362,48 @@
       <c r="U415" s="14"/>
     </row>
     <row r="416" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A416" s="77" t="s">
-        <v>833</v>
-      </c>
-      <c r="C416" s="103" t="s">
-        <v>877</v>
+      <c r="A416" s="76" t="s">
+        <v>831</v>
+      </c>
+      <c r="C416" s="102" t="s">
+        <v>875</v>
       </c>
       <c r="V416" s="8"/>
     </row>
     <row r="417" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A417" s="104" t="s">
-        <v>902</v>
+      <c r="A417" s="103" t="s">
+        <v>900</v>
       </c>
       <c r="C417" s="9"/>
       <c r="V417" s="8"/>
     </row>
     <row r="418" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="B418" s="83"/>
-      <c r="C418" s="96" t="s">
+      <c r="B418" s="82"/>
+      <c r="C418" s="95" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="419" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="B419" s="82"/>
+      <c r="C419" s="95" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="420" spans="1:22" ht="319" x14ac:dyDescent="0.35">
+      <c r="A420" s="100" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="419" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="B419" s="83"/>
-      <c r="C419" s="96" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="420" spans="1:22" ht="319" x14ac:dyDescent="0.35">
-      <c r="A420" s="101" t="s">
-        <v>894</v>
-      </c>
-      <c r="B420" s="83"/>
-      <c r="C420" s="96" t="s">
-        <v>900</v>
-      </c>
-      <c r="D420" s="102" t="s">
-        <v>901</v>
+      <c r="B420" s="82"/>
+      <c r="C420" s="95" t="s">
+        <v>898</v>
+      </c>
+      <c r="D420" s="101" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="421" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B421" s="83"/>
-      <c r="C421" s="83"/>
+      <c r="B421" s="82"/>
+      <c r="C421" s="82"/>
     </row>
     <row r="422" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A422" s="13"/>
@@ -33143,161 +33425,161 @@
       <c r="U422" s="14"/>
     </row>
     <row r="423" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A423" s="77" t="s">
+      <c r="A423" s="76" t="s">
+        <v>835</v>
+      </c>
+      <c r="C423" s="85" t="s">
+        <v>836</v>
+      </c>
+      <c r="V423" s="8"/>
+    </row>
+    <row r="424" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C424" s="82" t="s">
         <v>837</v>
       </c>
-      <c r="C423" s="86" t="s">
+      <c r="D424" s="76" t="s">
         <v>838</v>
-      </c>
-      <c r="V423" s="8"/>
-    </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C424" s="83" t="s">
-        <v>839</v>
-      </c>
-      <c r="D424" s="77" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="425" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A425" s="70" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="426" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A426" s="107" t="s">
+        <v>922</v>
+      </c>
+      <c r="D426" s="9" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="427" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A427" s="106" t="s">
+        <v>918</v>
+      </c>
+      <c r="B427" s="106" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="426" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A426" s="108" t="s">
+      <c r="C427" s="106" t="s">
+        <v>921</v>
+      </c>
+      <c r="D427" s="106" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="428" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A428" s="107" t="s">
+        <v>906</v>
+      </c>
+      <c r="D428" s="104" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="429" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B429" s="106" t="s">
+        <v>913</v>
+      </c>
+      <c r="C429" s="106" t="s">
+        <v>907</v>
+      </c>
+      <c r="D429" s="106" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="430" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A430" s="107" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="431" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="B431" s="106" t="s">
+        <v>916</v>
+      </c>
+      <c r="C431" s="106" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="432" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A432" s="107" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="433" spans="1:21" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="B433" s="106" t="s">
+        <v>915</v>
+      </c>
+      <c r="C433" s="106" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="434" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A434" s="108" t="s">
+        <v>923</v>
+      </c>
+      <c r="B434" s="106"/>
+      <c r="C434" s="106"/>
+      <c r="D434" s="106"/>
+    </row>
+    <row r="435" spans="1:21" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A435" s="106"/>
+      <c r="B435" s="106" t="s">
+        <v>920</v>
+      </c>
+      <c r="C435" s="106" t="s">
+        <v>919</v>
+      </c>
+      <c r="D435" s="106"/>
+    </row>
+    <row r="436" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A436" s="109" t="s">
         <v>924</v>
       </c>
-      <c r="D426" s="9" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="427" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A427" s="107" t="s">
-        <v>920</v>
-      </c>
-      <c r="B427" s="107" t="s">
-        <v>907</v>
-      </c>
-      <c r="C427" s="107" t="s">
-        <v>923</v>
-      </c>
-      <c r="D427" s="107" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="428" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A428" s="108" t="s">
-        <v>908</v>
-      </c>
-      <c r="D428" s="105" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="429" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B429" s="107" t="s">
-        <v>915</v>
-      </c>
-      <c r="C429" s="107" t="s">
-        <v>909</v>
-      </c>
-      <c r="D429" s="107" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="430" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A430" s="108" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="431" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="B431" s="107" t="s">
-        <v>918</v>
-      </c>
-      <c r="C431" s="107" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="432" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A432" s="108" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="433" spans="1:21" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="B433" s="107" t="s">
-        <v>917</v>
-      </c>
-      <c r="C433" s="107" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A434" s="109" t="s">
+      <c r="D436" s="9" t="s">
         <v>925</v>
       </c>
-      <c r="B434" s="107"/>
-      <c r="C434" s="107"/>
-      <c r="D434" s="107"/>
-    </row>
-    <row r="435" spans="1:21" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A435" s="107"/>
-      <c r="B435" s="107" t="s">
-        <v>922</v>
-      </c>
-      <c r="C435" s="107" t="s">
-        <v>921</v>
-      </c>
-      <c r="D435" s="107"/>
-    </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A436" s="110" t="s">
+    </row>
+    <row r="437" spans="1:21" ht="174" x14ac:dyDescent="0.35">
+      <c r="C437" s="106" t="s">
         <v>926</v>
       </c>
-      <c r="D436" s="9" t="s">
+      <c r="D437" s="106" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="437" spans="1:21" ht="174" x14ac:dyDescent="0.35">
-      <c r="C437" s="107" t="s">
+    <row r="438" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A438" s="108" t="s">
         <v>928</v>
       </c>
-      <c r="D437" s="107" t="s">
+    </row>
+    <row r="439" spans="1:21" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A439" s="106" t="s">
+        <v>935</v>
+      </c>
+      <c r="B439" s="106" t="s">
+        <v>933</v>
+      </c>
+      <c r="C439" s="106" t="s">
+        <v>936</v>
+      </c>
+      <c r="D439" s="106" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="440" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A440" s="108" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="438" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A438" s="109" t="s">
+    <row r="441" spans="1:21" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="B441" s="106" t="s">
+        <v>931</v>
+      </c>
+      <c r="C441" s="106" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="439" spans="1:21" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A439" s="107" t="s">
-        <v>937</v>
-      </c>
-      <c r="B439" s="107" t="s">
-        <v>935</v>
-      </c>
-      <c r="C439" s="107" t="s">
-        <v>938</v>
-      </c>
-      <c r="D439" s="107" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="440" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A440" s="109" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="441" spans="1:21" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="B441" s="107" t="s">
-        <v>933</v>
-      </c>
-      <c r="C441" s="107" t="s">
+      <c r="D441" s="106" t="s">
         <v>932</v>
-      </c>
-      <c r="D441" s="107" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="448" spans="1:21" x14ac:dyDescent="0.35">
@@ -33320,17 +33602,17 @@
       <c r="U448" s="14"/>
     </row>
     <row r="449" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A449" s="105" t="s">
-        <v>903</v>
-      </c>
-      <c r="C449" s="106" t="s">
-        <v>904</v>
+      <c r="A449" s="104" t="s">
+        <v>901</v>
+      </c>
+      <c r="C449" s="105" t="s">
+        <v>902</v>
       </c>
       <c r="V449" s="8"/>
     </row>
     <row r="450" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B450" s="111" t="s">
-        <v>940</v>
+      <c r="B450" s="110" t="s">
+        <v>938</v>
       </c>
     </row>
   </sheetData>
@@ -33389,10 +33671,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="142"/>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
+      <c r="A1" s="143"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -33451,8 +33733,8 @@
     </row>
     <row r="5" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
-      <c r="B5" s="136" t="s">
-        <v>1089</v>
+      <c r="B5" s="135" t="s">
+        <v>1087</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>712</v>
@@ -33482,40 +33764,40 @@
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" s="139"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="139"/>
+      <c r="A9" s="138"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="138"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="139"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="139"/>
+      <c r="A10" s="138"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="138"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A11" s="139"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="139"/>
+      <c r="A11" s="138"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="138"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A12" s="139"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="139"/>
+      <c r="A12" s="138"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="138"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A13" s="139"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="139"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="138"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A14" s="139"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="139"/>
+      <c r="A14" s="138"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="138"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
@@ -33605,8 +33887,8 @@
     </row>
     <row r="23" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
-      <c r="B23" s="107" t="s">
-        <v>939</v>
+      <c r="B23" s="106" t="s">
+        <v>937</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>730</v>
@@ -33669,15 +33951,15 @@
       <c r="U28" s="14"/>
     </row>
     <row r="29" spans="1:22" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="105" t="s">
-        <v>903</v>
+      <c r="A29" s="104" t="s">
+        <v>901</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="126" t="s">
-        <v>1058</v>
+      <c r="C29" s="125" t="s">
+        <v>1056</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E29" s="11"/>
       <c r="G29" s="8"/>
@@ -33691,105 +33973,105 @@
       <c r="V29" s="8"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A30" s="125" t="s">
-        <v>1061</v>
+      <c r="A30" s="124" t="s">
+        <v>1059</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="105" t="s">
-        <v>941</v>
+      <c r="D30" s="104" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
-      <c r="B31" s="112" t="s">
+      <c r="B31" s="111" t="s">
+        <v>940</v>
+      </c>
+      <c r="C31" s="106" t="s">
+        <v>941</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="113" t="s">
+        <v>943</v>
+      </c>
+      <c r="C32" s="111" t="s">
         <v>942</v>
       </c>
-      <c r="C31" s="107" t="s">
-        <v>943</v>
-      </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A32" s="114" t="s">
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A33" s="115" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="B34" s="111" t="s">
         <v>945</v>
       </c>
-      <c r="C32" s="112" t="s">
+      <c r="C34" s="111" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A33" s="116" t="s">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A35" s="114" t="s">
+        <v>947</v>
+      </c>
+      <c r="D35" s="112" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="C36" s="111" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="C37" s="111" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C38" s="117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="391.5" x14ac:dyDescent="0.35">
+      <c r="B39" s="111" t="s">
+        <v>959</v>
+      </c>
+      <c r="C39" s="111" t="s">
+        <v>949</v>
+      </c>
+      <c r="D39" s="111" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A40" s="116" t="s">
+        <v>953</v>
+      </c>
+      <c r="D40" s="112" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B41" s="111" t="s">
+        <v>955</v>
+      </c>
+      <c r="C41" s="111" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="B34" s="112" t="s">
-        <v>947</v>
-      </c>
-      <c r="C34" s="112" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A35" s="115" t="s">
-        <v>949</v>
-      </c>
-      <c r="D35" s="113" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="C36" s="112" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="C37" s="112" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C38" s="118" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="119" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="391.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="112" t="s">
-        <v>961</v>
-      </c>
-      <c r="C39" s="112" t="s">
-        <v>951</v>
-      </c>
-      <c r="D39" s="112" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A40" s="117" t="s">
-        <v>955</v>
-      </c>
-      <c r="D40" s="113" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="112" t="s">
+      <c r="D41" s="111" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+      <c r="C42" s="111" t="s">
         <v>957</v>
-      </c>
-      <c r="C41" s="112" t="s">
-        <v>956</v>
-      </c>
-      <c r="D41" s="112" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="145" x14ac:dyDescent="0.35">
-      <c r="C42" s="112" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="43" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -33816,12 +34098,12 @@
       <c r="U43" s="14"/>
     </row>
     <row r="44" spans="1:22" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="127" t="s">
-        <v>1059</v>
+      <c r="A44" s="126" t="s">
+        <v>1057</v>
       </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="126" t="s">
-        <v>1060</v>
+      <c r="C44" s="125" t="s">
+        <v>1058</v>
       </c>
       <c r="E44" s="11"/>
       <c r="G44" s="8"/>
@@ -33835,416 +34117,416 @@
       <c r="V44" s="8"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A45" s="125" t="s">
+      <c r="A45" s="124" t="s">
         <v>715</v>
       </c>
-      <c r="D45" s="113" t="s">
+      <c r="D45" s="112" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B46" s="111" t="s">
+        <v>961</v>
+      </c>
+      <c r="C46" s="111" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="112" t="s">
+    <row r="47" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="C47" s="111" t="s">
         <v>963</v>
       </c>
-      <c r="C46" s="112" t="s">
+    </row>
+    <row r="48" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="C48" s="111" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="C47" s="112" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="119" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="B50" s="111" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="C48" s="112" t="s">
+      <c r="C50" s="111" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="120" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="B50" s="112" t="s">
+    <row r="51" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B51" s="111" t="s">
         <v>967</v>
       </c>
-      <c r="C50" s="112" t="s">
+    </row>
+    <row r="52" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="119" t="s">
+        <v>969</v>
+      </c>
+      <c r="B52" s="111" t="s">
+        <v>970</v>
+      </c>
+      <c r="C52" s="111" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="112" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="120" t="s">
+    <row r="53" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+      <c r="A53" s="111" t="s">
         <v>971</v>
       </c>
-      <c r="B52" s="112" t="s">
+      <c r="C53" s="111" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A54" s="112" t="s">
         <v>972</v>
       </c>
-      <c r="C52" s="112" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="232" x14ac:dyDescent="0.35">
-      <c r="A53" s="112" t="s">
+      <c r="C54" s="111" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+      <c r="A55" s="112" t="s">
         <v>973</v>
       </c>
-      <c r="C53" s="112" t="s">
+      <c r="C55" s="111" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A54" s="113" t="s">
+    <row r="56" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="112" t="s">
         <v>974</v>
       </c>
-      <c r="C54" s="112" t="s">
+      <c r="C56" s="111" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="174" x14ac:dyDescent="0.35">
-      <c r="A55" s="113" t="s">
-        <v>975</v>
-      </c>
-      <c r="C55" s="112" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="119" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B58" s="111" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="113" t="s">
-        <v>976</v>
-      </c>
-      <c r="C56" s="112" t="s">
+      <c r="C58" s="111" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="120" t="s">
+    <row r="59" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="112" t="s">
+        <v>671</v>
+      </c>
+      <c r="B59" s="111" t="s">
+        <v>986</v>
+      </c>
+      <c r="C59" s="111" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="112" t="s">
+        <v>675</v>
+      </c>
+      <c r="B60" s="111" t="s">
+        <v>993</v>
+      </c>
+      <c r="C60" s="111" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B58" s="112" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="119" t="s">
+        <v>983</v>
+      </c>
+      <c r="D61" s="112" t="s">
         <v>981</v>
       </c>
-      <c r="C58" s="112" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="113" t="s">
-        <v>671</v>
-      </c>
-      <c r="B59" s="112" t="s">
+    </row>
+    <row r="62" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B62" s="111" t="s">
+        <v>987</v>
+      </c>
+      <c r="C62" s="111" t="s">
         <v>988</v>
       </c>
-      <c r="C59" s="112" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="113" t="s">
-        <v>675</v>
-      </c>
-      <c r="B60" s="112" t="s">
+    </row>
+    <row r="63" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B63" s="111"/>
+      <c r="C63" s="120" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D63" s="120" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+      <c r="B64" s="111"/>
+      <c r="C64" s="120" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D64" s="120" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+      <c r="B65" s="111"/>
+      <c r="C65" s="120" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D65" s="120" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="348" x14ac:dyDescent="0.35">
+      <c r="A66" s="120" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B66" s="120" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C66" s="120" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D66" s="120" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="119" t="s">
+        <v>989</v>
+      </c>
+      <c r="D67" s="112" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C68" s="111" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+      <c r="C69" s="111" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C70" s="117" t="s">
+        <v>996</v>
+      </c>
+      <c r="D70" s="118" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="362.5" x14ac:dyDescent="0.35">
+      <c r="C71" s="111" t="s">
         <v>995</v>
       </c>
-      <c r="C60" s="112" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="120" t="s">
-        <v>985</v>
-      </c>
-      <c r="D61" s="113" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="112" t="s">
-        <v>989</v>
-      </c>
-      <c r="C62" s="112" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B63" s="112"/>
-      <c r="C63" s="121" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D63" s="121" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="232" x14ac:dyDescent="0.35">
-      <c r="B64" s="112"/>
-      <c r="C64" s="121" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D64" s="121" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="145" x14ac:dyDescent="0.35">
-      <c r="B65" s="112"/>
-      <c r="C65" s="121" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D65" s="121" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="348" x14ac:dyDescent="0.35">
-      <c r="A66" s="121" t="s">
+      <c r="D71" s="111" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="119" t="s">
+        <v>998</v>
+      </c>
+      <c r="D72" s="112" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+      <c r="B73" s="120" t="s">
         <v>1010</v>
       </c>
-      <c r="B66" s="121" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C66" s="121" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D66" s="121" t="s">
+      <c r="C73" s="111" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="122" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D74" s="121" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="121" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C75" s="120" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="C76" s="120" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+      <c r="C77" s="120" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="120" t="s">
-        <v>991</v>
-      </c>
-      <c r="D67" s="113" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C68" s="112" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="145" x14ac:dyDescent="0.35">
-      <c r="C69" s="112" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C70" s="118" t="s">
-        <v>998</v>
-      </c>
-      <c r="D70" s="119" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="362.5" x14ac:dyDescent="0.35">
-      <c r="C71" s="112" t="s">
-        <v>997</v>
-      </c>
-      <c r="D71" s="112" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="120" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D72" s="113" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="174" x14ac:dyDescent="0.35">
-      <c r="B73" s="121" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C73" s="112" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="123" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D74" s="122" t="s">
+    <row r="78" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="B78" s="120" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C78" s="120" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+      <c r="B79" s="120" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="122" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C75" s="121" t="s">
+      <c r="C79" s="120" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="123" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B80" s="120"/>
+      <c r="C80" s="120"/>
+    </row>
+    <row r="81" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="121" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C81" s="120" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C82" s="120" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D82" s="120"/>
+    </row>
+    <row r="83" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="C83" s="120" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="121" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C84" s="120" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D84" s="121" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A85" s="123" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C85" s="120" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D85" s="121" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A86" s="121" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B86" s="120" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C86" s="120" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A87" s="123" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="C76" s="121" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="203" x14ac:dyDescent="0.35">
-      <c r="C77" s="121" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="B78" s="121" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C78" s="121" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="203" x14ac:dyDescent="0.35">
-      <c r="B79" s="121" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C79" s="121" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="124" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B80" s="121"/>
-      <c r="C80" s="121"/>
-    </row>
-    <row r="81" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="122" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C81" s="121" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C82" s="121" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D82" s="121"/>
-    </row>
-    <row r="83" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="C83" s="121" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="122" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C84" s="121" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D84" s="122" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A85" s="124" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C85" s="121" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D85" s="122" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A86" s="122" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B86" s="121" t="s">
+      <c r="C87" s="120" t="s">
         <v>1036</v>
       </c>
-      <c r="C86" s="121" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A87" s="124" t="s">
+    </row>
+    <row r="88" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A88" s="121" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C88" s="120" t="s">
         <v>1037</v>
       </c>
-      <c r="C87" s="121" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A88" s="122" t="s">
+    </row>
+    <row r="89" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+      <c r="B89" s="120" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C89" s="120" t="s">
         <v>1040</v>
       </c>
-      <c r="C88" s="121" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="145" x14ac:dyDescent="0.35">
-      <c r="B89" s="121" t="s">
+    </row>
+    <row r="90" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A90" s="123" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C90" s="120" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D90" s="121" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+      <c r="B91" s="120" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C91" s="120" t="s">
         <v>1041</v>
       </c>
-      <c r="C89" s="121" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A90" s="124" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C90" s="121" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D90" s="122" t="s">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="123" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="203" x14ac:dyDescent="0.35">
-      <c r="B91" s="121" t="s">
+      <c r="C92" s="120" t="s">
         <v>1047</v>
       </c>
-      <c r="C91" s="121" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="124" t="s">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="124" t="s">
         <v>1048</v>
       </c>
-      <c r="C92" s="121" t="s">
+      <c r="D93" s="1" t="s">
         <v>1049</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="125" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -34331,15 +34613,15 @@
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="130" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B4" s="133" t="s">
-        <v>1074</v>
+      <c r="A4" s="129" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B4" s="132" t="s">
+        <v>1072</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="129" t="s">
-        <v>1078</v>
+      <c r="D4" s="128" t="s">
+        <v>1076</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
@@ -34358,96 +34640,96 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="128" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B5" s="127" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C5" s="127" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C6" s="127" t="s">
         <v>1063</v>
       </c>
-      <c r="B5" s="128" t="s">
+    </row>
+    <row r="7" spans="1:22" ht="232" x14ac:dyDescent="0.35">
+      <c r="B7" s="127" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C7" s="127" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C8" s="130" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D8" s="130" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="C9" s="137" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D9" s="127" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="131" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="232" x14ac:dyDescent="0.35">
+      <c r="C11" s="127" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B12" s="133" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D12" s="128" t="s">
         <v>1075</v>
       </c>
-      <c r="C5" s="128" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="C6" s="128" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="232" x14ac:dyDescent="0.35">
-      <c r="B7" s="128" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C7" s="128" t="s">
+    </row>
+    <row r="13" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+      <c r="C13" s="127" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="127" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C14" s="134" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="131" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C15" s="130" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="C8" s="131" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D8" s="131" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="C9" s="138" t="s">
+      <c r="D15" s="130" t="s">
         <v>1067</v>
       </c>
-      <c r="D9" s="128" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="132" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="232" x14ac:dyDescent="0.35">
-      <c r="C11" s="128" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B12" s="134" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D12" s="129" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="145" x14ac:dyDescent="0.35">
-      <c r="C13" s="128" t="s">
+    </row>
+    <row r="16" spans="1:22" ht="406" x14ac:dyDescent="0.35">
+      <c r="C16" s="127" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="128" t="s">
+      <c r="D16" s="127" t="s">
         <v>1082</v>
-      </c>
-      <c r="C14" s="135" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="132" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C15" s="131" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D15" s="131" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="406" x14ac:dyDescent="0.35">
-      <c r="C16" s="128" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D16" s="128" t="s">
-        <v>1084</v>
       </c>
     </row>
   </sheetData>
@@ -34462,10 +34744,10 @@
     <tabColor theme="9" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34500,10 +34782,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="142"/>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
+      <c r="A1" s="143"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -34543,15 +34825,15 @@
       <c r="U4" s="1"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>738</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="D5" s="75" t="s">
-        <v>800</v>
+      <c r="D5" s="146" t="s">
+        <v>1095</v>
       </c>
       <c r="P5" s="1"/>
       <c r="U5" s="1"/>
@@ -34567,6 +34849,7 @@
       <c r="C6" s="2" t="s">
         <v>742</v>
       </c>
+      <c r="D6" s="146"/>
       <c r="P6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="2"/>
@@ -34621,12 +34904,12 @@
         <v>749</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="D11" s="75" t="s">
-        <v>800</v>
+      <c r="D11" s="146" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
@@ -34713,49 +34996,65 @@
       <c r="A23" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>767</v>
+      <c r="B23" s="142" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C23" s="141" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="142" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B28" s="127" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B26" s="128" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="C27" s="2" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="130" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="128" t="s">
-        <v>1088</v>
-      </c>
+    <row r="29" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="C29" s="2" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="C30" s="2" t="s">
-        <v>771</v>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="129" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="127" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="C32" s="2" t="s">
+        <v>770</v>
       </c>
     </row>
   </sheetData>
@@ -34841,7 +35140,7 @@
     </row>
     <row r="5" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>235</v>
@@ -34855,7 +35154,7 @@
     </row>
     <row r="6" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>235</v>
@@ -34864,7 +35163,7 @@
     </row>
     <row r="7" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>235</v>
@@ -34879,62 +35178,62 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="409.5" x14ac:dyDescent="0.35">
       <c r="C12" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -34987,12 +35286,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="144" t="s">
-        <v>787</v>
-      </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="A1" s="145" t="s">
+        <v>786</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>

--- a/4 четверть_4_JavaScript_Back.xlsx
+++ b/4 четверть_4_JavaScript_Back.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176C470E-35E0-4DA4-B5FD-E3274E865EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F292E8-8FD1-492F-BA85-E5DA04CF987F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Крутой онлайн debugger" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="929">
   <si>
     <t>Крутой онлайн debugger</t>
   </si>
@@ -16940,9 +16940,6 @@
       <t xml:space="preserve"> Использовать, когда хотим одному классу добавить дополнительные функции без наследования
 </t>
     </r>
-  </si>
-  <si>
-    <t>Используется только в Arrays!</t>
   </si>
   <si>
     <t>forEach</t>
@@ -22981,16 +22978,30 @@
 index — индекс текущего элемента;
 arr — сам массив, который мы перебираем.</t>
   </si>
+  <si>
+    <t>https://sugarjs.com/docs/#/Array</t>
+  </si>
+  <si>
+    <t>Все методы для основных классов</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -23314,8 +23325,32 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -23415,6 +23450,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -23588,12 +23629,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -23611,164 +23653,164 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="49" fontId="21" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="8" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="8" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -23777,149 +23819,152 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="17" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="17" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -23930,29 +23975,36 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="18" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
     <cellStyle name="Гиперссылка 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -24979,13 +25031,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>128176</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1409698</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1800824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -25021,13 +25073,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>166278</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3843768</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1403350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -25063,13 +25115,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>107951</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>55411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>918106</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1174751</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -25105,13 +25157,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>87704</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2260600</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>2163982</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -25147,14 +25199,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3581924</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4870449</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2203836</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1656</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25189,13 +25241,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>40746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2000250</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1772091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -25231,13 +25283,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>88901</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4883151</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>413354</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -25667,44 +25719,44 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="4"/>
-    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="4"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="117"/>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="118"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -25723,7 +25775,7 @@
       <c r="S2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -25746,7 +25798,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="8" t="s">
         <v>1</v>
@@ -25777,38 +25829,38 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="4"/>
-    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="4"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -25827,7 +25879,7 @@
       <c r="S2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -25835,12 +25887,12 @@
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -25848,7 +25900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -25856,7 +25908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -25864,7 +25916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
@@ -25875,7 +25927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -25886,17 +25938,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -25907,7 +25959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -25918,7 +25970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -25926,17 +25978,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -25947,7 +25999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>31</v>
       </c>
@@ -25955,7 +26007,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -25966,27 +26018,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="319" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -25994,7 +26046,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -26002,7 +26054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -26010,22 +26062,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="C27" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="232" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
         <v>48</v>
       </c>
@@ -26048,38 +26100,38 @@
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.453125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="9" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="8" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="9" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="12"/>
-    <col min="21" max="21" width="67.7265625" style="8" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="9" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="9" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="9" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="9" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="9"/>
+    <col min="1" max="1" width="42.44140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="8" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="8" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="9" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="12"/>
+    <col min="21" max="21" width="67.77734375" style="8" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="9" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="9" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="9" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="9" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="9" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -26098,7 +26150,7 @@
       <c r="S2" s="14"/>
       <c r="U2" s="14"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>49</v>
       </c>
@@ -26106,7 +26158,7 @@
       <c r="U3" s="9"/>
       <c r="V3" s="8"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
@@ -26114,7 +26166,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="8"/>
     </row>
-    <row r="5" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>51</v>
       </c>
@@ -26128,7 +26180,7 @@
       <c r="U5" s="9"/>
       <c r="V5" s="8"/>
     </row>
-    <row r="6" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>53</v>
       </c>
@@ -26146,7 +26198,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
@@ -26164,7 +26216,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>7</v>
       </c>
@@ -26187,7 +26239,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>68</v>
       </c>
@@ -26197,13 +26249,13 @@
       <c r="F9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="84" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D10" s="22"/>
       <c r="F10" s="8" t="s">
@@ -26213,7 +26265,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>72</v>
       </c>
@@ -26227,7 +26279,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>76</v>
       </c>
@@ -26245,7 +26297,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>79</v>
       </c>
@@ -26257,7 +26309,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>81</v>
       </c>
@@ -26271,13 +26323,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C15" s="8" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>86</v>
       </c>
@@ -26288,19 +26340,19 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>89</v>
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C18" s="8" t="s">
         <v>90</v>
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>91</v>
       </c>
@@ -26312,7 +26364,7 @@
       <c r="J19" s="9"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>93</v>
       </c>
@@ -26320,7 +26372,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="216" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>95</v>
       </c>
@@ -26334,7 +26386,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>99</v>
       </c>
@@ -26345,7 +26397,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>102</v>
       </c>
@@ -26356,7 +26408,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>105</v>
       </c>
@@ -26368,7 +26420,7 @@
       </c>
       <c r="D24" s="22"/>
     </row>
-    <row r="25" spans="1:15" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>108</v>
       </c>
@@ -26382,7 +26434,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
         <v>112</v>
       </c>
@@ -26394,7 +26446,7 @@
       </c>
       <c r="D26" s="18"/>
     </row>
-    <row r="27" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>115</v>
       </c>
@@ -26405,14 +26457,14 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="C28" s="8" t="s">
         <v>118</v>
       </c>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>5</v>
       </c>
@@ -26420,7 +26472,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="34"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>119</v>
       </c>
@@ -26434,7 +26486,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="20"/>
       <c r="B31" s="8" t="s">
         <v>7</v>
@@ -26446,7 +26498,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>124</v>
       </c>
@@ -26460,7 +26512,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="8" t="s">
         <v>11</v>
@@ -26472,7 +26524,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="8" t="s">
         <v>127</v>
@@ -26484,7 +26536,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="8" t="s">
         <v>130</v>
@@ -26496,7 +26548,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
       <c r="B36" s="8" t="s">
         <v>132</v>
@@ -26508,13 +26560,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="34"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="8" t="s">
         <v>5</v>
@@ -26526,7 +26578,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="20"/>
       <c r="B39" s="8" t="s">
         <v>7</v>
@@ -26538,7 +26590,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
       <c r="B40" s="8" t="s">
         <v>9</v>
@@ -26550,7 +26602,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="30"/>
       <c r="B41" s="8" t="s">
         <v>11</v>
@@ -26562,7 +26614,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>136</v>
       </c>
@@ -26576,7 +26628,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="8" t="s">
         <v>130</v>
@@ -26588,7 +26640,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="35"/>
       <c r="B44" s="31" t="s">
         <v>132</v>
@@ -26600,13 +26652,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="36" t="s">
         <v>138</v>
       </c>
       <c r="D45" s="22"/>
     </row>
-    <row r="46" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>139</v>
       </c>
@@ -26618,7 +26670,7 @@
       </c>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>142</v>
       </c>
@@ -26630,13 +26682,13 @@
       </c>
       <c r="D47" s="22"/>
     </row>
-    <row r="48" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="36" t="s">
         <v>145</v>
       </c>
       <c r="D48" s="22"/>
     </row>
-    <row r="49" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
         <v>146</v>
       </c>
@@ -26647,11 +26699,11 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="D50" s="22"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="32" t="s">
         <v>149</v>
       </c>
@@ -26659,7 +26711,7 @@
       <c r="C51" s="17"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="8" t="s">
         <v>150</v>
@@ -26669,7 +26721,7 @@
       </c>
       <c r="D52" s="22"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
         <v>152</v>
       </c>
@@ -26678,7 +26730,7 @@
       </c>
       <c r="D53" s="34"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="C54" s="8" t="s">
         <v>154</v>
@@ -26687,7 +26739,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="C55" s="8" t="s">
         <v>156</v>
@@ -26696,7 +26748,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="C56" s="8" t="s">
         <v>157</v>
@@ -26705,7 +26757,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="8" t="s">
         <v>159</v>
@@ -26717,7 +26769,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="35"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31" t="s">
@@ -26727,7 +26779,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
         <v>163</v>
       </c>
@@ -26737,7 +26789,7 @@
       </c>
       <c r="D59" s="18"/>
     </row>
-    <row r="60" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>165</v>
       </c>
@@ -26748,7 +26800,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
         <v>168</v>
       </c>
@@ -26757,7 +26809,7 @@
       </c>
       <c r="D61" s="22"/>
     </row>
-    <row r="62" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
         <v>170</v>
       </c>
@@ -26766,13 +26818,13 @@
       </c>
       <c r="D62" s="22"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="116" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64" s="115" t="s">
         <v>172</v>
       </c>
@@ -26783,18 +26835,18 @@
         <v>174</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="115" t="s">
+        <v>922</v>
+      </c>
+      <c r="C65" s="115" t="s">
         <v>923</v>
       </c>
-      <c r="C65" s="115" t="s">
+      <c r="D65" s="115" t="s">
         <v>924</v>
       </c>
-      <c r="D65" s="115" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>175</v>
       </c>
@@ -26805,7 +26857,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A67" s="30" t="s">
         <v>178</v>
       </c>
@@ -26817,7 +26869,7 @@
       </c>
       <c r="D67" s="34"/>
     </row>
-    <row r="68" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>181</v>
       </c>
@@ -26826,7 +26878,7 @@
       </c>
       <c r="D68" s="22"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="37" t="s">
         <v>183</v>
       </c>
@@ -26834,7 +26886,7 @@
       <c r="C69" s="38"/>
       <c r="D69" s="39"/>
     </row>
-    <row r="70" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="40" t="s">
         <v>184</v>
       </c>
@@ -26848,7 +26900,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A71" s="40" t="s">
         <v>188</v>
       </c>
@@ -26862,7 +26914,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="42" t="s">
         <v>192</v>
       </c>
@@ -26870,7 +26922,7 @@
       <c r="C72" s="43"/>
       <c r="D72" s="44"/>
     </row>
-    <row r="73" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="45"/>
       <c r="B73" s="8" t="s">
         <v>193</v>
@@ -26882,7 +26934,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A74" s="45" t="s">
         <v>196</v>
       </c>
@@ -26896,7 +26948,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A75" s="45"/>
       <c r="B75" s="8" t="s">
         <v>200</v>
@@ -26906,7 +26958,7 @@
       </c>
       <c r="D75" s="41"/>
     </row>
-    <row r="76" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A76" s="45"/>
       <c r="C76" s="8" t="s">
         <v>202</v>
@@ -26915,7 +26967,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A77" s="46"/>
       <c r="B77" s="47"/>
       <c r="C77" s="47" t="s">
@@ -26925,13 +26977,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="49" t="s">
         <v>206</v>
       </c>
       <c r="D78" s="41"/>
     </row>
-    <row r="79" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A79" s="45"/>
       <c r="B79" s="8" t="s">
         <v>207</v>
@@ -26943,21 +26995,21 @@
         <v>209</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="45"/>
       <c r="C80" s="8" t="s">
         <v>210</v>
       </c>
       <c r="D80" s="41"/>
     </row>
-    <row r="81" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A81" s="45"/>
       <c r="C81" s="8" t="s">
         <v>211</v>
       </c>
       <c r="D81" s="41"/>
     </row>
-    <row r="82" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A82" s="45" t="s">
         <v>212</v>
       </c>
@@ -26968,14 +27020,14 @@
         <v>214</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A83" s="45"/>
       <c r="C83" s="8" t="s">
         <v>215</v>
       </c>
       <c r="D83" s="41"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="37" t="s">
         <v>216</v>
       </c>
@@ -26983,7 +27035,7 @@
       <c r="C84" s="43"/>
       <c r="D84" s="44"/>
     </row>
-    <row r="85" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A85" s="45"/>
       <c r="B85" s="8" t="s">
         <v>217</v>
@@ -26995,7 +27047,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A86" s="46"/>
       <c r="B86" s="47" t="s">
         <v>220</v>
@@ -27007,7 +27059,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="37" t="s">
         <v>223</v>
       </c>
@@ -27017,7 +27069,7 @@
       </c>
       <c r="D87" s="39"/>
     </row>
-    <row r="88" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A88" s="45"/>
       <c r="B88" s="8" t="s">
         <v>225</v>
@@ -27029,7 +27081,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A89" s="45" t="s">
         <v>228</v>
       </c>
@@ -27040,7 +27092,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="50" t="s">
         <v>231</v>
       </c>
@@ -27052,7 +27104,7 @@
       </c>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>234</v>
       </c>
@@ -27066,7 +27118,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="52" t="s">
         <v>238</v>
       </c>
@@ -27076,7 +27128,7 @@
       <c r="C92" s="53"/>
       <c r="D92" s="54"/>
     </row>
-    <row r="93" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A93" s="46" t="s">
         <v>240</v>
       </c>
@@ -27088,7 +27140,7 @@
       </c>
       <c r="D93" s="55"/>
     </row>
-    <row r="94" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="45"/>
       <c r="B94" s="8" t="s">
         <v>243</v>
@@ -27098,7 +27150,7 @@
       </c>
       <c r="D94" s="41"/>
     </row>
-    <row r="95" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A95" s="45"/>
       <c r="B95" s="8" t="s">
         <v>245</v>
@@ -27110,19 +27162,19 @@
         <v>247</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A96" s="45"/>
       <c r="C96" s="8" t="s">
         <v>211</v>
       </c>
       <c r="D96" s="41"/>
     </row>
-    <row r="97" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A97" s="45" t="s">
         <v>212</v>
       </c>
       <c r="B97" s="80" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>213</v>
@@ -27131,14 +27183,14 @@
         <v>214</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A98" s="45"/>
       <c r="C98" s="8" t="s">
         <v>215</v>
       </c>
       <c r="D98" s="41"/>
     </row>
-    <row r="99" spans="1:22" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A99" s="46" t="s">
         <v>248</v>
       </c>
@@ -27152,7 +27204,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" s="37" t="s">
         <v>252</v>
       </c>
@@ -27160,7 +27212,7 @@
       <c r="C100" s="43"/>
       <c r="D100" s="44"/>
     </row>
-    <row r="101" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A101" s="45"/>
       <c r="B101" s="8" t="s">
         <v>253</v>
@@ -27172,7 +27224,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="45" t="s">
         <v>256</v>
       </c>
@@ -27181,7 +27233,7 @@
       </c>
       <c r="D102" s="41"/>
     </row>
-    <row r="103" spans="1:22" ht="261" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A103" s="46" t="s">
         <v>258</v>
       </c>
@@ -27193,13 +27245,13 @@
       </c>
       <c r="D103" s="48"/>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" s="56" t="s">
         <v>261</v>
       </c>
       <c r="D104" s="8"/>
     </row>
-    <row r="105" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>262</v>
       </c>
@@ -27208,7 +27260,7 @@
       </c>
       <c r="D105" s="8"/>
     </row>
-    <row r="106" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>264</v>
       </c>
@@ -27220,11 +27272,11 @@
       </c>
       <c r="D106" s="8"/>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107" s="8"/>
       <c r="D107" s="8"/>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -27243,7 +27295,7 @@
       <c r="S108" s="14"/>
       <c r="U108" s="14"/>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109" s="8"/>
       <c r="B109" s="8" t="s">
         <v>267</v>
@@ -27252,23 +27304,23 @@
         <v>268</v>
       </c>
       <c r="D109" s="69" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="V109" s="8"/>
     </row>
-    <row r="110" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>269</v>
       </c>
       <c r="B110" s="69" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>270</v>
       </c>
       <c r="D110" s="8"/>
     </row>
-    <row r="111" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>5</v>
       </c>
@@ -27280,7 +27332,7 @@
       </c>
       <c r="D111" s="8"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>7</v>
       </c>
@@ -27289,7 +27341,7 @@
       </c>
       <c r="D112" s="8"/>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>9</v>
       </c>
@@ -27298,7 +27350,7 @@
       </c>
       <c r="D113" s="8"/>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" s="8"/>
       <c r="B114" s="56" t="s">
         <v>274</v>
@@ -27310,7 +27362,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A115" s="8"/>
       <c r="B115" s="8" t="s">
         <v>275</v>
@@ -27322,11 +27374,11 @@
         <v>277</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" s="8"/>
       <c r="D116" s="8"/>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -27345,7 +27397,7 @@
       <c r="S117" s="14"/>
       <c r="U117" s="14"/>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>278</v>
       </c>
@@ -27356,7 +27408,7 @@
       <c r="U118" s="9"/>
       <c r="V118" s="8"/>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" s="56" t="s">
         <v>280</v>
       </c>
@@ -27364,7 +27416,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>282</v>
       </c>
@@ -27376,7 +27428,7 @@
       </c>
       <c r="D120" s="8"/>
     </row>
-    <row r="121" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>285</v>
       </c>
@@ -27388,7 +27440,7 @@
       </c>
       <c r="D121" s="8"/>
     </row>
-    <row r="122" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>288</v>
       </c>
@@ -27400,7 +27452,7 @@
       </c>
       <c r="D122" s="8"/>
     </row>
-    <row r="123" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A123" s="57" t="s">
         <v>291</v>
       </c>
@@ -27412,34 +27464,34 @@
       </c>
       <c r="D123" s="8"/>
     </row>
-    <row r="124" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A124" s="8"/>
       <c r="C124" s="8" t="s">
         <v>294</v>
       </c>
       <c r="D124" s="8"/>
     </row>
-    <row r="125" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A125" s="8"/>
       <c r="C125" s="8" t="s">
         <v>295</v>
       </c>
       <c r="D125" s="8"/>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126" s="56" t="s">
         <v>296</v>
       </c>
       <c r="D126" s="8"/>
     </row>
-    <row r="127" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A127" s="8"/>
       <c r="C127" s="8" t="s">
         <v>297</v>
       </c>
       <c r="D127" s="8"/>
     </row>
-    <row r="128" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>298</v>
       </c>
@@ -27448,14 +27500,14 @@
       </c>
       <c r="D128" s="8"/>
     </row>
-    <row r="129" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A129" s="8"/>
       <c r="C129" s="8" t="s">
         <v>300</v>
       </c>
       <c r="D129" s="8"/>
     </row>
-    <row r="130" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A130" s="56" t="s">
         <v>301</v>
       </c>
@@ -27467,7 +27519,7 @@
       </c>
       <c r="D130" s="8"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>304</v>
       </c>
@@ -27476,7 +27528,7 @@
       </c>
       <c r="D131" s="8"/>
     </row>
-    <row r="132" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>306</v>
       </c>
@@ -27490,7 +27542,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="8"/>
       <c r="B133" s="8" t="s">
         <v>310</v>
@@ -27500,7 +27552,7 @@
       </c>
       <c r="D133" s="8"/>
     </row>
-    <row r="134" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A134" s="56" t="s">
         <v>312</v>
       </c>
@@ -27512,13 +27564,13 @@
       </c>
       <c r="D134" s="8"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="56" t="s">
         <v>314</v>
       </c>
       <c r="D135" s="8"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
         <v>315</v>
       </c>
@@ -27529,7 +27581,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
         <v>318</v>
       </c>
@@ -27541,7 +27593,7 @@
       </c>
       <c r="D137" s="8"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
         <v>320</v>
       </c>
@@ -27553,13 +27605,13 @@
       </c>
       <c r="D138" s="8"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="56" t="s">
         <v>322</v>
       </c>
       <c r="D139" s="8"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
         <v>323</v>
       </c>
@@ -27571,7 +27623,7 @@
       </c>
       <c r="D140" s="8"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
         <v>326</v>
       </c>
@@ -27583,7 +27635,7 @@
       </c>
       <c r="D141" s="8"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
         <v>328</v>
       </c>
@@ -27595,7 +27647,7 @@
       </c>
       <c r="D142" s="8"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
         <v>330</v>
       </c>
@@ -27607,11 +27659,11 @@
       </c>
       <c r="D143" s="8"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="8"/>
       <c r="D144" s="8"/>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A145" s="13"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -27630,7 +27682,7 @@
       <c r="S145" s="14"/>
       <c r="U145" s="14"/>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>332</v>
       </c>
@@ -27641,7 +27693,7 @@
       <c r="U146" s="9"/>
       <c r="V146" s="8"/>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A147" s="56" t="s">
         <v>333</v>
       </c>
@@ -27649,7 +27701,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="148" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
         <v>335</v>
       </c>
@@ -27661,7 +27713,7 @@
       </c>
       <c r="D148" s="8"/>
     </row>
-    <row r="149" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A149" s="57" t="s">
         <v>338</v>
       </c>
@@ -27675,7 +27727,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="150" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A150" s="8"/>
       <c r="B150" s="8" t="s">
         <v>342</v>
@@ -27687,7 +27739,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A151" s="8"/>
       <c r="B151" s="8" t="s">
         <v>345</v>
@@ -27697,12 +27749,12 @@
       </c>
       <c r="D151" s="8"/>
     </row>
-    <row r="152" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C152" s="8" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A153" s="58" t="s">
         <v>348</v>
       </c>
@@ -27714,7 +27766,7 @@
       </c>
       <c r="D153" s="8"/>
     </row>
-    <row r="154" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A154" s="43" t="s">
         <v>351</v>
       </c>
@@ -27726,7 +27778,7 @@
       </c>
       <c r="D154" s="8"/>
     </row>
-    <row r="155" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
         <v>353</v>
       </c>
@@ -27735,7 +27787,7 @@
       </c>
       <c r="D155" s="8"/>
     </row>
-    <row r="156" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
         <v>355</v>
       </c>
@@ -27744,7 +27796,7 @@
       </c>
       <c r="D156" s="8"/>
     </row>
-    <row r="157" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A157" s="47" t="s">
         <v>357</v>
       </c>
@@ -27754,7 +27806,7 @@
       </c>
       <c r="D157" s="22"/>
     </row>
-    <row r="158" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
         <v>359</v>
       </c>
@@ -27763,7 +27815,7 @@
       </c>
       <c r="D158" s="8"/>
     </row>
-    <row r="159" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
         <v>361</v>
       </c>
@@ -27772,7 +27824,7 @@
       </c>
       <c r="D159" s="8"/>
     </row>
-    <row r="160" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
         <v>363</v>
       </c>
@@ -27781,7 +27833,7 @@
       </c>
       <c r="D160" s="8"/>
     </row>
-    <row r="161" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
         <v>365</v>
       </c>
@@ -27790,7 +27842,7 @@
       </c>
       <c r="D161" s="8"/>
     </row>
-    <row r="162" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
         <v>367</v>
       </c>
@@ -27802,7 +27854,7 @@
       </c>
       <c r="D162" s="8"/>
     </row>
-    <row r="163" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="43" t="s">
         <v>369</v>
       </c>
@@ -27812,7 +27864,7 @@
       </c>
       <c r="D163" s="8"/>
     </row>
-    <row r="164" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" s="47" t="s">
         <v>371</v>
       </c>
@@ -27822,7 +27874,7 @@
       </c>
       <c r="D164" s="8"/>
     </row>
-    <row r="165" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
         <v>373</v>
       </c>
@@ -27830,13 +27882,13 @@
         <v>374</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A166" s="56" t="s">
         <v>375</v>
       </c>
       <c r="D166" s="8"/>
     </row>
-    <row r="167" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
         <v>376</v>
       </c>
@@ -27847,7 +27899,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>378</v>
       </c>
@@ -27861,12 +27913,12 @@
         <v>381</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A170" s="8" t="s">
         <v>383</v>
       </c>
@@ -27877,7 +27929,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A171" s="13"/>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
@@ -27896,7 +27948,7 @@
       <c r="S171" s="14"/>
       <c r="U171" s="14"/>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>386</v>
       </c>
@@ -27907,7 +27959,7 @@
       <c r="U172" s="9"/>
       <c r="V172" s="8"/>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
         <v>387</v>
       </c>
@@ -27915,7 +27967,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="174" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>389</v>
       </c>
@@ -27926,7 +27978,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="175" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>392</v>
       </c>
@@ -27934,7 +27986,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="176" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B176" s="8" t="s">
         <v>394</v>
       </c>
@@ -27945,7 +27997,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="177" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="C177" s="8" t="s">
         <v>397</v>
       </c>
@@ -27953,12 +28005,12 @@
         <v>398</v>
       </c>
     </row>
-    <row r="178" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C178" s="8" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="179" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>400</v>
       </c>
@@ -27966,7 +28018,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:22" ht="216" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
         <v>402</v>
       </c>
@@ -27975,13 +28027,13 @@
         <v>403</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A181" s="56" t="s">
         <v>404</v>
       </c>
       <c r="B181" s="59"/>
     </row>
-    <row r="182" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A182" s="8"/>
       <c r="B182" s="8" t="s">
         <v>405</v>
@@ -27990,7 +28042,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A183" s="56" t="s">
         <v>407</v>
       </c>
@@ -27998,7 +28050,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
         <v>409</v>
       </c>
@@ -28006,7 +28058,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
         <v>378</v>
       </c>
@@ -28020,12 +28072,12 @@
         <v>381</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="187" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
         <v>412</v>
       </c>
@@ -28039,7 +28091,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A188" s="13"/>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
@@ -28058,23 +28110,23 @@
       <c r="S188" s="14"/>
       <c r="U188" s="14"/>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C189" s="57" t="s">
         <v>416</v>
       </c>
       <c r="V189" s="8"/>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C190" s="8" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C191" s="8" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A193" s="13"/>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
@@ -28093,7 +28145,7 @@
       <c r="S193" s="14"/>
       <c r="U193" s="14"/>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A194" s="9" t="s">
         <v>419</v>
       </c>
@@ -28107,17 +28159,17 @@
       <c r="U194" s="9"/>
       <c r="V194" s="8"/>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C195" s="8" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="197" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
         <v>424</v>
       </c>
@@ -28125,7 +28177,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="198" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="C198" s="8" t="s">
         <v>426</v>
       </c>
@@ -28133,7 +28185,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="199" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
         <v>428</v>
       </c>
@@ -28144,12 +28196,12 @@
         <v>430</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="201" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>432</v>
       </c>
@@ -28160,7 +28212,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B202" s="8" t="s">
         <v>435</v>
       </c>
@@ -28168,7 +28220,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
         <v>437</v>
       </c>
@@ -28179,7 +28231,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="204" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B204" s="8" t="s">
         <v>440</v>
       </c>
@@ -28187,7 +28239,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="205" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
         <v>442</v>
       </c>
@@ -28195,7 +28247,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="206" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B206" s="8" t="s">
         <v>444</v>
       </c>
@@ -28206,7 +28258,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="207" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A207" s="8" t="s">
         <v>447</v>
       </c>
@@ -28220,7 +28272,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
         <v>451</v>
       </c>
@@ -28231,7 +28283,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A209" s="8" t="s">
         <v>454</v>
       </c>
@@ -28242,7 +28294,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A210" s="8" t="s">
         <v>457</v>
       </c>
@@ -28256,7 +28308,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B211" s="8" t="s">
         <v>461</v>
       </c>
@@ -28264,7 +28316,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
         <v>463</v>
       </c>
@@ -28272,7 +28324,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A213" s="8" t="s">
         <v>465</v>
       </c>
@@ -28286,7 +28338,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A214" s="8" t="s">
         <v>469</v>
       </c>
@@ -28294,13 +28346,13 @@
         <v>470</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A215" s="8"/>
       <c r="C215" s="8" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A216" s="8" t="s">
         <v>472</v>
       </c>
@@ -28311,7 +28363,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A217" s="8" t="s">
         <v>475</v>
       </c>
@@ -28322,23 +28374,23 @@
         <v>477</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="56" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A219" s="8"/>
       <c r="C219" s="8" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B221" s="8" t="s">
         <v>481</v>
       </c>
@@ -28349,7 +28401,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A222" s="8" t="s">
         <v>484</v>
       </c>
@@ -28363,7 +28415,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="290" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" ht="288" x14ac:dyDescent="0.3">
       <c r="B223" s="8" t="s">
         <v>487</v>
       </c>
@@ -28374,12 +28426,12 @@
         <v>488</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="D224" s="8" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A225" s="9" t="s">
         <v>490</v>
       </c>
@@ -28393,7 +28445,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A226" s="8" t="s">
         <v>493</v>
       </c>
@@ -28407,7 +28459,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" ht="216" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>497</v>
       </c>
@@ -28419,7 +28471,7 @@
       </c>
       <c r="D227" s="8"/>
     </row>
-    <row r="228" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="56" t="s">
         <v>500</v>
       </c>
@@ -28428,7 +28480,7 @@
       </c>
       <c r="D228" s="8"/>
     </row>
-    <row r="229" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A229" s="8" t="s">
         <v>502</v>
       </c>
@@ -28442,7 +28494,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A230" s="8"/>
       <c r="B230" s="8" t="s">
         <v>506</v>
@@ -28451,7 +28503,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
         <v>508</v>
       </c>
@@ -28459,7 +28511,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B232" s="8" t="s">
         <v>510</v>
       </c>
@@ -28467,19 +28519,19 @@
         <v>511</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="1"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="5"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
       <c r="D235" s="5"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>512</v>
       </c>
@@ -28491,7 +28543,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>515</v>
       </c>
@@ -28503,7 +28555,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>518</v>
       </c>
@@ -28515,7 +28567,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>521</v>
       </c>
@@ -28525,7 +28577,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A240" s="10" t="s">
         <v>523</v>
       </c>
@@ -28534,7 +28586,7 @@
       </c>
       <c r="D240" s="1"/>
     </row>
-    <row r="241" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>525</v>
       </c>
@@ -28545,7 +28597,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>528</v>
       </c>
@@ -28555,17 +28607,17 @@
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
     </row>
-    <row r="243" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
       <c r="B243" s="111" t="s">
+        <v>914</v>
+      </c>
+      <c r="C243" s="111" t="s">
         <v>915</v>
       </c>
-      <c r="C243" s="111" t="s">
-        <v>916</v>
-      </c>
       <c r="D243" s="2"/>
     </row>
-    <row r="244" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>530</v>
       </c>
@@ -28579,7 +28631,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>534</v>
       </c>
@@ -28590,7 +28642,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>537</v>
       </c>
@@ -28600,7 +28652,7 @@
       </c>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2" t="s">
@@ -28608,7 +28660,7 @@
       </c>
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="10" t="s">
         <v>540</v>
       </c>
@@ -28618,7 +28670,7 @@
       </c>
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>525</v>
       </c>
@@ -28632,7 +28684,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2" t="s">
@@ -28640,7 +28692,7 @@
       </c>
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>546</v>
       </c>
@@ -28654,7 +28706,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>550</v>
       </c>
@@ -28666,7 +28718,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>553</v>
       </c>
@@ -28680,7 +28732,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="10" t="s">
         <v>231</v>
       </c>
@@ -28690,7 +28742,7 @@
       </c>
       <c r="D254" s="1"/>
     </row>
-    <row r="255" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>234</v>
       </c>
@@ -28704,7 +28756,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="10" t="s">
         <v>558</v>
       </c>
@@ -28712,7 +28764,7 @@
       <c r="C256" s="2"/>
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>559</v>
       </c>
@@ -28726,7 +28778,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="258" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
       <c r="B258" s="2" t="s">
         <v>563</v>
@@ -28738,7 +28790,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="259" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2" t="s">
@@ -28748,7 +28800,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A261" s="13"/>
       <c r="B261" s="14"/>
       <c r="C261" s="14"/>
@@ -28767,7 +28819,7 @@
       <c r="S261" s="14"/>
       <c r="U261" s="14"/>
     </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A262" s="9" t="s">
         <v>568</v>
       </c>
@@ -28781,7 +28833,7 @@
       <c r="U262" s="9"/>
       <c r="V262" s="8"/>
     </row>
-    <row r="263" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="B263" s="8" t="s">
         <v>570</v>
       </c>
@@ -28789,7 +28841,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="264" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A264" s="8" t="s">
         <v>572</v>
       </c>
@@ -28803,7 +28855,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="265" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A265" s="9" t="s">
         <v>576</v>
       </c>
@@ -28817,7 +28869,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="266" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A266" s="8" t="s">
         <v>580</v>
       </c>
@@ -28831,7 +28883,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A267" s="9" t="s">
         <v>584</v>
       </c>
@@ -28839,22 +28891,22 @@
         <v>585</v>
       </c>
     </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A268" s="7" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="269" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C269" s="8" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="270" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C270" s="8" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="271" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B271" s="8" t="s">
         <v>5</v>
       </c>
@@ -28865,7 +28917,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="272" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="B272" s="8" t="s">
         <v>590</v>
       </c>
@@ -28876,7 +28928,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A274" s="13"/>
       <c r="B274" s="14"/>
       <c r="C274" s="14"/>
@@ -28895,7 +28947,7 @@
       <c r="S274" s="14"/>
       <c r="U274" s="14"/>
     </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A275" s="9" t="s">
         <v>593</v>
       </c>
@@ -28909,7 +28961,7 @@
       <c r="U275" s="9"/>
       <c r="V275" s="8"/>
     </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A276" s="7" t="s">
         <v>595</v>
       </c>
@@ -28917,7 +28969,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="277" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B277" s="63" t="s">
         <v>597</v>
       </c>
@@ -28928,7 +28980,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="278" spans="1:22" ht="261" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B278" s="8" t="s">
         <v>600</v>
       </c>
@@ -28936,7 +28988,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="279" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B279" s="8" t="s">
         <v>602</v>
       </c>
@@ -28944,12 +28996,12 @@
         <v>603</v>
       </c>
     </row>
-    <row r="280" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C280" s="8" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="281" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A281" s="7" t="s">
         <v>431</v>
       </c>
@@ -28957,7 +29009,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="282" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B282" s="8" t="s">
         <v>606</v>
       </c>
@@ -28965,7 +29017,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="283" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A283" s="7" t="s">
         <v>608</v>
       </c>
@@ -28973,7 +29025,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="284" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A284" s="8" t="s">
         <v>610</v>
       </c>
@@ -28984,7 +29036,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="285" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B285" s="8" t="s">
         <v>613</v>
       </c>
@@ -28992,17 +29044,17 @@
         <v>614</v>
       </c>
     </row>
-    <row r="286" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A286" s="7" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="287" spans="1:22" ht="290" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:22" ht="288" x14ac:dyDescent="0.3">
       <c r="C287" s="8" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="288" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B288" s="8" t="s">
         <v>617</v>
       </c>
@@ -29013,7 +29065,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="289" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A289" s="8" t="s">
         <v>620</v>
       </c>
@@ -29024,7 +29076,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="290" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B290" s="8" t="s">
         <v>623</v>
       </c>
@@ -29035,7 +29087,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="291" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B291" s="8" t="s">
         <v>626</v>
       </c>
@@ -29043,7 +29095,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="293" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A293" s="13"/>
       <c r="B293" s="14"/>
       <c r="C293" s="14"/>
@@ -29062,7 +29114,7 @@
       <c r="S293" s="14"/>
       <c r="U293" s="14"/>
     </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A294" s="9" t="s">
         <v>628</v>
       </c>
@@ -29073,7 +29125,7 @@
       <c r="U294" s="9"/>
       <c r="V294" s="8"/>
     </row>
-    <row r="295" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A295" s="56" t="s">
         <v>630</v>
       </c>
@@ -29083,7 +29135,7 @@
       <c r="C295" s="56"/>
       <c r="D295" s="7"/>
     </row>
-    <row r="296" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A296" s="8"/>
       <c r="B296" s="8" t="s">
         <v>632</v>
@@ -29092,7 +29144,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="297" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B297" s="64" t="s">
         <v>634</v>
       </c>
@@ -29100,7 +29152,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="298" spans="1:22" ht="232" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A298" s="8" t="s">
         <v>636</v>
       </c>
@@ -29111,7 +29163,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="299" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A299" s="56" t="s">
         <v>639</v>
       </c>
@@ -29121,7 +29173,7 @@
       <c r="C299" s="56"/>
       <c r="D299" s="7"/>
     </row>
-    <row r="300" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A300" s="8" t="s">
         <v>641</v>
       </c>
@@ -29129,12 +29181,12 @@
         <v>642</v>
       </c>
     </row>
-    <row r="301" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A301" s="27" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="302" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B302" s="8" t="s">
         <v>644</v>
       </c>
@@ -29142,7 +29194,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="303" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A303" s="27" t="s">
         <v>646</v>
       </c>
@@ -29156,7 +29208,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="304" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B304" s="8" t="s">
         <v>650</v>
       </c>
@@ -29167,7 +29219,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="305" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C305" s="8" t="s">
         <v>653</v>
       </c>
@@ -29175,20 +29227,20 @@
         <v>654</v>
       </c>
     </row>
-    <row r="306" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D306" s="8" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="311" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A311" s="118" t="s">
-        <v>775</v>
-      </c>
-      <c r="B311" s="118"/>
-      <c r="C311" s="118"/>
-      <c r="D311" s="118"/>
-    </row>
-    <row r="312" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A311" s="119" t="s">
+        <v>774</v>
+      </c>
+      <c r="B311" s="119"/>
+      <c r="C311" s="119"/>
+      <c r="D311" s="119"/>
+    </row>
+    <row r="312" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A312" s="13"/>
       <c r="B312" s="14"/>
       <c r="C312" s="14"/>
@@ -29207,7 +29259,7 @@
       <c r="S312" s="14"/>
       <c r="U312" s="14"/>
     </row>
-    <row r="313" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A313" s="9" t="s">
         <v>656</v>
       </c>
@@ -29221,22 +29273,22 @@
       <c r="U313" s="9"/>
       <c r="V313" s="8"/>
     </row>
-    <row r="314" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C314" s="8" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="315" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A315" s="9" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="316" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="C316" s="8" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="318" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A318" s="13"/>
       <c r="B318" s="14"/>
       <c r="C318" s="14"/>
@@ -29255,7 +29307,7 @@
       <c r="S318" s="14"/>
       <c r="U318" s="14"/>
     </row>
-    <row r="319" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="9" t="s">
         <v>662</v>
       </c>
@@ -29263,13 +29315,13 @@
         <v>663</v>
       </c>
       <c r="D319" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="P319" s="9"/>
       <c r="U319" s="9"/>
       <c r="V319" s="8"/>
     </row>
-    <row r="320" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A320" s="7" t="s">
         <v>664</v>
       </c>
@@ -29277,7 +29329,7 @@
       <c r="U320" s="9"/>
       <c r="V320" s="8"/>
     </row>
-    <row r="321" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C321" s="8" t="s">
         <v>665</v>
       </c>
@@ -29285,7 +29337,7 @@
       <c r="U321" s="9"/>
       <c r="V321" s="8"/>
     </row>
-    <row r="322" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A322" s="7" t="s">
         <v>666</v>
       </c>
@@ -29293,7 +29345,7 @@
       <c r="U322" s="9"/>
       <c r="V322" s="8"/>
     </row>
-    <row r="323" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B323" s="8" t="s">
         <v>667</v>
       </c>
@@ -29304,7 +29356,7 @@
       <c r="U323" s="9"/>
       <c r="V323" s="8"/>
     </row>
-    <row r="324" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A324" s="56" t="s">
         <v>669</v>
       </c>
@@ -29312,23 +29364,23 @@
       <c r="U324" s="9"/>
       <c r="V324" s="8"/>
     </row>
-    <row r="325" spans="1:22" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="B325" s="8" t="s">
         <v>670</v>
       </c>
       <c r="C325" s="69" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="P325" s="9"/>
       <c r="U325" s="9"/>
       <c r="V325" s="8"/>
     </row>
-    <row r="326" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A326" s="27" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="327" spans="1:22" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="B327" s="8" t="s">
         <v>672</v>
       </c>
@@ -29339,12 +29391,12 @@
         <v>674</v>
       </c>
     </row>
-    <row r="328" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A328" s="27" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="329" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B329" s="8" t="s">
         <v>676</v>
       </c>
@@ -29352,17 +29404,17 @@
         <v>677</v>
       </c>
     </row>
-    <row r="330" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A330" s="27" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="331" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="C331" s="8" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="333" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A333" s="13"/>
       <c r="B333" s="14"/>
       <c r="C333" s="14"/>
@@ -29381,7 +29433,7 @@
       <c r="S333" s="14"/>
       <c r="U333" s="14"/>
     </row>
-    <row r="334" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A334" s="9" t="s">
         <v>680</v>
       </c>
@@ -29392,7 +29444,7 @@
       <c r="U334" s="9"/>
       <c r="V334" s="8"/>
     </row>
-    <row r="335" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C335" s="64" t="s">
         <v>682</v>
       </c>
@@ -29400,7 +29452,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="336" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B336" s="8" t="s">
         <v>684</v>
       </c>
@@ -29411,7 +29463,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="337" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A337" s="8" t="s">
         <v>687</v>
       </c>
@@ -29425,11 +29477,11 @@
         <v>690</v>
       </c>
     </row>
-    <row r="338" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A338" s="8"/>
       <c r="D338" s="8"/>
     </row>
-    <row r="339" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A339" s="13"/>
       <c r="B339" s="14"/>
       <c r="C339" s="14"/>
@@ -29448,39 +29500,39 @@
       <c r="S339" s="14"/>
       <c r="U339" s="14"/>
     </row>
-    <row r="340" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" s="9" t="s">
         <v>691</v>
       </c>
       <c r="C340" s="83" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="V340" s="8"/>
     </row>
-    <row r="341" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A341" s="82" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B341" s="67"/>
       <c r="C341" s="67"/>
       <c r="D341" s="68"/>
     </row>
-    <row r="342" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A342" s="65" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="343" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C343" s="69" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="344" spans="1:22" x14ac:dyDescent="0.35">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="344" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A344" s="64" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="345" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="B345" s="8" t="s">
         <v>694</v>
       </c>
@@ -29488,12 +29540,12 @@
         <v>695</v>
       </c>
     </row>
-    <row r="346" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A346" s="65" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="347" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="C347" s="85" t="s">
         <v>696</v>
       </c>
@@ -29501,12 +29553,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="348" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A348" s="57" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="349" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B349" s="8" t="s">
         <v>698</v>
       </c>
@@ -29514,9 +29566,9 @@
         <v>699</v>
       </c>
     </row>
-    <row r="350" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A350" s="73" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B350" s="75" t="s">
         <v>700</v>
@@ -29524,46 +29576,46 @@
       <c r="C350" s="76"/>
       <c r="D350" s="77"/>
     </row>
-    <row r="351" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A351" s="69" t="s">
+        <v>777</v>
+      </c>
+      <c r="B351" s="69" t="s">
+        <v>779</v>
+      </c>
+      <c r="C351" s="69" t="s">
+        <v>782</v>
+      </c>
+      <c r="D351" s="69" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="352" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A352" s="69" t="s">
         <v>778</v>
       </c>
-      <c r="B351" s="69" t="s">
+      <c r="C352" s="85" t="s">
         <v>780</v>
       </c>
-      <c r="C351" s="69" t="s">
-        <v>783</v>
-      </c>
-      <c r="D351" s="69" t="s">
+      <c r="D352" s="69" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="352" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A352" s="69" t="s">
-        <v>779</v>
-      </c>
-      <c r="C352" s="85" t="s">
-        <v>781</v>
-      </c>
-      <c r="D352" s="69" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="353" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A353" s="73" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C353" s="85"/>
       <c r="D353" s="69"/>
     </row>
-    <row r="354" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A354" s="69"/>
       <c r="C354" s="85" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D354" s="69"/>
     </row>
-    <row r="355" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A355" s="13"/>
       <c r="B355" s="14"/>
       <c r="C355" s="14"/>
@@ -29582,93 +29634,93 @@
       <c r="S355" s="14"/>
       <c r="U355" s="14"/>
     </row>
-    <row r="356" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A356" s="74" t="s">
+        <v>800</v>
+      </c>
+      <c r="C356" s="83" t="s">
         <v>801</v>
       </c>
-      <c r="C356" s="83" t="s">
-        <v>802</v>
-      </c>
       <c r="V356" s="8"/>
     </row>
-    <row r="357" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A357" s="86" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B357" s="67"/>
       <c r="C357" s="67"/>
       <c r="D357" s="68"/>
     </row>
-    <row r="358" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A358" s="65" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="359" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B359" s="85" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C359" s="85" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="360" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="360" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A360" s="69" t="s">
+        <v>777</v>
+      </c>
+      <c r="C360" s="69" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="361" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A361" s="69" t="s">
         <v>778</v>
       </c>
-      <c r="C360" s="69" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="361" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A361" s="69" t="s">
-        <v>779</v>
-      </c>
       <c r="C361" s="69" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="362" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="362" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A362" s="70" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B362" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C362" s="85" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="363" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A363" s="64" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="364" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A364" s="8"/>
       <c r="C364" s="8" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="365" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A365" s="7" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="366" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B366" s="8" t="s">
         <v>424</v>
       </c>
       <c r="C366" s="85" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="367" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="367" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="C367" s="8" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="368" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A368" s="8" t="s">
         <v>428</v>
       </c>
@@ -29680,100 +29732,100 @@
       </c>
       <c r="F368" s="96"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="7" t="s">
         <v>431</v>
       </c>
       <c r="D369" s="91" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F369" s="96"/>
     </row>
-    <row r="370" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B370" s="88" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C370" s="93" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F370" s="96"/>
     </row>
-    <row r="371" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A371" s="8"/>
       <c r="B371" s="87" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C371" s="93" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D371" s="90"/>
       <c r="F371" s="96"/>
     </row>
-    <row r="372" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A372" s="97" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B372" s="90"/>
       <c r="C372" s="93"/>
       <c r="D372" s="90"/>
       <c r="F372" s="96"/>
     </row>
-    <row r="373" spans="1:6" ht="232" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A373" s="90"/>
       <c r="B373" s="90"/>
       <c r="C373" s="93" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D373" s="90"/>
       <c r="F373" s="96"/>
     </row>
-    <row r="374" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A374" s="93" t="s">
+        <v>854</v>
+      </c>
+      <c r="B374" s="93" t="s">
+        <v>857</v>
+      </c>
+      <c r="C374" s="93" t="s">
+        <v>856</v>
+      </c>
+      <c r="D374" s="98" t="s">
         <v>855</v>
       </c>
-      <c r="B374" s="93" t="s">
-        <v>858</v>
-      </c>
-      <c r="C374" s="93" t="s">
-        <v>857</v>
-      </c>
-      <c r="D374" s="98" t="s">
-        <v>856</v>
-      </c>
       <c r="F374" s="96"/>
     </row>
-    <row r="375" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A375" s="93" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B375" s="93" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C375" s="93" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D375" s="98" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F375" s="96"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="71" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A377" s="72" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B377" s="93"/>
       <c r="C377" s="80" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A378" s="69" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>704</v>
@@ -29782,17 +29834,17 @@
         <v>705</v>
       </c>
       <c r="D378" s="74" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="72" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A380" s="69" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B380" s="8" t="s">
         <v>706</v>
@@ -29801,7 +29853,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A381" s="8"/>
       <c r="B381" s="8" t="s">
         <v>707</v>
@@ -29810,14 +29862,14 @@
         <v>471</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="72" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A383" s="69" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B383" s="8" t="s">
         <v>708</v>
@@ -29826,42 +29878,42 @@
         <v>474</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A384" s="73" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="385" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="385" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A385" s="69" t="s">
+        <v>767</v>
+      </c>
+      <c r="B385" s="69" t="s">
         <v>768</v>
-      </c>
-      <c r="B385" s="69" t="s">
-        <v>769</v>
       </c>
       <c r="C385" s="69" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="386" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A386" s="56" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="387" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="387" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A387" s="8"/>
       <c r="B387" s="93" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="388" spans="1:22" x14ac:dyDescent="0.35">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="388" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A388" s="69"/>
       <c r="B388" s="69"/>
       <c r="C388" s="69"/>
     </row>
-    <row r="389" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A389" s="13"/>
       <c r="B389" s="14"/>
       <c r="C389" s="14"/>
@@ -29880,27 +29932,27 @@
       <c r="S389" s="14"/>
       <c r="U389" s="14"/>
     </row>
-    <row r="390" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A390" s="74" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C390" s="92" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V390" s="8"/>
     </row>
-    <row r="391" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A391" s="95" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C391" s="56" t="s">
+        <v>828</v>
+      </c>
+      <c r="D391" s="94" t="s">
         <v>829</v>
       </c>
-      <c r="D391" s="94" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="392" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="392" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A392" s="8"/>
       <c r="B392" s="8" t="s">
         <v>481</v>
@@ -29909,82 +29961,82 @@
         <v>482</v>
       </c>
       <c r="D392" s="8" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="393" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A393" s="8" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="393" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A393" s="8" t="s">
+      <c r="B393" s="8" t="s">
         <v>832</v>
-      </c>
-      <c r="B393" s="8" t="s">
-        <v>833</v>
       </c>
       <c r="C393" s="8" t="s">
         <v>482</v>
       </c>
       <c r="D393" s="8" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="394" spans="1:22" ht="290" x14ac:dyDescent="0.35">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="394" spans="1:22" ht="288" x14ac:dyDescent="0.3">
       <c r="A394" s="8"/>
       <c r="B394" s="8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C394" s="8" t="s">
         <v>482</v>
       </c>
       <c r="D394" s="8" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="395" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="395" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A395" s="8"/>
       <c r="D395" s="8" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="396" spans="1:22" ht="246.5" x14ac:dyDescent="0.35">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="396" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A396" s="8" t="s">
         <v>490</v>
       </c>
       <c r="B396" s="93" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C396" s="8" t="s">
         <v>482</v>
       </c>
       <c r="D396" s="8" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="397" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A397" s="8" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="397" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A397" s="8" t="s">
+      <c r="B397" s="8" t="s">
         <v>839</v>
       </c>
-      <c r="B397" s="8" t="s">
+      <c r="C397" s="8" t="s">
         <v>840</v>
       </c>
-      <c r="C397" s="8" t="s">
+      <c r="D397" s="8" t="s">
         <v>841</v>
       </c>
-      <c r="D397" s="8" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="398" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="398" spans="1:22" ht="216" x14ac:dyDescent="0.3">
       <c r="A398" s="93" t="s">
         <v>497</v>
       </c>
       <c r="B398" s="93" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C398" s="8" t="s">
         <v>499</v>
       </c>
       <c r="D398" s="8"/>
     </row>
-    <row r="399" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A399" s="56" t="s">
         <v>500</v>
       </c>
@@ -29993,9 +30045,9 @@
       </c>
       <c r="D399" s="8"/>
     </row>
-    <row r="400" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A400" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B400" s="8" t="s">
         <v>503</v>
@@ -30007,7 +30059,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="401" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A401" s="8"/>
       <c r="B401" s="8" t="s">
         <v>506</v>
@@ -30016,12 +30068,12 @@
         <v>507</v>
       </c>
     </row>
-    <row r="402" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A402" s="69"/>
       <c r="B402" s="69"/>
       <c r="C402" s="69"/>
     </row>
-    <row r="403" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A403" s="13"/>
       <c r="B403" s="14"/>
       <c r="C403" s="14"/>
@@ -30040,129 +30092,129 @@
       <c r="S403" s="14"/>
       <c r="U403" s="14"/>
     </row>
-    <row r="404" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A404" s="74" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C404" s="83" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="V404" s="8"/>
     </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A405" s="82" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D405" s="74" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="406" spans="1:22" ht="304.5" x14ac:dyDescent="0.35">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="406" spans="1:22" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B406" s="93" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C406" s="93" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D406" s="93" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="407" spans="1:22" x14ac:dyDescent="0.35">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="407" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A407" s="93" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B407" s="93" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C407" s="93"/>
       <c r="D407" s="70"/>
     </row>
-    <row r="408" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A408" s="93" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B408" s="93" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C408" s="93" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D408" s="70"/>
     </row>
-    <row r="409" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A409" s="93" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B409" s="93"/>
       <c r="C409" s="93" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D409" s="70"/>
     </row>
-    <row r="410" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A410" s="93" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B410" s="93"/>
       <c r="C410" s="93" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D410" s="70"/>
     </row>
-    <row r="411" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A411" s="73" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B411" s="75" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C411" s="79" t="s">
+        <v>792</v>
+      </c>
+      <c r="D411" s="78" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="412" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A412" s="80" t="s">
         <v>793</v>
       </c>
-      <c r="D411" s="78" t="s">
+      <c r="C412" s="8" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="412" spans="1:22" ht="203" x14ac:dyDescent="0.35">
-      <c r="A412" s="80" t="s">
-        <v>794</v>
-      </c>
-      <c r="C412" s="8" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="413" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A413" s="73" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="414" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="414" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A414" s="8"/>
       <c r="B414" s="85" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C414" s="89" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="415" spans="1:22" x14ac:dyDescent="0.35">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="415" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A415" s="81" t="s">
+        <v>794</v>
+      </c>
+      <c r="D415" s="74" t="s">
         <v>795</v>
       </c>
-      <c r="D415" s="74" t="s">
+    </row>
+    <row r="416" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B416" s="80" t="s">
+        <v>797</v>
+      </c>
+      <c r="C416" s="80" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="416" spans="1:22" ht="203" x14ac:dyDescent="0.35">
-      <c r="B416" s="80" t="s">
-        <v>798</v>
-      </c>
-      <c r="C416" s="80" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A417" s="13"/>
       <c r="B417" s="14"/>
       <c r="C417" s="14"/>
@@ -30181,51 +30233,51 @@
       <c r="S417" s="14"/>
       <c r="U417" s="14"/>
     </row>
-    <row r="418" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A418" s="74" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C418" s="100" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="V418" s="8"/>
     </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A419" s="101" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C419" s="9"/>
       <c r="V419" s="8"/>
     </row>
-    <row r="420" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B420" s="80"/>
       <c r="C420" s="93" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="421" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="421" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B421" s="80"/>
       <c r="C421" s="93" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="422" spans="1:22" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A422" s="98" t="s">
         <v>865</v>
-      </c>
-    </row>
-    <row r="422" spans="1:22" ht="319" x14ac:dyDescent="0.35">
-      <c r="A422" s="98" t="s">
-        <v>866</v>
       </c>
       <c r="B422" s="80"/>
       <c r="C422" s="93" t="s">
+        <v>871</v>
+      </c>
+      <c r="D422" s="99" t="s">
         <v>872</v>
       </c>
-      <c r="D422" s="99" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="423" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="423" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B423" s="80"/>
       <c r="C423" s="80"/>
     </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A424" s="13"/>
       <c r="B424" s="14"/>
       <c r="C424" s="14"/>
@@ -30244,165 +30296,165 @@
       <c r="S424" s="14"/>
       <c r="U424" s="14"/>
     </row>
-    <row r="425" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A425" s="74" t="s">
+        <v>808</v>
+      </c>
+      <c r="C425" s="83" t="s">
         <v>809</v>
       </c>
-      <c r="C425" s="83" t="s">
+      <c r="V425" s="8"/>
+    </row>
+    <row r="426" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C426" s="80" t="s">
         <v>810</v>
       </c>
-      <c r="V425" s="8"/>
-    </row>
-    <row r="426" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C426" s="80" t="s">
+      <c r="D426" s="74" t="s">
         <v>811</v>
       </c>
-      <c r="D426" s="74" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="427" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="427" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A427" s="68" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="428" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A428" s="105" t="s">
+        <v>895</v>
+      </c>
+      <c r="D428" s="9" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="428" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A428" s="105" t="s">
+    <row r="429" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A429" s="104" t="s">
+        <v>891</v>
+      </c>
+      <c r="B429" s="104" t="s">
+        <v>878</v>
+      </c>
+      <c r="C429" s="104" t="s">
+        <v>894</v>
+      </c>
+      <c r="D429" s="104" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="430" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A430" s="105" t="s">
+        <v>879</v>
+      </c>
+      <c r="D430" s="102" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="431" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B431" s="104" t="s">
+        <v>886</v>
+      </c>
+      <c r="C431" s="104" t="s">
+        <v>880</v>
+      </c>
+      <c r="D431" s="104" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="432" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A432" s="105" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B433" s="104" t="s">
+        <v>889</v>
+      </c>
+      <c r="C433" s="104" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" s="105" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="B435" s="104" t="s">
+        <v>888</v>
+      </c>
+      <c r="C435" s="104" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" s="106" t="s">
         <v>896</v>
-      </c>
-      <c r="D428" s="9" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="429" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A429" s="104" t="s">
-        <v>892</v>
-      </c>
-      <c r="B429" s="104" t="s">
-        <v>879</v>
-      </c>
-      <c r="C429" s="104" t="s">
-        <v>895</v>
-      </c>
-      <c r="D429" s="104" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="430" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A430" s="105" t="s">
-        <v>880</v>
-      </c>
-      <c r="D430" s="102" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="431" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B431" s="104" t="s">
-        <v>887</v>
-      </c>
-      <c r="C431" s="104" t="s">
-        <v>881</v>
-      </c>
-      <c r="D431" s="104" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="432" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A432" s="105" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="B433" s="104" t="s">
-        <v>890</v>
-      </c>
-      <c r="C433" s="104" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A434" s="105" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="B435" s="104" t="s">
-        <v>889</v>
-      </c>
-      <c r="C435" s="104" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A436" s="106" t="s">
-        <v>897</v>
       </c>
       <c r="B436" s="104"/>
       <c r="C436" s="104"/>
       <c r="D436" s="104"/>
     </row>
-    <row r="437" spans="1:4" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A437" s="104"/>
       <c r="B437" s="104" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C437" s="104" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D437" s="104"/>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="107" t="s">
+        <v>897</v>
+      </c>
+      <c r="D438" s="9" t="s">
         <v>898</v>
       </c>
-      <c r="D438" s="9" t="s">
+    </row>
+    <row r="439" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="C439" s="104" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" ht="174" x14ac:dyDescent="0.35">
-      <c r="C439" s="104" t="s">
+      <c r="D439" s="104" t="s">
         <v>900</v>
       </c>
-      <c r="D439" s="104" t="s">
+    </row>
+    <row r="440" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A440" s="106" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A440" s="106" t="s">
+    <row r="441" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A441" s="104" t="s">
+        <v>908</v>
+      </c>
+      <c r="B441" s="104" t="s">
+        <v>906</v>
+      </c>
+      <c r="C441" s="104" t="s">
+        <v>909</v>
+      </c>
+      <c r="D441" s="104" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A442" s="106" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A441" s="104" t="s">
-        <v>909</v>
-      </c>
-      <c r="B441" s="104" t="s">
-        <v>907</v>
-      </c>
-      <c r="C441" s="104" t="s">
-        <v>910</v>
-      </c>
-      <c r="D441" s="104" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A442" s="106" t="s">
+    <row r="443" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B443" s="104" t="s">
+        <v>904</v>
+      </c>
+      <c r="C443" s="104" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="B443" s="104" t="s">
+      <c r="D443" s="104" t="s">
         <v>905</v>
       </c>
-      <c r="C443" s="104" t="s">
-        <v>904</v>
-      </c>
-      <c r="D443" s="104" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="450" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="450" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A450" s="13"/>
       <c r="B450" s="14"/>
       <c r="C450" s="14"/>
@@ -30421,18 +30473,18 @@
       <c r="S450" s="14"/>
       <c r="U450" s="14"/>
     </row>
-    <row r="451" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A451" s="102" t="s">
+        <v>874</v>
+      </c>
+      <c r="C451" s="103" t="s">
         <v>875</v>
       </c>
-      <c r="C451" s="103" t="s">
-        <v>876</v>
-      </c>
       <c r="V451" s="8"/>
     </row>
-    <row r="452" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B452" s="108" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>
@@ -30454,50 +30506,50 @@
     <tabColor theme="9" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="4"/>
-    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="4"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="117"/>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="118"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -30516,269 +30568,282 @@
       <c r="S2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>709</v>
-      </c>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="121" t="s">
+        <v>928</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123" t="s">
+        <v>927</v>
+      </c>
+      <c r="D3" s="121"/>
       <c r="P3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>711</v>
-      </c>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="P4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="145" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="D5" s="114" t="s">
-        <v>921</v>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>710</v>
       </c>
       <c r="P5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="D6" s="114"/>
+        <v>712</v>
+      </c>
+      <c r="D6" s="114" t="s">
+        <v>920</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="174" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>717</v>
+    <row r="7" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>714</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>718</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="D7" s="114"/>
       <c r="P7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D10" s="117" t="s">
         <v>926</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="11" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="D9" s="120" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="145" x14ac:dyDescent="0.35">
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="12" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="145" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="D12" s="114" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="D11" s="114" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+    <row r="16" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    <row r="17" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="174" x14ac:dyDescent="0.35">
-      <c r="B16" s="2" t="s">
+    <row r="18" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
+    <row r="21" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="145" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="D20" s="2" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C22" s="2" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C21" s="2" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+    <row r="24" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B24" s="113" t="s">
+        <v>918</v>
+      </c>
+      <c r="C24" s="112" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="B23" s="113" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="113" t="s">
         <v>919</v>
       </c>
-      <c r="C23" s="112" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="145" x14ac:dyDescent="0.35">
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="113" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="109" t="s">
+        <v>911</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B28" s="109" t="s">
+    <row r="30" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="C30" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="110" t="s">
         <v>912</v>
       </c>
-      <c r="C28" s="2" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="109" t="s">
+        <v>913</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="C33" s="2" t="s">
         <v>743</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="C29" s="2" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="110" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="109" t="s">
-        <v>914</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="C32" s="2" t="s">
-        <v>744</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" location="/Array" xr:uid="{8115CF20-9CC3-4567-BFB8-07067DD7531F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -30793,38 +30858,38 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="4"/>
-    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="4"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -30843,19 +30908,19 @@
       <c r="S2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="P3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="P4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>235</v>
@@ -30867,88 +30932,88 @@
       <c r="U5" s="1"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C6" s="66"/>
     </row>
-    <row r="7" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C7" s="66"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C8" s="66"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C9" s="66"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="C12" s="2" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>758</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -30969,46 +31034,46 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="4"/>
-    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="4"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="119" t="s">
-        <v>760</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="120" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -31027,7 +31092,7 @@
       <c r="S2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -31035,7 +31100,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>

--- a/4 четверть_4_JavaScript_Back.xlsx
+++ b/4 четверть_4_JavaScript_Back.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F292E8-8FD1-492F-BA85-E5DA04CF987F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB14AB84-8179-4749-A357-715D7D7918B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Крутой онлайн debugger" sheetId="1" r:id="rId1"/>
     <sheet name="Console." sheetId="2" r:id="rId2"/>
     <sheet name="js Back" sheetId="3" r:id="rId3"/>
     <sheet name="Array и Object StreamAPI" sheetId="5" r:id="rId4"/>
-    <sheet name="js snippets" sheetId="6" r:id="rId5"/>
-    <sheet name="empty" sheetId="7" r:id="rId6"/>
+    <sheet name="import export" sheetId="8" r:id="rId5"/>
+    <sheet name="js snippets" sheetId="6" r:id="rId6"/>
+    <sheet name="empty" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="939">
   <si>
     <t>Крутой онлайн debugger</t>
   </si>
@@ -22983,6 +22984,42 @@
   </si>
   <si>
     <t>Все методы для основных классов</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>const PublController = require('./path/publicationController.js');</t>
+  </si>
+  <si>
+    <t>require</t>
+  </si>
+  <si>
+    <t>module.exports</t>
+  </si>
+  <si>
+    <t>module.exports = //тут должна быть одна переменная или несколько переменных, объединенных в объект</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>export default</t>
+  </si>
+  <si>
+    <t>import Bases from './Bases';</t>
+  </si>
+  <si>
+    <t>export default {
+    sorting: "Sort",
+    byCreationDate:"By creation date",
+    byUpdateDate:"By update date",
+    byRating:"By rating",
+    byDragNDrop:"Manually",
+}</t>
   </si>
 </sst>
 </file>
@@ -23635,7 +23672,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -23984,6 +24021,15 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="41" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="18" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -23993,20 +24039,20 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="18" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Гиперссылка 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -25330,6 +25376,99 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>36742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2627664</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1074419</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D455C0E-71B9-4606-B935-143C9ACBC6B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5996940" y="1316902"/>
+          <a:ext cx="2566704" cy="1037677"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33257</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4770121</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>680941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94FD7163-7251-48FC-9ACA-B4A09125A4B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969237" y="4953000"/>
+          <a:ext cx="4736864" cy="665701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -25751,10 +25890,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="118"/>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
+      <c r="A1" s="121"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -29233,12 +29372,12 @@
       </c>
     </row>
     <row r="311" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A311" s="119" t="s">
+      <c r="A311" s="122" t="s">
         <v>774</v>
       </c>
-      <c r="B311" s="119"/>
-      <c r="C311" s="119"/>
-      <c r="D311" s="119"/>
+      <c r="B311" s="122"/>
+      <c r="C311" s="122"/>
+      <c r="D311" s="122"/>
     </row>
     <row r="312" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A312" s="13"/>
@@ -30508,7 +30647,7 @@
   </sheetPr>
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -30544,10 +30683,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="118"/>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
+      <c r="A1" s="121"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -30569,14 +30708,14 @@
       <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="118" t="s">
         <v>928</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="123" t="s">
+      <c r="B3" s="119"/>
+      <c r="C3" s="120" t="s">
         <v>927</v>
       </c>
-      <c r="D3" s="121"/>
+      <c r="D3" s="118"/>
       <c r="P3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
@@ -30848,6 +30987,208 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5712CB-91E4-4F4B-976A-6AB181E50702}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="4"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="124"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>929</v>
+      </c>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="125"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="125" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="U10" s="6"/>
+    </row>
+    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>930</v>
+      </c>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="125"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="125" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -31023,7 +31364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -31066,12 +31407,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="123" t="s">
         <v>759</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>

--- a/4 четверть_4_JavaScript_Back.xlsx
+++ b/4 четверть_4_JavaScript_Back.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB14AB84-8179-4749-A357-715D7D7918B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51BF711-260C-46FC-8630-9A065031155B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13875" yWindow="-21720" windowWidth="51840" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Крутой онлайн debugger" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="941">
   <si>
     <t>Крутой онлайн debugger</t>
   </si>
@@ -23020,6 +23020,13 @@
     byRating:"By rating",
     byDragNDrop:"Manually",
 }</t>
+  </si>
+  <si>
+    <t>Multiimport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
 </sst>
 </file>
@@ -23367,6 +23374,8 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -23672,7 +23681,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -24030,22 +24039,31 @@
     <xf numFmtId="49" fontId="42" fillId="18" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -25377,22 +25395,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>36742</xdr:rowOff>
+      <xdr:colOff>29447</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2627664</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1074419</xdr:rowOff>
+      <xdr:colOff>4777741</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>669511</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D455C0E-71B9-4606-B935-143C9ACBC6B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94FD7163-7251-48FC-9ACA-B4A09125A4B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25408,8 +25426,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5996940" y="1316902"/>
-          <a:ext cx="2566704" cy="1037677"/>
+          <a:off x="5963522" y="5473065"/>
+          <a:ext cx="4752104" cy="650461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25420,23 +25438,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>33257</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4770121</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>680941</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3825629</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1577340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94FD7163-7251-48FC-9ACA-B4A09125A4B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5635FC4-3C6A-49C4-A6A3-44A85FFF8127}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25452,8 +25470,228 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5969237" y="4953000"/>
-          <a:ext cx="4736864" cy="665701"/>
+          <a:off x="10911840" y="6235065"/>
+          <a:ext cx="3724664" cy="1527810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3863340</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1583213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57F1158-23D8-4A80-A6CF-C4476A77FD95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5991225" y="6202680"/>
+          <a:ext cx="3800475" cy="1571783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>87629</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3794258</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1615440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F33EAC-9FE1-4FED-850A-8A1F055E3446}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6021704" y="8101965"/>
+          <a:ext cx="3706629" cy="1518285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4000501</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1598337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A7234A-E7FF-4142-AC9C-10EBDF3513AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972176" y="1304926"/>
+          <a:ext cx="3962400" cy="1560236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3754902</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1501140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF2E7D91-7DB9-48B8-8F19-1C63B000890D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10858500" y="1320165"/>
+          <a:ext cx="3712992" cy="1451610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3802527</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1567815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC71BB37-6044-440F-A099-033F7D6CD7C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10906125" y="8686800"/>
+          <a:ext cx="3716802" cy="1443990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25890,10 +26128,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="121"/>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
+      <c r="A1" s="122"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -26436,7 +26674,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>79</v>
       </c>
@@ -29372,12 +29610,12 @@
       </c>
     </row>
     <row r="311" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A311" s="122" t="s">
+      <c r="A311" s="123" t="s">
         <v>774</v>
       </c>
-      <c r="B311" s="122"/>
-      <c r="C311" s="122"/>
-      <c r="D311" s="122"/>
+      <c r="B311" s="123"/>
+      <c r="C311" s="123"/>
+      <c r="D311" s="123"/>
     </row>
     <row r="312" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A312" s="13"/>
@@ -30683,10 +30921,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="121"/>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
+      <c r="A1" s="122"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -30991,10 +31229,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31057,9 +31295,9 @@
       <c r="A3" s="10" t="s">
         <v>929</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="125"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="128"/>
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
@@ -31093,13 +31331,16 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="121" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>235</v>
+      </c>
+      <c r="B7" s="129" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -31125,9 +31366,9 @@
       <c r="A11" s="10" t="s">
         <v>930</v>
       </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="125"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="128"/>
       <c r="F11" s="1"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
@@ -31169,7 +31410,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="121" t="s">
         <v>274</v>
       </c>
     </row>
@@ -31177,6 +31418,52 @@
       <c r="A16" s="2" t="s">
         <v>270</v>
       </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="126" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="126" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="129" t="s">
+        <v>940</v>
+      </c>
+      <c r="C20" s="129"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="126" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="129" t="s">
+        <v>940</v>
+      </c>
+      <c r="C22" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -31407,12 +31694,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="125" t="s">
         <v>759</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>

--- a/4 четверть_4_JavaScript_Back.xlsx
+++ b/4 четверть_4_JavaScript_Back.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51BF711-260C-46FC-8630-9A065031155B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D555C8-06E7-4AF7-A3C6-F879F87DA9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13875" yWindow="-21720" windowWidth="51840" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Крутой онлайн debugger" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,16 @@
     <sheet name="empty" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="951">
   <si>
     <t>Крутой онлайн debugger</t>
   </si>
@@ -17931,72 +17936,6 @@
 Семинар - 01:38:00</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">function createCounter(initValue) {
-    function increment() {
-        return initValue += 1;
-    }
-    function decrement() {
-        return initValue -= 1;
-    }
-    function </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>showInitValue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">() {
-        return </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>initValue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;
-    }
-    return { increment, decrement, showInitValue };
-}
-const myCounter = createCounter(5);
-console.log(myCounter.increment());
-console.log(myCounter.decrement());
-console.log(myCounter.showInitValue());</t>
-    </r>
-  </si>
-  <si>
     <t>Стрелочные функции и this</t>
   </si>
   <si>
@@ -23028,16 +22967,531 @@
     <t xml:space="preserve">
 </t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function createCounter(initValue) {
+    function increment() {
+        return initValue += 1;
+    }
+    function decrement() {
+        return initValue -= 1;
+    }
+    function </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>showInitValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">() {
+        return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>initValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+    }
+    return { increment, decrement, showInitValue };
+}
+const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myCounter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = createCounter(5);
+console.log(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myCounter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.increment());
+console.log(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myCounter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.decrement());
+console.log(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myCounter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.showInitValue());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">JavaScript </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>можно передавать параметры в функцию по позиции</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(позиционные аргументы)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, но если ты хочешь явно указать, какой параметр соответствует какому аргументу, как, например, в Python </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с именованными аргументами (func(name="John", age=30))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, то в чистом JavaScript </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>такой синтаксис не поддерживается напрямую</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Передача параметров поименнованно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Способ 1: </t>
+  </si>
+  <si>
+    <t>Передача объекта (именованные параметры через деструктуризацию)</t>
+  </si>
+  <si>
+    <t>Значения по умолчанию</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function greet({ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">name = "Гость", age = 0, city = "неизвестно" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>} =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {
+  console.log(`Привет, ${name}! Тебе ${age} лет, и ты из ${city}.`);
+}
+greet(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ name: "Иван", city: "СПб" }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);
+// Вывод: Привет, Иван! Тебе 0 лет, и ты из СПб.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function greet(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ name, age, city }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {
+  console.log(`Привет, ${name}! Тебе ${age} лет, и ты из ${city}.`);
+}
+// Вызов с явным указанием "имён" параметров
+greet(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ name: "Анна", city: "Москва", age: 25 }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);
+// Порядок не важен — параметры определяются по ключам</t>
+    </r>
+  </si>
+  <si>
+    <t>Использование полного объекта без деструктуризации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Способ 2: </t>
+  </si>
+  <si>
+    <r>
+      <t>function createUser(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>options</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {
+  console.log(`Имя: ${</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>options.name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}, Возраст: ${</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>options.age}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`);
+}
+createUser(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ name: "Петр", age: 30 }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -23395,6 +23849,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -23677,11 +24140,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -23699,164 +24162,164 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="8" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="8" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -23865,149 +24328,152 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="17" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="17" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -24018,34 +24484,43 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="18" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="18" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -24054,14 +24529,8 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -24484,8 +24953,8 @@
       <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3873498</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>745</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>997857</xdr:rowOff>
     </xdr:to>
@@ -24564,13 +25033,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>92364</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>446809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4167906</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>1209951</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -24606,13 +25075,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>507997</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>88897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1657350</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>1326892</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -24816,13 +25285,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>54427</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>217713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3794769</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>1957701</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -24900,13 +25369,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>62036</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>184149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3810368</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>1320912</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -24942,7 +25411,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1339900</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>274276</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2256867" cy="1131795"/>
@@ -24979,7 +25448,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>63803</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>81641</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4104100" cy="889795"/>
@@ -25016,7 +25485,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>63803</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>24946</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4598909" cy="550296"/>
@@ -25053,7 +25522,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>16799</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4551284" cy="1028351"/>
@@ -26128,10 +26597,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="122"/>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
+      <c r="A1" s="126"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -26471,10 +26940,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V452"/>
+  <dimension ref="A2:V457"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26632,7 +27101,7 @@
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="84" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D10" s="22"/>
       <c r="F10" s="8" t="s">
@@ -26674,7 +27143,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>79</v>
       </c>
@@ -27197,7 +27666,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="116" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D63" s="8"/>
     </row>
@@ -27214,13 +27683,13 @@
     </row>
     <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="115" t="s">
+        <v>921</v>
+      </c>
+      <c r="C65" s="115" t="s">
         <v>922</v>
       </c>
-      <c r="C65" s="115" t="s">
+      <c r="D65" s="115" t="s">
         <v>923</v>
-      </c>
-      <c r="D65" s="115" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -27495,1012 +27964,1027 @@
         <v>237</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="52" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="50" t="s">
+        <v>942</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="131" t="s">
+        <v>941</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="131" t="s">
+        <v>944</v>
+      </c>
+      <c r="B94" s="131" t="s">
+        <v>943</v>
+      </c>
+      <c r="C94" s="131" t="s">
+        <v>947</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="131" t="s">
+        <v>945</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="131" t="s">
+        <v>946</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A96" s="131" t="s">
+        <v>948</v>
+      </c>
+      <c r="B96" s="131" t="s">
+        <v>949</v>
+      </c>
+      <c r="C96" s="131" t="s">
+        <v>950</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="B92" s="53" t="s">
+      <c r="B97" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="C92" s="53"/>
-      <c r="D92" s="54"/>
-    </row>
-    <row r="93" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A93" s="46" t="s">
+      <c r="C97" s="53"/>
+      <c r="D97" s="54"/>
+    </row>
+    <row r="98" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A98" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="B93" s="47" t="s">
+      <c r="B98" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="C93" s="47" t="s">
+      <c r="C98" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="D93" s="55"/>
-    </row>
-    <row r="94" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A94" s="45"/>
-      <c r="B94" s="8" t="s">
+      <c r="D98" s="55"/>
+    </row>
+    <row r="99" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="45"/>
+      <c r="B99" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C99" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D94" s="41"/>
-    </row>
-    <row r="95" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="45"/>
-      <c r="B95" s="8" t="s">
+      <c r="D99" s="41"/>
+    </row>
+    <row r="100" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="45"/>
+      <c r="B100" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C100" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D95" s="41" t="s">
+      <c r="D100" s="41" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A96" s="45"/>
-      <c r="C96" s="8" t="s">
+    <row r="101" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A101" s="45"/>
+      <c r="C101" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D96" s="41"/>
-    </row>
-    <row r="97" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="45" t="s">
+      <c r="D101" s="41"/>
+    </row>
+    <row r="102" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="B97" s="80" t="s">
-        <v>812</v>
-      </c>
-      <c r="C97" s="8" t="s">
+      <c r="B102" s="80" t="s">
+        <v>811</v>
+      </c>
+      <c r="C102" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="D97" s="41" t="s">
+      <c r="D102" s="41" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="45"/>
-      <c r="C98" s="8" t="s">
+    <row r="103" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A103" s="45"/>
+      <c r="C103" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D98" s="41"/>
-    </row>
-    <row r="99" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="46" t="s">
+      <c r="D103" s="41"/>
+    </row>
+    <row r="104" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="B99" s="47" t="s">
+      <c r="B104" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="C99" s="47" t="s">
+      <c r="C104" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="D99" s="48" t="s">
+      <c r="D104" s="48" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A100" s="37" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="44"/>
-    </row>
-    <row r="101" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="45"/>
-      <c r="B101" s="8" t="s">
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="44"/>
+    </row>
+    <row r="106" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="45"/>
+      <c r="B106" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C106" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D101" s="41" t="s">
+      <c r="D106" s="41" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="45" t="s">
+    <row r="107" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C107" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D102" s="41"/>
-    </row>
-    <row r="103" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A103" s="46" t="s">
+      <c r="D107" s="41"/>
+    </row>
+    <row r="108" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="B103" s="47" t="s">
+      <c r="B108" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="C103" s="47" t="s">
+      <c r="C108" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="D103" s="48"/>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A104" s="56" t="s">
+      <c r="D108" s="48"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="D104" s="8"/>
-    </row>
-    <row r="105" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="8" t="s">
+      <c r="D109" s="8"/>
+    </row>
+    <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C110" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D105" s="8"/>
-    </row>
-    <row r="106" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="8" t="s">
+      <c r="D110" s="8"/>
+    </row>
+    <row r="111" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B111" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C111" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D106" s="8"/>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A107" s="8"/>
-      <c r="D107" s="8"/>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="13"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="13"/>
-      <c r="P108" s="14"/>
-      <c r="Q108" s="14"/>
-      <c r="R108" s="14"/>
-      <c r="S108" s="14"/>
-      <c r="U108" s="14"/>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C109" s="57" t="s">
-        <v>268</v>
-      </c>
-      <c r="D109" s="69" t="s">
-        <v>772</v>
-      </c>
-      <c r="V109" s="8"/>
-    </row>
-    <row r="110" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B110" s="69" t="s">
-        <v>773</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D110" s="8"/>
-    </row>
-    <row r="111" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A111" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>235</v>
-      </c>
       <c r="D111" s="8"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A112" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>272</v>
-      </c>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="8"/>
       <c r="D112" s="8"/>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A113" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="D113" s="8"/>
+      <c r="A113" s="14"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="13"/>
+      <c r="M113" s="13"/>
+      <c r="N113" s="13"/>
+      <c r="P113" s="14"/>
+      <c r="Q113" s="14"/>
+      <c r="R113" s="14"/>
+      <c r="S113" s="14"/>
+      <c r="U113" s="14"/>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" s="8"/>
-      <c r="B114" s="56" t="s">
+      <c r="B114" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C114" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="D114" s="69" t="s">
+        <v>772</v>
+      </c>
+      <c r="V114" s="8"/>
+    </row>
+    <row r="115" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B115" s="69" t="s">
+        <v>773</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D115" s="8"/>
+    </row>
+    <row r="116" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A116" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D116" s="8"/>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A117" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D117" s="8"/>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A118" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D118" s="8"/>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A119" s="8"/>
+      <c r="B119" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="C114" s="56" t="s">
+      <c r="C119" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="D114" s="56" t="s">
+      <c r="D119" s="56" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="144" x14ac:dyDescent="0.3">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8" t="s">
+    <row r="120" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C120" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D120" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A116" s="8"/>
-      <c r="D116" s="8"/>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A117" s="13"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
-      <c r="K117" s="13"/>
-      <c r="L117" s="13"/>
-      <c r="M117" s="13"/>
-      <c r="N117" s="13"/>
-      <c r="P117" s="14"/>
-      <c r="Q117" s="14"/>
-      <c r="R117" s="14"/>
-      <c r="S117" s="14"/>
-      <c r="U117" s="14"/>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A118" s="9" t="s">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A121" s="8"/>
+      <c r="D121" s="8"/>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A122" s="13"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
+      <c r="K122" s="13"/>
+      <c r="L122" s="13"/>
+      <c r="M122" s="13"/>
+      <c r="N122" s="13"/>
+      <c r="P122" s="14"/>
+      <c r="Q122" s="14"/>
+      <c r="R122" s="14"/>
+      <c r="S122" s="14"/>
+      <c r="U122" s="14"/>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A123" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C118" s="57" t="s">
+      <c r="C123" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="P118" s="9"/>
-      <c r="U118" s="9"/>
-      <c r="V118" s="8"/>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A119" s="56" t="s">
+      <c r="P123" s="9"/>
+      <c r="U123" s="9"/>
+      <c r="V123" s="8"/>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A124" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D124" s="8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A120" s="8" t="s">
+    <row r="125" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A125" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B125" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C125" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="D120" s="8"/>
-    </row>
-    <row r="121" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="8" t="s">
+      <c r="D125" s="8"/>
+    </row>
+    <row r="126" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A126" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B126" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C126" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D121" s="8"/>
-    </row>
-    <row r="122" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="8" t="s">
+      <c r="D126" s="8"/>
+    </row>
+    <row r="127" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B127" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C127" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="D122" s="8"/>
-    </row>
-    <row r="123" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="57" t="s">
+      <c r="D127" s="8"/>
+    </row>
+    <row r="128" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A128" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="B123" s="57" t="s">
+      <c r="B128" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C128" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D123" s="8"/>
-    </row>
-    <row r="124" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="8"/>
-      <c r="C124" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="D124" s="8"/>
-    </row>
-    <row r="125" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="8"/>
-      <c r="C125" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D125" s="8"/>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A126" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="D126" s="8"/>
-    </row>
-    <row r="127" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A127" s="8"/>
-      <c r="C127" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="D127" s="8"/>
-    </row>
-    <row r="128" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A128" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>299</v>
-      </c>
       <c r="D128" s="8"/>
     </row>
-    <row r="129" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="8"/>
       <c r="C129" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D129" s="8"/>
+    </row>
+    <row r="130" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A130" s="8"/>
+      <c r="C130" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D130" s="8"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="D131" s="8"/>
+    </row>
+    <row r="132" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A132" s="8"/>
+      <c r="C132" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D132" s="8"/>
+    </row>
+    <row r="133" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D133" s="8"/>
+    </row>
+    <row r="134" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A134" s="8"/>
+      <c r="C134" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D129" s="8"/>
-    </row>
-    <row r="130" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A130" s="56" t="s">
+      <c r="D134" s="8"/>
+    </row>
+    <row r="135" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A135" s="56" t="s">
         <v>301</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B135" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C135" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="D130" s="8"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D131" s="8"/>
-    </row>
-    <row r="132" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A132" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="D133" s="8"/>
-    </row>
-    <row r="134" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A134" s="56" t="s">
-        <v>312</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="D134" s="8"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="56" t="s">
-        <v>314</v>
       </c>
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+      <c r="D136" s="8"/>
+    </row>
+    <row r="137" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="D137" s="8"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="8" t="s">
-        <v>320</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A138" s="8"/>
       <c r="B138" s="8" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D138" s="8"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="56" t="s">
-        <v>322</v>
+        <v>312</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>313</v>
       </c>
       <c r="D139" s="8"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>325</v>
+      <c r="A140" s="56" t="s">
+        <v>314</v>
       </c>
       <c r="D140" s="8"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>316</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="D141" s="8"/>
+        <v>317</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>316</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D142" s="8"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>316</v>
       </c>
       <c r="C143" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D143" s="8"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="D144" s="8"/>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A145" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D145" s="8"/>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A146" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D146" s="8"/>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A147" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D147" s="8"/>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A148" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C148" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D143" s="8"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="8"/>
-      <c r="D144" s="8"/>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A145" s="13"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="13"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="13"/>
-      <c r="I145" s="13"/>
-      <c r="K145" s="13"/>
-      <c r="L145" s="13"/>
-      <c r="M145" s="13"/>
-      <c r="N145" s="13"/>
-      <c r="P145" s="14"/>
-      <c r="Q145" s="14"/>
-      <c r="R145" s="14"/>
-      <c r="S145" s="14"/>
-      <c r="U145" s="14"/>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A146" s="9" t="s">
+      <c r="D148" s="8"/>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A149" s="8"/>
+      <c r="D149" s="8"/>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A150" s="13"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13"/>
+      <c r="K150" s="13"/>
+      <c r="L150" s="13"/>
+      <c r="M150" s="13"/>
+      <c r="N150" s="13"/>
+      <c r="P150" s="14"/>
+      <c r="Q150" s="14"/>
+      <c r="R150" s="14"/>
+      <c r="S150" s="14"/>
+      <c r="U150" s="14"/>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A151" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="C146" s="57" t="s">
+      <c r="C151" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="P146" s="9"/>
-      <c r="U146" s="9"/>
-      <c r="V146" s="8"/>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A147" s="56" t="s">
+      <c r="P151" s="9"/>
+      <c r="U151" s="9"/>
+      <c r="V151" s="8"/>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A152" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="D152" s="8" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="148" spans="1:22" ht="72" x14ac:dyDescent="0.3">
-      <c r="A148" s="8" t="s">
+    <row r="153" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="A153" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B153" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C153" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="D148" s="8"/>
-    </row>
-    <row r="149" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A149" s="57" t="s">
+      <c r="D153" s="8"/>
+    </row>
+    <row r="154" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A154" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B154" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C154" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D149" s="8" t="s">
+      <c r="D154" s="8" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="150" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A150" s="8"/>
-      <c r="B150" s="8" t="s">
+    <row r="155" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C155" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D155" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A151" s="8"/>
-      <c r="B151" s="8" t="s">
+    <row r="156" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C156" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="D151" s="8"/>
-    </row>
-    <row r="152" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="C152" s="8" t="s">
+      <c r="D156" s="8"/>
+    </row>
+    <row r="157" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C157" s="8" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A153" s="58" t="s">
+    <row r="158" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A158" s="58" t="s">
         <v>348</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B158" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C158" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D153" s="8"/>
-    </row>
-    <row r="154" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A154" s="43" t="s">
+      <c r="D158" s="8"/>
+    </row>
+    <row r="159" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A159" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="B154" s="53" t="s">
+      <c r="B159" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="C154" s="43" t="s">
+      <c r="C159" s="43" t="s">
         <v>352</v>
       </c>
-      <c r="D154" s="8"/>
-    </row>
-    <row r="155" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="8" t="s">
+      <c r="D159" s="8"/>
+    </row>
+    <row r="160" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A160" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C160" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D155" s="8"/>
-    </row>
-    <row r="156" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A156" s="8" t="s">
+      <c r="D160" s="8"/>
+    </row>
+    <row r="161" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A161" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C161" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="D156" s="8"/>
-    </row>
-    <row r="157" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A157" s="47" t="s">
+      <c r="D161" s="8"/>
+    </row>
+    <row r="162" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A162" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="B157" s="47"/>
-      <c r="C157" s="47" t="s">
+      <c r="B162" s="47"/>
+      <c r="C162" s="47" t="s">
         <v>358</v>
       </c>
-      <c r="D157" s="22"/>
-    </row>
-    <row r="158" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="8" t="s">
+      <c r="D162" s="22"/>
+    </row>
+    <row r="163" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A163" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C163" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D158" s="8"/>
-    </row>
-    <row r="159" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A159" s="8" t="s">
+      <c r="D163" s="8"/>
+    </row>
+    <row r="164" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A164" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C164" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D159" s="8"/>
-    </row>
-    <row r="160" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A160" s="8" t="s">
+      <c r="D164" s="8"/>
+    </row>
+    <row r="165" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A165" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C165" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D160" s="8"/>
-    </row>
-    <row r="161" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A161" s="8" t="s">
+      <c r="D165" s="8"/>
+    </row>
+    <row r="166" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A166" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C166" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D161" s="8"/>
-    </row>
-    <row r="162" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A162" s="8" t="s">
+      <c r="D166" s="8"/>
+    </row>
+    <row r="167" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B167" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C167" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D162" s="8"/>
-    </row>
-    <row r="163" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A163" s="43" t="s">
+      <c r="D167" s="8"/>
+    </row>
+    <row r="168" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A168" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="B163" s="43"/>
-      <c r="C163" s="43" t="s">
+      <c r="B168" s="43"/>
+      <c r="C168" s="43" t="s">
         <v>370</v>
       </c>
-      <c r="D163" s="8"/>
-    </row>
-    <row r="164" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A164" s="47" t="s">
+      <c r="D168" s="8"/>
+    </row>
+    <row r="169" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A169" s="47" t="s">
         <v>371</v>
       </c>
-      <c r="B164" s="47"/>
-      <c r="C164" s="47" t="s">
+      <c r="B169" s="47"/>
+      <c r="C169" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="D164" s="8"/>
-    </row>
-    <row r="165" spans="1:22" ht="72" x14ac:dyDescent="0.3">
-      <c r="A165" s="8" t="s">
+      <c r="D169" s="8"/>
+    </row>
+    <row r="170" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A170" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C170" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A166" s="56" t="s">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A171" s="56" t="s">
         <v>375</v>
       </c>
-      <c r="D166" s="8"/>
-    </row>
-    <row r="167" spans="1:22" ht="144" x14ac:dyDescent="0.3">
-      <c r="A167" s="8" t="s">
+      <c r="D171" s="8"/>
+    </row>
+    <row r="172" spans="1:21" ht="144" x14ac:dyDescent="0.3">
+      <c r="A172" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B172" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="D167" s="22" t="s">
+      <c r="D172" s="22" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A168" s="9" t="s">
+    <row r="173" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A173" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B173" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C173" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="D168" s="8" t="s">
+      <c r="D173" s="8" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A169" s="7" t="s">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A174" s="7" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="72" x14ac:dyDescent="0.3">
-      <c r="A170" s="8" t="s">
+    <row r="175" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A175" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B175" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C175" s="8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A171" s="13"/>
-      <c r="B171" s="14"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="13"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="14"/>
-      <c r="H171" s="13"/>
-      <c r="I171" s="13"/>
-      <c r="K171" s="13"/>
-      <c r="L171" s="13"/>
-      <c r="M171" s="13"/>
-      <c r="N171" s="13"/>
-      <c r="P171" s="14"/>
-      <c r="Q171" s="14"/>
-      <c r="R171" s="14"/>
-      <c r="S171" s="14"/>
-      <c r="U171" s="14"/>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A172" s="9" t="s">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A176" s="13"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="13"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="14"/>
+      <c r="H176" s="13"/>
+      <c r="I176" s="13"/>
+      <c r="K176" s="13"/>
+      <c r="L176" s="13"/>
+      <c r="M176" s="13"/>
+      <c r="N176" s="13"/>
+      <c r="P176" s="14"/>
+      <c r="Q176" s="14"/>
+      <c r="R176" s="14"/>
+      <c r="S176" s="14"/>
+      <c r="U176" s="14"/>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A177" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="C172" s="57" t="s">
+      <c r="C177" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="P172" s="9"/>
-      <c r="U172" s="9"/>
-      <c r="V172" s="8"/>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A173" s="7" t="s">
+      <c r="P177" s="9"/>
+      <c r="U177" s="9"/>
+      <c r="V177" s="8"/>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A178" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="D178" s="9" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="174" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A174" s="9" t="s">
+    <row r="179" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A179" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B179" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C179" s="8" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="175" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="B175" s="8" t="s">
+    <row r="180" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B180" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C180" s="8" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="176" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B176" s="8" t="s">
+    <row r="181" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B181" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C181" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="D181" s="9" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="177" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="C177" s="8" t="s">
+    <row r="182" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="C182" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="D182" s="9" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="178" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C178" s="8" t="s">
+    <row r="183" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C183" s="8" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="179" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A179" s="9" t="s">
+    <row r="184" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A184" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C184" s="8" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="216" x14ac:dyDescent="0.3">
-      <c r="A180" s="8" t="s">
+    <row r="185" spans="1:22" ht="216" x14ac:dyDescent="0.3">
+      <c r="A185" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="B180" s="59"/>
-      <c r="C180" s="8" t="s">
+      <c r="B185" s="59"/>
+      <c r="C185" s="8" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A181" s="56" t="s">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A186" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="B181" s="59"/>
-    </row>
-    <row r="182" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A182" s="8"/>
-      <c r="B182" s="8" t="s">
+      <c r="B186" s="59"/>
+    </row>
+    <row r="187" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A187" s="8"/>
+      <c r="B187" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C187" s="8" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A183" s="56" t="s">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A188" s="56" t="s">
         <v>407</v>
       </c>
-      <c r="D183" s="9" t="s">
+      <c r="D188" s="9" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A184" s="8" t="s">
+    <row r="189" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A189" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C189" s="8" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A185" s="9" t="s">
+    <row r="190" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A190" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B190" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="C190" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="D185" s="8" t="s">
+      <c r="D190" s="8" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A186" s="7" t="s">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A191" s="7" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="187" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A187" s="8" t="s">
+    <row r="192" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A192" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B192" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C192" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D192" s="2" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A188" s="13"/>
-      <c r="B188" s="14"/>
-      <c r="C188" s="14"/>
-      <c r="D188" s="13"/>
-      <c r="F188" s="13"/>
-      <c r="G188" s="14"/>
-      <c r="H188" s="13"/>
-      <c r="I188" s="13"/>
-      <c r="K188" s="13"/>
-      <c r="L188" s="13"/>
-      <c r="M188" s="13"/>
-      <c r="N188" s="13"/>
-      <c r="P188" s="14"/>
-      <c r="Q188" s="14"/>
-      <c r="R188" s="14"/>
-      <c r="S188" s="14"/>
-      <c r="U188" s="14"/>
-    </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C189" s="57" t="s">
-        <v>416</v>
-      </c>
-      <c r="V189" s="8"/>
-    </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C190" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C191" s="8" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="193" spans="1:22" x14ac:dyDescent="0.3">
@@ -28523,2350 +29007,2385 @@
       <c r="U193" s="14"/>
     </row>
     <row r="194" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A194" s="9" t="s">
-        <v>419</v>
-      </c>
       <c r="C194" s="57" t="s">
-        <v>420</v>
-      </c>
-      <c r="D194" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="P194" s="9"/>
-      <c r="U194" s="9"/>
+        <v>416</v>
+      </c>
       <c r="V194" s="8"/>
     </row>
     <row r="195" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C195" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C196" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A198" s="13"/>
+      <c r="B198" s="14"/>
+      <c r="C198" s="14"/>
+      <c r="D198" s="13"/>
+      <c r="F198" s="13"/>
+      <c r="G198" s="14"/>
+      <c r="H198" s="13"/>
+      <c r="I198" s="13"/>
+      <c r="K198" s="13"/>
+      <c r="L198" s="13"/>
+      <c r="M198" s="13"/>
+      <c r="N198" s="13"/>
+      <c r="P198" s="14"/>
+      <c r="Q198" s="14"/>
+      <c r="R198" s="14"/>
+      <c r="S198" s="14"/>
+      <c r="U198" s="14"/>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A199" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C199" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="P199" s="9"/>
+      <c r="U199" s="9"/>
+      <c r="V199" s="8"/>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C200" s="8" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A196" s="7" t="s">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A201" s="7" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="197" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B197" s="8" t="s">
+    <row r="202" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B202" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C202" s="8" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="198" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="C198" s="8" t="s">
+    <row r="203" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="C203" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="D198" s="9" t="s">
+      <c r="D203" s="9" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="199" spans="1:22" ht="72" x14ac:dyDescent="0.3">
-      <c r="A199" s="8" t="s">
+    <row r="204" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="A204" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B204" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C199" s="8" t="s">
+      <c r="C204" s="8" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A200" s="7" t="s">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A205" s="7" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="201" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B201" s="8" t="s">
+    <row r="206" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B206" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="C201" s="8" t="s">
+      <c r="C206" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="D201" s="9" t="s">
+      <c r="D206" s="9" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B202" s="8" t="s">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B207" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="C202" s="8" t="s">
+      <c r="C207" s="8" t="s">
         <v>436</v>
-      </c>
-    </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A203" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="C203" s="60" t="s">
-        <v>438</v>
-      </c>
-      <c r="D203" s="9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="204" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B204" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="205" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B205" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="206" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B206" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="C206" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="207" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="D207" s="8" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="208" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C208" s="60" t="s">
+        <v>438</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B209" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B210" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B211" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A212" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="C208" s="60" t="s">
+      <c r="C213" s="60" t="s">
         <v>452</v>
       </c>
-      <c r="D208" s="9" t="s">
+      <c r="D213" s="9" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A209" s="8" t="s">
+    <row r="214" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A214" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="B214" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="C209" s="8" t="s">
+      <c r="C214" s="8" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A210" s="8" t="s">
+    <row r="215" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A215" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B215" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="C210" s="8" t="s">
+      <c r="C215" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="D210" s="9" t="s">
+      <c r="D215" s="9" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B211" s="8" t="s">
+    <row r="216" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B216" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="C211" s="8" t="s">
+      <c r="C216" s="8" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" s="7" t="s">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="D212" s="9" t="s">
+      <c r="D217" s="9" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A213" s="8" t="s">
+    <row r="218" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A218" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="B213" s="8" t="s">
+      <c r="B218" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="C213" s="8" t="s">
+      <c r="C218" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="D213" s="8" t="s">
+      <c r="D218" s="8" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A214" s="8" t="s">
+    <row r="219" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A219" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="C214" s="8" t="s">
+      <c r="C219" s="8" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A215" s="8"/>
-      <c r="C215" s="8" t="s">
+    <row r="220" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A220" s="8"/>
+      <c r="C220" s="8" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A216" s="8" t="s">
+    <row r="221" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A221" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="B216" s="8" t="s">
+      <c r="B221" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="C216" s="8" t="s">
+      <c r="C221" s="8" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A217" s="8" t="s">
+    <row r="222" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A222" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="B217" s="8" t="s">
+      <c r="B222" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="C217" s="8" t="s">
+      <c r="C222" s="8" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218" s="56" t="s">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="56" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A219" s="8"/>
-      <c r="C219" s="8" t="s">
+    <row r="224" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A224" s="8"/>
+      <c r="C224" s="8" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220" s="7" t="s">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="7" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="B221" s="8" t="s">
+    <row r="226" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B226" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="C221" s="8" t="s">
+      <c r="C226" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="D221" s="8" t="s">
+      <c r="D226" s="8" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A222" s="8" t="s">
+    <row r="227" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A227" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="B222" s="8" t="s">
+      <c r="B227" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="C222" s="8" t="s">
+      <c r="C227" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="D222" s="8" t="s">
+      <c r="D227" s="8" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="288" x14ac:dyDescent="0.3">
-      <c r="B223" s="8" t="s">
+    <row r="228" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+      <c r="B228" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="C223" s="8" t="s">
+      <c r="C228" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="D223" s="8" t="s">
+      <c r="D228" s="8" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="D224" s="8" t="s">
+    <row r="229" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="D229" s="8" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A225" s="9" t="s">
+    <row r="230" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A230" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="B225" s="8" t="s">
+      <c r="B230" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="C225" s="8" t="s">
+      <c r="C230" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="D225" s="8" t="s">
+      <c r="D230" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A226" s="8" t="s">
+    <row r="231" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A231" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="B226" s="8" t="s">
+      <c r="B231" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="C226" s="8" t="s">
+      <c r="C231" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="D226" s="8" t="s">
+      <c r="D231" s="8" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A227" s="9" t="s">
+    <row r="232" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A232" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="B227" s="8" t="s">
+      <c r="B232" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="C227" s="8" t="s">
+      <c r="C232" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="D227" s="8"/>
-    </row>
-    <row r="228" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A228" s="56" t="s">
+      <c r="D232" s="8"/>
+    </row>
+    <row r="233" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A233" s="56" t="s">
         <v>500</v>
       </c>
-      <c r="B228" s="8" t="s">
+      <c r="B233" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="D228" s="8"/>
-    </row>
-    <row r="229" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A229" s="8" t="s">
+      <c r="D233" s="8"/>
+    </row>
+    <row r="234" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A234" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="B229" s="8" t="s">
+      <c r="B234" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="C229" s="8" t="s">
+      <c r="C234" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="D229" s="8" t="s">
+      <c r="D234" s="8" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A230" s="8"/>
-      <c r="B230" s="8" t="s">
+    <row r="235" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A235" s="8"/>
+      <c r="B235" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="D230" s="8" t="s">
+      <c r="D235" s="8" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A231" s="7" t="s">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="D231" s="9" t="s">
+      <c r="D236" s="9" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B232" s="8" t="s">
+    <row r="237" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B237" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="C232" s="8" t="s">
+      <c r="C237" s="8" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A234" s="1"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="1"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235" s="5"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="6"/>
-      <c r="D235" s="5"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B236" s="2"/>
-      <c r="C236" s="61" t="s">
-        <v>513</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B237" s="2"/>
-      <c r="C237" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B238" s="2"/>
-      <c r="C238" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
-        <v>521</v>
-      </c>
+      <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
-      <c r="D239" s="1" t="s">
+      <c r="D239" s="1"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="5"/>
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="5"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B241" s="2"/>
+      <c r="C241" s="61" t="s">
+        <v>513</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A240" s="10" t="s">
+    <row r="245" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A245" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="C240" s="50" t="s">
+      <c r="C245" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="D240" s="1"/>
-    </row>
-    <row r="241" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A241" s="2" t="s">
+      <c r="D245" s="1"/>
+    </row>
+    <row r="246" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B246" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C246" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A242" s="2" t="s">
+    <row r="247" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B247" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
-    </row>
-    <row r="243" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A243" s="2"/>
-      <c r="B243" s="111" t="s">
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+    </row>
+    <row r="248" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A248" s="2"/>
+      <c r="B248" s="111" t="s">
+        <v>913</v>
+      </c>
+      <c r="C248" s="111" t="s">
         <v>914</v>
       </c>
-      <c r="C243" s="111" t="s">
-        <v>915</v>
-      </c>
-      <c r="D243" s="2"/>
-    </row>
-    <row r="244" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
+      <c r="D248" s="2"/>
+    </row>
+    <row r="249" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B249" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C249" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
+    <row r="250" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C250" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="D250" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
+    <row r="251" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2" t="s">
+      <c r="B251" s="2"/>
+      <c r="C251" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D246" s="1"/>
-    </row>
-    <row r="247" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A247" s="1"/>
-      <c r="B247" s="2"/>
-      <c r="C247" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="D247" s="1"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="B248" s="2"/>
-      <c r="C248" s="50" t="s">
-        <v>541</v>
-      </c>
-      <c r="D248" s="1"/>
-    </row>
-    <row r="249" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A249" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="C249" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
-      <c r="C250" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="D250" s="1"/>
-    </row>
-    <row r="251" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A252" s="1" t="s">
-        <v>550</v>
-      </c>
+      <c r="D251" s="1"/>
+    </row>
+    <row r="252" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D252" s="1"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B253" s="2"/>
+      <c r="C253" s="50" t="s">
+        <v>541</v>
+      </c>
+      <c r="D253" s="1"/>
+    </row>
+    <row r="254" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A255" s="2"/>
+      <c r="B255" s="2"/>
+      <c r="C255" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D255" s="1"/>
+    </row>
+    <row r="256" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B257" s="2"/>
+      <c r="C257" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="D257" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
+    <row r="258" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B253" s="62" t="s">
+      <c r="B258" s="62" t="s">
         <v>554</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C258" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="D258" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254" s="10" t="s">
+    <row r="259" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A259" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B254" s="2"/>
-      <c r="C254" s="50" t="s">
+      <c r="B259" s="2"/>
+      <c r="C259" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="D254" s="1"/>
-    </row>
-    <row r="255" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A255" s="2" t="s">
+      <c r="D259" s="1"/>
+    </row>
+    <row r="260" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B260" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C260" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D255" s="2" t="s">
+      <c r="D260" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256" s="10" t="s">
+    <row r="261" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A261" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
-      <c r="D256" s="1"/>
-    </row>
-    <row r="257" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A257" s="2" t="s">
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="1"/>
+    </row>
+    <row r="262" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B262" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C262" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="D262" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="258" spans="1:22" ht="144" x14ac:dyDescent="0.3">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2" t="s">
+    <row r="263" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+      <c r="A263" s="2"/>
+      <c r="B263" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C263" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="D263" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="259" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
-      <c r="C259" s="2" t="s">
+    <row r="264" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A264" s="2"/>
+      <c r="B264" s="2"/>
+      <c r="C264" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="D264" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A261" s="13"/>
-      <c r="B261" s="14"/>
-      <c r="C261" s="14"/>
-      <c r="D261" s="13"/>
-      <c r="F261" s="13"/>
-      <c r="G261" s="14"/>
-      <c r="H261" s="13"/>
-      <c r="I261" s="13"/>
-      <c r="K261" s="13"/>
-      <c r="L261" s="13"/>
-      <c r="M261" s="13"/>
-      <c r="N261" s="13"/>
-      <c r="P261" s="14"/>
-      <c r="Q261" s="14"/>
-      <c r="R261" s="14"/>
-      <c r="S261" s="14"/>
-      <c r="U261" s="14"/>
-    </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A262" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="C262" s="57" t="s">
-        <v>569</v>
-      </c>
-      <c r="D262" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="P262" s="9"/>
-      <c r="U262" s="9"/>
-      <c r="V262" s="8"/>
-    </row>
-    <row r="263" spans="1:22" ht="72" x14ac:dyDescent="0.3">
-      <c r="B263" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="C263" s="8" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="264" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A264" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="B264" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="C264" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="D264" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="265" spans="1:22" ht="72" x14ac:dyDescent="0.3">
-      <c r="A265" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="B265" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="C265" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="D265" s="9" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="266" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A266" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="B266" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="C266" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="D266" s="9" t="s">
-        <v>583</v>
-      </c>
+    <row r="266" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A266" s="13"/>
+      <c r="B266" s="14"/>
+      <c r="C266" s="14"/>
+      <c r="D266" s="13"/>
+      <c r="F266" s="13"/>
+      <c r="G266" s="14"/>
+      <c r="H266" s="13"/>
+      <c r="I266" s="13"/>
+      <c r="K266" s="13"/>
+      <c r="L266" s="13"/>
+      <c r="M266" s="13"/>
+      <c r="N266" s="13"/>
+      <c r="P266" s="14"/>
+      <c r="Q266" s="14"/>
+      <c r="R266" s="14"/>
+      <c r="S266" s="14"/>
+      <c r="U266" s="14"/>
     </row>
     <row r="267" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A267" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="C267" s="57" t="s">
+        <v>569</v>
+      </c>
+      <c r="D267" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="P267" s="9"/>
+      <c r="U267" s="9"/>
+      <c r="V267" s="8"/>
+    </row>
+    <row r="268" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="B268" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A269" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="D269" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="A270" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D270" s="9" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A271" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="D271" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="272" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A272" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="C267" s="8" t="s">
+      <c r="C272" s="8" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A268" s="7" t="s">
+    <row r="273" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A273" s="7" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="269" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C269" s="8" t="s">
+    <row r="274" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C274" s="8" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="270" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C270" s="8" t="s">
+    <row r="275" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C275" s="8" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="271" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B271" s="8" t="s">
+    <row r="276" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B276" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C271" s="8" t="s">
+      <c r="C276" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="D271" s="9" t="s">
+      <c r="D276" s="9" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="272" spans="1:22" ht="72" x14ac:dyDescent="0.3">
-      <c r="B272" s="8" t="s">
+    <row r="277" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="B277" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="C272" s="8" t="s">
+      <c r="C277" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="D272" s="9" t="s">
+      <c r="D277" s="9" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A274" s="13"/>
-      <c r="B274" s="14"/>
-      <c r="C274" s="14"/>
-      <c r="D274" s="13"/>
-      <c r="F274" s="13"/>
-      <c r="G274" s="14"/>
-      <c r="H274" s="13"/>
-      <c r="I274" s="13"/>
-      <c r="K274" s="13"/>
-      <c r="L274" s="13"/>
-      <c r="M274" s="13"/>
-      <c r="N274" s="13"/>
-      <c r="P274" s="14"/>
-      <c r="Q274" s="14"/>
-      <c r="R274" s="14"/>
-      <c r="S274" s="14"/>
-      <c r="U274" s="14"/>
-    </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A275" s="9" t="s">
+    <row r="279" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A279" s="13"/>
+      <c r="B279" s="14"/>
+      <c r="C279" s="14"/>
+      <c r="D279" s="13"/>
+      <c r="F279" s="13"/>
+      <c r="G279" s="14"/>
+      <c r="H279" s="13"/>
+      <c r="I279" s="13"/>
+      <c r="K279" s="13"/>
+      <c r="L279" s="13"/>
+      <c r="M279" s="13"/>
+      <c r="N279" s="13"/>
+      <c r="P279" s="14"/>
+      <c r="Q279" s="14"/>
+      <c r="R279" s="14"/>
+      <c r="S279" s="14"/>
+      <c r="U279" s="14"/>
+    </row>
+    <row r="280" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A280" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="C275" s="57" t="s">
+      <c r="C280" s="57" t="s">
         <v>594</v>
       </c>
-      <c r="D275" s="9" t="s">
+      <c r="D280" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="P275" s="9"/>
-      <c r="U275" s="9"/>
-      <c r="V275" s="8"/>
-    </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A276" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="D276" s="9" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="277" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B277" s="63" t="s">
-        <v>597</v>
-      </c>
-      <c r="C277" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="D277" s="8" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="278" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="B278" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="C278" s="8" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="279" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B279" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="C279" s="21" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="280" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C280" s="8" t="s">
-        <v>604</v>
-      </c>
+      <c r="P280" s="9"/>
+      <c r="U280" s="9"/>
+      <c r="V280" s="8"/>
     </row>
     <row r="281" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A281" s="7" t="s">
-        <v>431</v>
+        <v>595</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="282" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B282" s="8" t="s">
-        <v>606</v>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="282" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B282" s="63" t="s">
+        <v>597</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="283" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A283" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="D283" s="9" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="284" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A284" s="8" t="s">
-        <v>610</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="D282" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B283" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B284" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="C284" s="8" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="285" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B285" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="C285" s="63" t="s">
-        <v>614</v>
+        <v>602</v>
+      </c>
+      <c r="C284" s="21" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C285" s="8" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A286" s="7" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="287" spans="1:22" ht="288" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="D286" s="9" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="287" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B287" s="8" t="s">
+        <v>606</v>
+      </c>
       <c r="C287" s="8" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="288" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B288" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="C288" s="8" t="s">
-        <v>618</v>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="288" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A288" s="7" t="s">
+        <v>608</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="289" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A289" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="290" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B290" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="C290" s="63" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="291" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A291" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="292" spans="1:22" ht="288" x14ac:dyDescent="0.3">
+      <c r="C292" s="8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="293" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B293" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="D293" s="9" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="294" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A294" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="B289" s="8" t="s">
+      <c r="B294" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="C289" s="8" t="s">
+      <c r="C294" s="8" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="290" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B290" s="8" t="s">
+    <row r="295" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B295" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="C290" s="8" t="s">
+      <c r="C295" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="D290" s="9" t="s">
+      <c r="D295" s="9" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="291" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B291" s="8" t="s">
+    <row r="296" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B296" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="C291" s="8" t="s">
+      <c r="C296" s="8" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="293" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A293" s="13"/>
-      <c r="B293" s="14"/>
-      <c r="C293" s="14"/>
-      <c r="D293" s="13"/>
-      <c r="F293" s="13"/>
-      <c r="G293" s="14"/>
-      <c r="H293" s="13"/>
-      <c r="I293" s="13"/>
-      <c r="K293" s="13"/>
-      <c r="L293" s="13"/>
-      <c r="M293" s="13"/>
-      <c r="N293" s="13"/>
-      <c r="P293" s="14"/>
-      <c r="Q293" s="14"/>
-      <c r="R293" s="14"/>
-      <c r="S293" s="14"/>
-      <c r="U293" s="14"/>
-    </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A294" s="9" t="s">
+    <row r="298" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A298" s="13"/>
+      <c r="B298" s="14"/>
+      <c r="C298" s="14"/>
+      <c r="D298" s="13"/>
+      <c r="F298" s="13"/>
+      <c r="G298" s="14"/>
+      <c r="H298" s="13"/>
+      <c r="I298" s="13"/>
+      <c r="K298" s="13"/>
+      <c r="L298" s="13"/>
+      <c r="M298" s="13"/>
+      <c r="N298" s="13"/>
+      <c r="P298" s="14"/>
+      <c r="Q298" s="14"/>
+      <c r="R298" s="14"/>
+      <c r="S298" s="14"/>
+      <c r="U298" s="14"/>
+    </row>
+    <row r="299" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A299" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="C294" s="57" t="s">
+      <c r="C299" s="57" t="s">
         <v>629</v>
       </c>
-      <c r="P294" s="9"/>
-      <c r="U294" s="9"/>
-      <c r="V294" s="8"/>
-    </row>
-    <row r="295" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A295" s="56" t="s">
+      <c r="P299" s="9"/>
+      <c r="U299" s="9"/>
+      <c r="V299" s="8"/>
+    </row>
+    <row r="300" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A300" s="56" t="s">
         <v>630</v>
       </c>
-      <c r="B295" s="56" t="s">
+      <c r="B300" s="56" t="s">
         <v>631</v>
       </c>
-      <c r="C295" s="56"/>
-      <c r="D295" s="7"/>
-    </row>
-    <row r="296" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A296" s="8"/>
-      <c r="B296" s="8" t="s">
+      <c r="C300" s="56"/>
+      <c r="D300" s="7"/>
+    </row>
+    <row r="301" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A301" s="8"/>
+      <c r="B301" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="C296" s="8" t="s">
+      <c r="C301" s="8" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="297" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B297" s="64" t="s">
+    <row r="302" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B302" s="64" t="s">
         <v>634</v>
       </c>
-      <c r="C297" s="64" t="s">
+      <c r="C302" s="64" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="298" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A298" s="8" t="s">
+    <row r="303" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A303" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="B298" s="8" t="s">
+      <c r="B303" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="C298" s="8" t="s">
+      <c r="C303" s="8" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="299" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A299" s="56" t="s">
+    <row r="304" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A304" s="56" t="s">
         <v>639</v>
       </c>
-      <c r="B299" s="56" t="s">
+      <c r="B304" s="56" t="s">
         <v>640</v>
       </c>
-      <c r="C299" s="56"/>
-      <c r="D299" s="7"/>
-    </row>
-    <row r="300" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A300" s="8" t="s">
+      <c r="C304" s="56"/>
+      <c r="D304" s="7"/>
+    </row>
+    <row r="305" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A305" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="C300" s="8" t="s">
+      <c r="C305" s="8" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="301" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A301" s="27" t="s">
+    <row r="306" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A306" s="27" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="302" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B302" s="8" t="s">
+    <row r="307" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B307" s="8" t="s">
         <v>644</v>
       </c>
-      <c r="C302" s="8" t="s">
+      <c r="C307" s="8" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="303" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A303" s="27" t="s">
+    <row r="308" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A308" s="27" t="s">
         <v>646</v>
       </c>
-      <c r="B303" s="64" t="s">
+      <c r="B308" s="64" t="s">
         <v>647</v>
       </c>
-      <c r="C303" s="64" t="s">
+      <c r="C308" s="64" t="s">
         <v>648</v>
       </c>
-      <c r="D303" s="64" t="s">
+      <c r="D308" s="64" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="304" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B304" s="8" t="s">
+    <row r="309" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B309" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="C304" s="8" t="s">
+      <c r="C309" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="D304" s="8" t="s">
+      <c r="D309" s="8" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="305" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C305" s="8" t="s">
+    <row r="310" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C310" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="D305" s="8" t="s">
+      <c r="D310" s="8" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="306" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D306" s="8" t="s">
+    <row r="311" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D311" s="8" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="311" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A311" s="123" t="s">
+    <row r="316" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A316" s="127" t="s">
         <v>774</v>
       </c>
-      <c r="B311" s="123"/>
-      <c r="C311" s="123"/>
-      <c r="D311" s="123"/>
-    </row>
-    <row r="312" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A312" s="13"/>
-      <c r="B312" s="14"/>
-      <c r="C312" s="14"/>
-      <c r="D312" s="13"/>
-      <c r="F312" s="13"/>
-      <c r="G312" s="14"/>
-      <c r="H312" s="13"/>
-      <c r="I312" s="13"/>
-      <c r="K312" s="13"/>
-      <c r="L312" s="13"/>
-      <c r="M312" s="13"/>
-      <c r="N312" s="13"/>
-      <c r="P312" s="14"/>
-      <c r="Q312" s="14"/>
-      <c r="R312" s="14"/>
-      <c r="S312" s="14"/>
-      <c r="U312" s="14"/>
-    </row>
-    <row r="313" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A313" s="9" t="s">
+      <c r="B316" s="127"/>
+      <c r="C316" s="127"/>
+      <c r="D316" s="127"/>
+    </row>
+    <row r="317" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A317" s="13"/>
+      <c r="B317" s="14"/>
+      <c r="C317" s="14"/>
+      <c r="D317" s="13"/>
+      <c r="F317" s="13"/>
+      <c r="G317" s="14"/>
+      <c r="H317" s="13"/>
+      <c r="I317" s="13"/>
+      <c r="K317" s="13"/>
+      <c r="L317" s="13"/>
+      <c r="M317" s="13"/>
+      <c r="N317" s="13"/>
+      <c r="P317" s="14"/>
+      <c r="Q317" s="14"/>
+      <c r="R317" s="14"/>
+      <c r="S317" s="14"/>
+      <c r="U317" s="14"/>
+    </row>
+    <row r="318" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A318" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="C313" s="57" t="s">
+      <c r="C318" s="57" t="s">
         <v>657</v>
       </c>
-      <c r="D313" s="9" t="s">
+      <c r="D318" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="P313" s="9"/>
-      <c r="U313" s="9"/>
-      <c r="V313" s="8"/>
-    </row>
-    <row r="314" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C314" s="8" t="s">
+      <c r="P318" s="9"/>
+      <c r="U318" s="9"/>
+      <c r="V318" s="8"/>
+    </row>
+    <row r="319" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C319" s="8" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="315" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A315" s="9" t="s">
+    <row r="320" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A320" s="9" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="316" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="C316" s="8" t="s">
+    <row r="321" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="C321" s="8" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="318" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A318" s="13"/>
-      <c r="B318" s="14"/>
-      <c r="C318" s="14"/>
-      <c r="D318" s="13"/>
-      <c r="F318" s="13"/>
-      <c r="G318" s="14"/>
-      <c r="H318" s="13"/>
-      <c r="I318" s="13"/>
-      <c r="K318" s="13"/>
-      <c r="L318" s="13"/>
-      <c r="M318" s="13"/>
-      <c r="N318" s="13"/>
-      <c r="P318" s="14"/>
-      <c r="Q318" s="14"/>
-      <c r="R318" s="14"/>
-      <c r="S318" s="14"/>
-      <c r="U318" s="14"/>
-    </row>
-    <row r="319" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A319" s="9" t="s">
+    <row r="323" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A323" s="13"/>
+      <c r="B323" s="14"/>
+      <c r="C323" s="14"/>
+      <c r="D323" s="13"/>
+      <c r="F323" s="13"/>
+      <c r="G323" s="14"/>
+      <c r="H323" s="13"/>
+      <c r="I323" s="13"/>
+      <c r="K323" s="13"/>
+      <c r="L323" s="13"/>
+      <c r="M323" s="13"/>
+      <c r="N323" s="13"/>
+      <c r="P323" s="14"/>
+      <c r="Q323" s="14"/>
+      <c r="R323" s="14"/>
+      <c r="S323" s="14"/>
+      <c r="U323" s="14"/>
+    </row>
+    <row r="324" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A324" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="C319" s="57" t="s">
+      <c r="C324" s="57" t="s">
         <v>663</v>
       </c>
-      <c r="D319" s="8" t="s">
+      <c r="D324" s="8" t="s">
         <v>775</v>
-      </c>
-      <c r="P319" s="9"/>
-      <c r="U319" s="9"/>
-      <c r="V319" s="8"/>
-    </row>
-    <row r="320" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A320" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="P320" s="9"/>
-      <c r="U320" s="9"/>
-      <c r="V320" s="8"/>
-    </row>
-    <row r="321" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C321" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="P321" s="9"/>
-      <c r="U321" s="9"/>
-      <c r="V321" s="8"/>
-    </row>
-    <row r="322" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A322" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="P322" s="9"/>
-      <c r="U322" s="9"/>
-      <c r="V322" s="8"/>
-    </row>
-    <row r="323" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B323" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="C323" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="P323" s="9"/>
-      <c r="U323" s="9"/>
-      <c r="V323" s="8"/>
-    </row>
-    <row r="324" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A324" s="56" t="s">
-        <v>669</v>
       </c>
       <c r="P324" s="9"/>
       <c r="U324" s="9"/>
       <c r="V324" s="8"/>
     </row>
-    <row r="325" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="B325" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="C325" s="69" t="s">
-        <v>776</v>
+    <row r="325" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A325" s="7" t="s">
+        <v>664</v>
       </c>
       <c r="P325" s="9"/>
       <c r="U325" s="9"/>
       <c r="V325" s="8"/>
     </row>
-    <row r="326" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A326" s="27" t="s">
+    <row r="326" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C326" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="P326" s="9"/>
+      <c r="U326" s="9"/>
+      <c r="V326" s="8"/>
+    </row>
+    <row r="327" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A327" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="P327" s="9"/>
+      <c r="U327" s="9"/>
+      <c r="V327" s="8"/>
+    </row>
+    <row r="328" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B328" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="C328" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="P328" s="9"/>
+      <c r="U328" s="9"/>
+      <c r="V328" s="8"/>
+    </row>
+    <row r="329" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A329" s="56" t="s">
+        <v>669</v>
+      </c>
+      <c r="P329" s="9"/>
+      <c r="U329" s="9"/>
+      <c r="V329" s="8"/>
+    </row>
+    <row r="330" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B330" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C330" s="130" t="s">
+        <v>940</v>
+      </c>
+      <c r="P330" s="9"/>
+      <c r="U330" s="9"/>
+      <c r="V330" s="8"/>
+    </row>
+    <row r="331" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A331" s="27" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="327" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="B327" s="8" t="s">
+    <row r="332" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B332" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="C327" s="8" t="s">
+      <c r="C332" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="D327" s="8" t="s">
+      <c r="D332" s="8" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="328" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A328" s="27" t="s">
+    <row r="333" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A333" s="27" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="329" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B329" s="8" t="s">
+    <row r="334" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B334" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="C329" s="8" t="s">
+      <c r="C334" s="8" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="330" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A330" s="27" t="s">
+    <row r="335" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A335" s="27" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="331" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="C331" s="8" t="s">
+    <row r="336" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="C336" s="8" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="333" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A333" s="13"/>
-      <c r="B333" s="14"/>
-      <c r="C333" s="14"/>
-      <c r="D333" s="13"/>
-      <c r="F333" s="13"/>
-      <c r="G333" s="14"/>
-      <c r="H333" s="13"/>
-      <c r="I333" s="13"/>
-      <c r="K333" s="13"/>
-      <c r="L333" s="13"/>
-      <c r="M333" s="13"/>
-      <c r="N333" s="13"/>
-      <c r="P333" s="14"/>
-      <c r="Q333" s="14"/>
-      <c r="R333" s="14"/>
-      <c r="S333" s="14"/>
-      <c r="U333" s="14"/>
-    </row>
-    <row r="334" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A334" s="9" t="s">
+    <row r="338" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A338" s="13"/>
+      <c r="B338" s="14"/>
+      <c r="C338" s="14"/>
+      <c r="D338" s="13"/>
+      <c r="F338" s="13"/>
+      <c r="G338" s="14"/>
+      <c r="H338" s="13"/>
+      <c r="I338" s="13"/>
+      <c r="K338" s="13"/>
+      <c r="L338" s="13"/>
+      <c r="M338" s="13"/>
+      <c r="N338" s="13"/>
+      <c r="P338" s="14"/>
+      <c r="Q338" s="14"/>
+      <c r="R338" s="14"/>
+      <c r="S338" s="14"/>
+      <c r="U338" s="14"/>
+    </row>
+    <row r="339" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A339" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="C334" s="57" t="s">
+      <c r="C339" s="57" t="s">
         <v>681</v>
       </c>
-      <c r="P334" s="9"/>
-      <c r="U334" s="9"/>
-      <c r="V334" s="8"/>
-    </row>
-    <row r="335" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C335" s="64" t="s">
+      <c r="P339" s="9"/>
+      <c r="U339" s="9"/>
+      <c r="V339" s="8"/>
+    </row>
+    <row r="340" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C340" s="64" t="s">
         <v>682</v>
       </c>
-      <c r="D335" s="64" t="s">
+      <c r="D340" s="64" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="336" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="B336" s="8" t="s">
+    <row r="341" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B341" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="C336" s="8" t="s">
+      <c r="C341" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="D336" s="8" t="s">
+      <c r="D341" s="8" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="337" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A337" s="8" t="s">
+    <row r="342" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A342" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="B337" s="8" t="s">
+      <c r="B342" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="C337" s="8" t="s">
+      <c r="C342" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="D337" s="8" t="s">
+      <c r="D342" s="8" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="338" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A338" s="8"/>
-      <c r="D338" s="8"/>
-    </row>
-    <row r="339" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A339" s="13"/>
-      <c r="B339" s="14"/>
-      <c r="C339" s="14"/>
-      <c r="D339" s="13"/>
-      <c r="F339" s="13"/>
-      <c r="G339" s="14"/>
-      <c r="H339" s="13"/>
-      <c r="I339" s="13"/>
-      <c r="K339" s="13"/>
-      <c r="L339" s="13"/>
-      <c r="M339" s="13"/>
-      <c r="N339" s="13"/>
-      <c r="P339" s="14"/>
-      <c r="Q339" s="14"/>
-      <c r="R339" s="14"/>
-      <c r="S339" s="14"/>
-      <c r="U339" s="14"/>
-    </row>
-    <row r="340" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A340" s="9" t="s">
+    <row r="343" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A343" s="8"/>
+      <c r="D343" s="8"/>
+    </row>
+    <row r="344" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A344" s="13"/>
+      <c r="B344" s="14"/>
+      <c r="C344" s="14"/>
+      <c r="D344" s="13"/>
+      <c r="F344" s="13"/>
+      <c r="G344" s="14"/>
+      <c r="H344" s="13"/>
+      <c r="I344" s="13"/>
+      <c r="K344" s="13"/>
+      <c r="L344" s="13"/>
+      <c r="M344" s="13"/>
+      <c r="N344" s="13"/>
+      <c r="P344" s="14"/>
+      <c r="Q344" s="14"/>
+      <c r="R344" s="14"/>
+      <c r="S344" s="14"/>
+      <c r="U344" s="14"/>
+    </row>
+    <row r="345" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A345" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="C340" s="83" t="s">
+      <c r="C345" s="83" t="s">
+        <v>802</v>
+      </c>
+      <c r="V345" s="8"/>
+    </row>
+    <row r="346" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A346" s="82" t="s">
+        <v>797</v>
+      </c>
+      <c r="B346" s="67"/>
+      <c r="C346" s="67"/>
+      <c r="D346" s="68"/>
+    </row>
+    <row r="347" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A347" s="65" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="348" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C348" s="69" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="349" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A349" s="64" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="350" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="B350" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C350" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="351" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A351" s="65" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="352" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+      <c r="C352" s="85" t="s">
+        <v>696</v>
+      </c>
+      <c r="D352" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="353" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A353" s="57" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="354" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B354" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="C354" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="355" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A355" s="73" t="s">
+        <v>790</v>
+      </c>
+      <c r="B355" s="75" t="s">
+        <v>700</v>
+      </c>
+      <c r="C355" s="76"/>
+      <c r="D355" s="77"/>
+    </row>
+    <row r="356" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A356" s="69" t="s">
+        <v>776</v>
+      </c>
+      <c r="B356" s="69" t="s">
+        <v>778</v>
+      </c>
+      <c r="C356" s="69" t="s">
+        <v>781</v>
+      </c>
+      <c r="D356" s="69" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="357" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A357" s="69" t="s">
+        <v>777</v>
+      </c>
+      <c r="C357" s="85" t="s">
+        <v>779</v>
+      </c>
+      <c r="D357" s="69" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="358" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A358" s="73" t="s">
+        <v>815</v>
+      </c>
+      <c r="C358" s="85"/>
+      <c r="D358" s="69"/>
+    </row>
+    <row r="359" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="A359" s="69"/>
+      <c r="C359" s="85" t="s">
+        <v>814</v>
+      </c>
+      <c r="D359" s="69"/>
+    </row>
+    <row r="360" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A360" s="13"/>
+      <c r="B360" s="14"/>
+      <c r="C360" s="14"/>
+      <c r="D360" s="13"/>
+      <c r="F360" s="13"/>
+      <c r="G360" s="14"/>
+      <c r="H360" s="13"/>
+      <c r="I360" s="13"/>
+      <c r="K360" s="13"/>
+      <c r="L360" s="13"/>
+      <c r="M360" s="13"/>
+      <c r="N360" s="13"/>
+      <c r="P360" s="14"/>
+      <c r="Q360" s="14"/>
+      <c r="R360" s="14"/>
+      <c r="S360" s="14"/>
+      <c r="U360" s="14"/>
+    </row>
+    <row r="361" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A361" s="74" t="s">
+        <v>799</v>
+      </c>
+      <c r="C361" s="83" t="s">
+        <v>800</v>
+      </c>
+      <c r="V361" s="8"/>
+    </row>
+    <row r="362" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A362" s="86" t="s">
+        <v>760</v>
+      </c>
+      <c r="B362" s="67"/>
+      <c r="C362" s="67"/>
+      <c r="D362" s="68"/>
+    </row>
+    <row r="363" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A363" s="65" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="364" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B364" s="85" t="s">
+        <v>817</v>
+      </c>
+      <c r="C364" s="85" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="365" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A365" s="69" t="s">
+        <v>776</v>
+      </c>
+      <c r="C365" s="69" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="366" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A366" s="69" t="s">
+        <v>777</v>
+      </c>
+      <c r="C366" s="69" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="367" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A367" s="70" t="s">
+        <v>762</v>
+      </c>
+      <c r="B367" s="69" t="s">
+        <v>761</v>
+      </c>
+      <c r="C367" s="85" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="368" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A368" s="64" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A369" s="8"/>
+      <c r="C369" s="8" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B371" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C371" s="85" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="C372" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A373" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="F373" s="96"/>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A374" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D374" s="91" t="s">
+        <v>822</v>
+      </c>
+      <c r="F374" s="96"/>
+    </row>
+    <row r="375" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B375" s="88" t="s">
+        <v>819</v>
+      </c>
+      <c r="C375" s="93" t="s">
+        <v>844</v>
+      </c>
+      <c r="F375" s="96"/>
+    </row>
+    <row r="376" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A376" s="8"/>
+      <c r="B376" s="87" t="s">
+        <v>818</v>
+      </c>
+      <c r="C376" s="93" t="s">
+        <v>845</v>
+      </c>
+      <c r="D376" s="90"/>
+      <c r="F376" s="96"/>
+    </row>
+    <row r="377" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A377" s="97" t="s">
+        <v>846</v>
+      </c>
+      <c r="B377" s="90"/>
+      <c r="C377" s="93"/>
+      <c r="D377" s="90"/>
+      <c r="F377" s="96"/>
+    </row>
+    <row r="378" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A378" s="90"/>
+      <c r="B378" s="90"/>
+      <c r="C378" s="93" t="s">
+        <v>857</v>
+      </c>
+      <c r="D378" s="90"/>
+      <c r="F378" s="96"/>
+    </row>
+    <row r="379" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A379" s="93" t="s">
+        <v>853</v>
+      </c>
+      <c r="B379" s="93" t="s">
+        <v>856</v>
+      </c>
+      <c r="C379" s="93" t="s">
+        <v>855</v>
+      </c>
+      <c r="D379" s="98" t="s">
+        <v>854</v>
+      </c>
+      <c r="F379" s="96"/>
+    </row>
+    <row r="380" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A380" s="93" t="s">
+        <v>852</v>
+      </c>
+      <c r="B380" s="93" t="s">
+        <v>851</v>
+      </c>
+      <c r="C380" s="93" t="s">
+        <v>850</v>
+      </c>
+      <c r="D380" s="98" t="s">
+        <v>854</v>
+      </c>
+      <c r="F380" s="96"/>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A381" s="71" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A382" s="72" t="s">
+        <v>770</v>
+      </c>
+      <c r="B382" s="93"/>
+      <c r="C382" s="80" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A383" s="69" t="s">
+        <v>766</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="C383" s="69" t="s">
+        <v>705</v>
+      </c>
+      <c r="D383" s="74" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" s="72" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="385" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="A385" s="69" t="s">
+        <v>765</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="386" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A386" s="8"/>
+      <c r="B386" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="C386" s="69" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="387" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A387" s="72" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="388" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A388" s="69" t="s">
+        <v>764</v>
+      </c>
+      <c r="B388" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="C388" s="8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="389" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A389" s="73" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="390" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A390" s="69" t="s">
+        <v>767</v>
+      </c>
+      <c r="B390" s="69" t="s">
+        <v>768</v>
+      </c>
+      <c r="C390" s="69" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="391" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A391" s="56" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="392" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A392" s="8"/>
+      <c r="B392" s="93" t="s">
+        <v>826</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="393" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A393" s="69"/>
+      <c r="B393" s="69"/>
+      <c r="C393" s="69"/>
+    </row>
+    <row r="394" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A394" s="13"/>
+      <c r="B394" s="14"/>
+      <c r="C394" s="14"/>
+      <c r="D394" s="13"/>
+      <c r="F394" s="13"/>
+      <c r="G394" s="14"/>
+      <c r="H394" s="13"/>
+      <c r="I394" s="13"/>
+      <c r="K394" s="13"/>
+      <c r="L394" s="13"/>
+      <c r="M394" s="13"/>
+      <c r="N394" s="13"/>
+      <c r="P394" s="14"/>
+      <c r="Q394" s="14"/>
+      <c r="R394" s="14"/>
+      <c r="S394" s="14"/>
+      <c r="U394" s="14"/>
+    </row>
+    <row r="395" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A395" s="74" t="s">
+        <v>799</v>
+      </c>
+      <c r="C395" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="V395" s="8"/>
+    </row>
+    <row r="396" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A396" s="95" t="s">
+        <v>842</v>
+      </c>
+      <c r="C396" s="56" t="s">
+        <v>827</v>
+      </c>
+      <c r="D396" s="94" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="397" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A397" s="8"/>
+      <c r="B397" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C397" s="93" t="s">
+        <v>482</v>
+      </c>
+      <c r="D397" s="8" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="398" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A398" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="B398" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="C398" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="D398" s="8" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="399" spans="1:22" ht="288" x14ac:dyDescent="0.3">
+      <c r="A399" s="8"/>
+      <c r="B399" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="D399" s="8" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="400" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A400" s="8"/>
+      <c r="D400" s="8" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="401" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A401" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B401" s="93" t="s">
+        <v>843</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="D401" s="8" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="402" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A402" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="B402" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="C402" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="D402" s="8" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="403" spans="1:22" ht="216" x14ac:dyDescent="0.3">
+      <c r="A403" s="93" t="s">
+        <v>497</v>
+      </c>
+      <c r="B403" s="93" t="s">
+        <v>858</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D403" s="8"/>
+    </row>
+    <row r="404" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A404" s="56" t="s">
+        <v>500</v>
+      </c>
+      <c r="B404" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="D404" s="8"/>
+    </row>
+    <row r="405" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A405" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="D405" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="406" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="A406" s="8"/>
+      <c r="B406" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D406" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="407" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A407" s="69"/>
+      <c r="B407" s="69"/>
+      <c r="C407" s="69"/>
+    </row>
+    <row r="408" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A408" s="13"/>
+      <c r="B408" s="14"/>
+      <c r="C408" s="14"/>
+      <c r="D408" s="13"/>
+      <c r="F408" s="13"/>
+      <c r="G408" s="14"/>
+      <c r="H408" s="13"/>
+      <c r="I408" s="13"/>
+      <c r="K408" s="13"/>
+      <c r="L408" s="13"/>
+      <c r="M408" s="13"/>
+      <c r="N408" s="13"/>
+      <c r="P408" s="14"/>
+      <c r="Q408" s="14"/>
+      <c r="R408" s="14"/>
+      <c r="S408" s="14"/>
+      <c r="U408" s="14"/>
+    </row>
+    <row r="409" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A409" s="74" t="s">
         <v>803</v>
       </c>
-      <c r="V340" s="8"/>
-    </row>
-    <row r="341" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A341" s="82" t="s">
+      <c r="C409" s="83" t="s">
+        <v>801</v>
+      </c>
+      <c r="V409" s="8"/>
+    </row>
+    <row r="410" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A410" s="82" t="s">
         <v>798</v>
       </c>
-      <c r="B341" s="67"/>
-      <c r="C341" s="67"/>
-      <c r="D341" s="68"/>
-    </row>
-    <row r="342" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A342" s="65" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="343" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C343" s="69" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="344" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A344" s="64" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="345" spans="1:22" ht="72" x14ac:dyDescent="0.3">
-      <c r="B345" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="C345" s="8" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="346" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A346" s="65" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="347" spans="1:22" ht="144" x14ac:dyDescent="0.3">
-      <c r="C347" s="85" t="s">
-        <v>696</v>
-      </c>
-      <c r="D347" s="8" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="348" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A348" s="57" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="349" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B349" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="C349" s="8" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="350" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A350" s="73" t="s">
+      <c r="D410" s="74" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="411" spans="1:22" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B411" s="93" t="s">
+        <v>849</v>
+      </c>
+      <c r="C411" s="93" t="s">
+        <v>848</v>
+      </c>
+      <c r="D411" s="93" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="412" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A412" s="93" t="s">
+        <v>853</v>
+      </c>
+      <c r="B412" s="93" t="s">
+        <v>861</v>
+      </c>
+      <c r="C412" s="93"/>
+      <c r="D412" s="70"/>
+    </row>
+    <row r="413" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A413" s="93" t="s">
+        <v>852</v>
+      </c>
+      <c r="B413" s="93" t="s">
+        <v>860</v>
+      </c>
+      <c r="C413" s="93" t="s">
+        <v>859</v>
+      </c>
+      <c r="D413" s="70"/>
+    </row>
+    <row r="414" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A414" s="93" t="s">
+        <v>866</v>
+      </c>
+      <c r="B414" s="93"/>
+      <c r="C414" s="93" t="s">
+        <v>868</v>
+      </c>
+      <c r="D414" s="70"/>
+    </row>
+    <row r="415" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A415" s="93" t="s">
+        <v>867</v>
+      </c>
+      <c r="B415" s="93"/>
+      <c r="C415" s="93" t="s">
+        <v>869</v>
+      </c>
+      <c r="D415" s="70"/>
+    </row>
+    <row r="416" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A416" s="73" t="s">
+        <v>789</v>
+      </c>
+      <c r="B416" s="75" t="s">
+        <v>788</v>
+      </c>
+      <c r="C416" s="79" t="s">
         <v>791</v>
       </c>
-      <c r="B350" s="75" t="s">
-        <v>700</v>
-      </c>
-      <c r="C350" s="76"/>
-      <c r="D350" s="77"/>
-    </row>
-    <row r="351" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A351" s="69" t="s">
-        <v>777</v>
-      </c>
-      <c r="B351" s="69" t="s">
-        <v>779</v>
-      </c>
-      <c r="C351" s="69" t="s">
-        <v>782</v>
-      </c>
-      <c r="D351" s="69" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="352" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A352" s="69" t="s">
-        <v>778</v>
-      </c>
-      <c r="C352" s="85" t="s">
-        <v>780</v>
-      </c>
-      <c r="D352" s="69" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="353" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A353" s="73" t="s">
-        <v>816</v>
-      </c>
-      <c r="C353" s="85"/>
-      <c r="D353" s="69"/>
-    </row>
-    <row r="354" spans="1:22" ht="72" x14ac:dyDescent="0.3">
-      <c r="A354" s="69"/>
-      <c r="C354" s="85" t="s">
-        <v>815</v>
-      </c>
-      <c r="D354" s="69"/>
-    </row>
-    <row r="355" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A355" s="13"/>
-      <c r="B355" s="14"/>
-      <c r="C355" s="14"/>
-      <c r="D355" s="13"/>
-      <c r="F355" s="13"/>
-      <c r="G355" s="14"/>
-      <c r="H355" s="13"/>
-      <c r="I355" s="13"/>
-      <c r="K355" s="13"/>
-      <c r="L355" s="13"/>
-      <c r="M355" s="13"/>
-      <c r="N355" s="13"/>
-      <c r="P355" s="14"/>
-      <c r="Q355" s="14"/>
-      <c r="R355" s="14"/>
-      <c r="S355" s="14"/>
-      <c r="U355" s="14"/>
-    </row>
-    <row r="356" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A356" s="74" t="s">
-        <v>800</v>
-      </c>
-      <c r="C356" s="83" t="s">
-        <v>801</v>
-      </c>
-      <c r="V356" s="8"/>
-    </row>
-    <row r="357" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A357" s="86" t="s">
-        <v>760</v>
-      </c>
-      <c r="B357" s="67"/>
-      <c r="C357" s="67"/>
-      <c r="D357" s="68"/>
-    </row>
-    <row r="358" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A358" s="65" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="359" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B359" s="85" t="s">
-        <v>818</v>
-      </c>
-      <c r="C359" s="85" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="360" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A360" s="69" t="s">
-        <v>777</v>
-      </c>
-      <c r="C360" s="69" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="361" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A361" s="69" t="s">
-        <v>778</v>
-      </c>
-      <c r="C361" s="69" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="362" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A362" s="70" t="s">
-        <v>762</v>
-      </c>
-      <c r="B362" s="69" t="s">
-        <v>761</v>
-      </c>
-      <c r="C362" s="85" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="363" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A363" s="64" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="364" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A364" s="8"/>
-      <c r="C364" s="8" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="365" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A365" s="7" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="366" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B366" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C366" s="85" t="s">
+      <c r="D416" s="78" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="417" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A417" s="80" t="s">
+        <v>792</v>
+      </c>
+      <c r="C417" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="418" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A418" s="73" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="419" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A419" s="8"/>
+      <c r="B419" s="85" t="s">
+        <v>813</v>
+      </c>
+      <c r="C419" s="89" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="367" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="C367" s="8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="368" spans="1:22" ht="72" x14ac:dyDescent="0.3">
-      <c r="A368" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="B368" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C368" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="F368" s="96"/>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A369" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="D369" s="91" t="s">
-        <v>823</v>
-      </c>
-      <c r="F369" s="96"/>
-    </row>
-    <row r="370" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B370" s="88" t="s">
-        <v>820</v>
-      </c>
-      <c r="C370" s="93" t="s">
-        <v>845</v>
-      </c>
-      <c r="F370" s="96"/>
-    </row>
-    <row r="371" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A371" s="8"/>
-      <c r="B371" s="87" t="s">
-        <v>819</v>
-      </c>
-      <c r="C371" s="93" t="s">
-        <v>846</v>
-      </c>
-      <c r="D371" s="90"/>
-      <c r="F371" s="96"/>
-    </row>
-    <row r="372" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A372" s="97" t="s">
+    <row r="420" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A420" s="81" t="s">
+        <v>793</v>
+      </c>
+      <c r="D420" s="74" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="421" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B421" s="80" t="s">
+        <v>796</v>
+      </c>
+      <c r="C421" s="80" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="422" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A422" s="13"/>
+      <c r="B422" s="14"/>
+      <c r="C422" s="14"/>
+      <c r="D422" s="13"/>
+      <c r="F422" s="13"/>
+      <c r="G422" s="14"/>
+      <c r="H422" s="13"/>
+      <c r="I422" s="13"/>
+      <c r="K422" s="13"/>
+      <c r="L422" s="13"/>
+      <c r="M422" s="13"/>
+      <c r="N422" s="13"/>
+      <c r="P422" s="14"/>
+      <c r="Q422" s="14"/>
+      <c r="R422" s="14"/>
+      <c r="S422" s="14"/>
+      <c r="U422" s="14"/>
+    </row>
+    <row r="423" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A423" s="74" t="s">
+        <v>803</v>
+      </c>
+      <c r="C423" s="100" t="s">
         <v>847</v>
       </c>
-      <c r="B372" s="90"/>
-      <c r="C372" s="93"/>
-      <c r="D372" s="90"/>
-      <c r="F372" s="96"/>
-    </row>
-    <row r="373" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A373" s="90"/>
-      <c r="B373" s="90"/>
-      <c r="C373" s="93" t="s">
-        <v>858</v>
-      </c>
-      <c r="D373" s="90"/>
-      <c r="F373" s="96"/>
-    </row>
-    <row r="374" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A374" s="93" t="s">
-        <v>854</v>
-      </c>
-      <c r="B374" s="93" t="s">
-        <v>857</v>
-      </c>
-      <c r="C374" s="93" t="s">
-        <v>856</v>
-      </c>
-      <c r="D374" s="98" t="s">
-        <v>855</v>
-      </c>
-      <c r="F374" s="96"/>
-    </row>
-    <row r="375" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A375" s="93" t="s">
-        <v>853</v>
-      </c>
-      <c r="B375" s="93" t="s">
-        <v>852</v>
-      </c>
-      <c r="C375" s="93" t="s">
-        <v>851</v>
-      </c>
-      <c r="D375" s="98" t="s">
-        <v>855</v>
-      </c>
-      <c r="F375" s="96"/>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A376" s="71" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A377" s="72" t="s">
-        <v>770</v>
-      </c>
-      <c r="B377" s="93"/>
-      <c r="C377" s="80" t="s">
+      <c r="V423" s="8"/>
+    </row>
+    <row r="424" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A424" s="101" t="s">
+        <v>872</v>
+      </c>
+      <c r="C424" s="9"/>
+      <c r="V424" s="8"/>
+    </row>
+    <row r="425" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B425" s="80"/>
+      <c r="C425" s="93" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="426" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B426" s="80"/>
+      <c r="C426" s="93" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="427" spans="1:22" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A427" s="98" t="s">
+        <v>864</v>
+      </c>
+      <c r="B427" s="80"/>
+      <c r="C427" s="93" t="s">
+        <v>870</v>
+      </c>
+      <c r="D427" s="99" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="428" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B428" s="80"/>
+      <c r="C428" s="80"/>
+    </row>
+    <row r="429" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A429" s="13"/>
+      <c r="B429" s="14"/>
+      <c r="C429" s="14"/>
+      <c r="D429" s="13"/>
+      <c r="F429" s="13"/>
+      <c r="G429" s="14"/>
+      <c r="H429" s="13"/>
+      <c r="I429" s="13"/>
+      <c r="K429" s="13"/>
+      <c r="L429" s="13"/>
+      <c r="M429" s="13"/>
+      <c r="N429" s="13"/>
+      <c r="P429" s="14"/>
+      <c r="Q429" s="14"/>
+      <c r="R429" s="14"/>
+      <c r="S429" s="14"/>
+      <c r="U429" s="14"/>
+    </row>
+    <row r="430" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A430" s="74" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A378" s="69" t="s">
-        <v>766</v>
-      </c>
-      <c r="B378" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="C378" s="69" t="s">
-        <v>705</v>
-      </c>
-      <c r="D378" s="74" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A379" s="72" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A380" s="69" t="s">
-        <v>765</v>
-      </c>
-      <c r="B380" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="C380" s="8" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A381" s="8"/>
-      <c r="B381" s="8" t="s">
-        <v>707</v>
-      </c>
-      <c r="C381" s="69" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A382" s="72" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A383" s="69" t="s">
-        <v>764</v>
-      </c>
-      <c r="B383" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="C383" s="8" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A384" s="73" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="385" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A385" s="69" t="s">
-        <v>767</v>
-      </c>
-      <c r="B385" s="69" t="s">
-        <v>768</v>
-      </c>
-      <c r="C385" s="69" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="386" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A386" s="56" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="387" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A387" s="8"/>
-      <c r="B387" s="93" t="s">
-        <v>827</v>
-      </c>
-      <c r="C387" s="8" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="388" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A388" s="69"/>
-      <c r="B388" s="69"/>
-      <c r="C388" s="69"/>
-    </row>
-    <row r="389" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A389" s="13"/>
-      <c r="B389" s="14"/>
-      <c r="C389" s="14"/>
-      <c r="D389" s="13"/>
-      <c r="F389" s="13"/>
-      <c r="G389" s="14"/>
-      <c r="H389" s="13"/>
-      <c r="I389" s="13"/>
-      <c r="K389" s="13"/>
-      <c r="L389" s="13"/>
-      <c r="M389" s="13"/>
-      <c r="N389" s="13"/>
-      <c r="P389" s="14"/>
-      <c r="Q389" s="14"/>
-      <c r="R389" s="14"/>
-      <c r="S389" s="14"/>
-      <c r="U389" s="14"/>
-    </row>
-    <row r="390" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A390" s="74" t="s">
-        <v>800</v>
-      </c>
-      <c r="C390" s="92" t="s">
-        <v>824</v>
-      </c>
-      <c r="V390" s="8"/>
-    </row>
-    <row r="391" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A391" s="95" t="s">
-        <v>843</v>
-      </c>
-      <c r="C391" s="56" t="s">
-        <v>828</v>
-      </c>
-      <c r="D391" s="94" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="392" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A392" s="8"/>
-      <c r="B392" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="C392" s="93" t="s">
-        <v>482</v>
-      </c>
-      <c r="D392" s="8" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="393" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A393" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="B393" s="8" t="s">
-        <v>832</v>
-      </c>
-      <c r="C393" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="D393" s="8" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="394" spans="1:22" ht="288" x14ac:dyDescent="0.3">
-      <c r="A394" s="8"/>
-      <c r="B394" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="C394" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="D394" s="8" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="395" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A395" s="8"/>
-      <c r="D395" s="8" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="396" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A396" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="B396" s="93" t="s">
-        <v>844</v>
-      </c>
-      <c r="C396" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="D396" s="8" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="397" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A397" s="8" t="s">
-        <v>838</v>
-      </c>
-      <c r="B397" s="8" t="s">
-        <v>839</v>
-      </c>
-      <c r="C397" s="8" t="s">
-        <v>840</v>
-      </c>
-      <c r="D397" s="8" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="398" spans="1:22" ht="216" x14ac:dyDescent="0.3">
-      <c r="A398" s="93" t="s">
-        <v>497</v>
-      </c>
-      <c r="B398" s="93" t="s">
-        <v>859</v>
-      </c>
-      <c r="C398" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="D398" s="8"/>
-    </row>
-    <row r="399" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A399" s="56" t="s">
-        <v>500</v>
-      </c>
-      <c r="B399" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="D399" s="8"/>
-    </row>
-    <row r="400" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A400" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="B400" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C400" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="D400" s="8" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="401" spans="1:22" ht="72" x14ac:dyDescent="0.3">
-      <c r="A401" s="8"/>
-      <c r="B401" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="D401" s="8" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="402" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A402" s="69"/>
-      <c r="B402" s="69"/>
-      <c r="C402" s="69"/>
-    </row>
-    <row r="403" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A403" s="13"/>
-      <c r="B403" s="14"/>
-      <c r="C403" s="14"/>
-      <c r="D403" s="13"/>
-      <c r="F403" s="13"/>
-      <c r="G403" s="14"/>
-      <c r="H403" s="13"/>
-      <c r="I403" s="13"/>
-      <c r="K403" s="13"/>
-      <c r="L403" s="13"/>
-      <c r="M403" s="13"/>
-      <c r="N403" s="13"/>
-      <c r="P403" s="14"/>
-      <c r="Q403" s="14"/>
-      <c r="R403" s="14"/>
-      <c r="S403" s="14"/>
-      <c r="U403" s="14"/>
-    </row>
-    <row r="404" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A404" s="74" t="s">
-        <v>804</v>
-      </c>
-      <c r="C404" s="83" t="s">
-        <v>802</v>
-      </c>
-      <c r="V404" s="8"/>
-    </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A405" s="82" t="s">
-        <v>799</v>
-      </c>
-      <c r="D405" s="74" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="406" spans="1:22" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="B406" s="93" t="s">
-        <v>850</v>
-      </c>
-      <c r="C406" s="93" t="s">
-        <v>849</v>
-      </c>
-      <c r="D406" s="93" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="407" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A407" s="93" t="s">
-        <v>854</v>
-      </c>
-      <c r="B407" s="93" t="s">
-        <v>862</v>
-      </c>
-      <c r="C407" s="93"/>
-      <c r="D407" s="70"/>
-    </row>
-    <row r="408" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A408" s="93" t="s">
-        <v>853</v>
-      </c>
-      <c r="B408" s="93" t="s">
-        <v>861</v>
-      </c>
-      <c r="C408" s="93" t="s">
-        <v>860</v>
-      </c>
-      <c r="D408" s="70"/>
-    </row>
-    <row r="409" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A409" s="93" t="s">
-        <v>867</v>
-      </c>
-      <c r="B409" s="93"/>
-      <c r="C409" s="93" t="s">
-        <v>869</v>
-      </c>
-      <c r="D409" s="70"/>
-    </row>
-    <row r="410" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A410" s="93" t="s">
-        <v>868</v>
-      </c>
-      <c r="B410" s="93"/>
-      <c r="C410" s="93" t="s">
-        <v>870</v>
-      </c>
-      <c r="D410" s="70"/>
-    </row>
-    <row r="411" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A411" s="73" t="s">
-        <v>790</v>
-      </c>
-      <c r="B411" s="75" t="s">
-        <v>789</v>
-      </c>
-      <c r="C411" s="79" t="s">
-        <v>792</v>
-      </c>
-      <c r="D411" s="78" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="412" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A412" s="80" t="s">
-        <v>793</v>
-      </c>
-      <c r="C412" s="8" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="413" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A413" s="73" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="414" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A414" s="8"/>
-      <c r="B414" s="85" t="s">
-        <v>814</v>
-      </c>
-      <c r="C414" s="89" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="415" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A415" s="81" t="s">
-        <v>794</v>
-      </c>
-      <c r="D415" s="74" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="416" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="B416" s="80" t="s">
-        <v>797</v>
-      </c>
-      <c r="C416" s="80" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A417" s="13"/>
-      <c r="B417" s="14"/>
-      <c r="C417" s="14"/>
-      <c r="D417" s="13"/>
-      <c r="F417" s="13"/>
-      <c r="G417" s="14"/>
-      <c r="H417" s="13"/>
-      <c r="I417" s="13"/>
-      <c r="K417" s="13"/>
-      <c r="L417" s="13"/>
-      <c r="M417" s="13"/>
-      <c r="N417" s="13"/>
-      <c r="P417" s="14"/>
-      <c r="Q417" s="14"/>
-      <c r="R417" s="14"/>
-      <c r="S417" s="14"/>
-      <c r="U417" s="14"/>
-    </row>
-    <row r="418" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A418" s="74" t="s">
-        <v>804</v>
-      </c>
-      <c r="C418" s="100" t="s">
-        <v>848</v>
-      </c>
-      <c r="V418" s="8"/>
-    </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A419" s="101" t="s">
+      <c r="C430" s="83" t="s">
+        <v>808</v>
+      </c>
+      <c r="V430" s="8"/>
+    </row>
+    <row r="431" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C431" s="80" t="s">
+        <v>809</v>
+      </c>
+      <c r="D431" s="74" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="432" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A432" s="68" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433" s="105" t="s">
+        <v>894</v>
+      </c>
+      <c r="D433" s="9" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A434" s="104" t="s">
+        <v>890</v>
+      </c>
+      <c r="B434" s="104" t="s">
+        <v>877</v>
+      </c>
+      <c r="C434" s="104" t="s">
+        <v>893</v>
+      </c>
+      <c r="D434" s="104" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" s="105" t="s">
+        <v>878</v>
+      </c>
+      <c r="D435" s="102" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B436" s="104" t="s">
+        <v>885</v>
+      </c>
+      <c r="C436" s="104" t="s">
+        <v>879</v>
+      </c>
+      <c r="D436" s="104" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" s="105" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B438" s="104" t="s">
+        <v>888</v>
+      </c>
+      <c r="C438" s="104" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" s="105" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="B440" s="104" t="s">
+        <v>887</v>
+      </c>
+      <c r="C440" s="104" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" s="106" t="s">
+        <v>895</v>
+      </c>
+      <c r="B441" s="104"/>
+      <c r="C441" s="104"/>
+      <c r="D441" s="104"/>
+    </row>
+    <row r="442" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A442" s="104"/>
+      <c r="B442" s="104" t="s">
+        <v>892</v>
+      </c>
+      <c r="C442" s="104" t="s">
+        <v>891</v>
+      </c>
+      <c r="D442" s="104"/>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" s="107" t="s">
+        <v>896</v>
+      </c>
+      <c r="D443" s="9" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="C444" s="104" t="s">
+        <v>898</v>
+      </c>
+      <c r="D444" s="104" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A445" s="106" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A446" s="104" t="s">
+        <v>907</v>
+      </c>
+      <c r="B446" s="104" t="s">
+        <v>905</v>
+      </c>
+      <c r="C446" s="104" t="s">
+        <v>908</v>
+      </c>
+      <c r="D446" s="104" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A447" s="106" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B448" s="104" t="s">
+        <v>903</v>
+      </c>
+      <c r="C448" s="104" t="s">
+        <v>902</v>
+      </c>
+      <c r="D448" s="104" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="455" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A455" s="13"/>
+      <c r="B455" s="14"/>
+      <c r="C455" s="14"/>
+      <c r="D455" s="13"/>
+      <c r="F455" s="13"/>
+      <c r="G455" s="14"/>
+      <c r="H455" s="13"/>
+      <c r="I455" s="13"/>
+      <c r="K455" s="13"/>
+      <c r="L455" s="13"/>
+      <c r="M455" s="13"/>
+      <c r="N455" s="13"/>
+      <c r="P455" s="14"/>
+      <c r="Q455" s="14"/>
+      <c r="R455" s="14"/>
+      <c r="S455" s="14"/>
+      <c r="U455" s="14"/>
+    </row>
+    <row r="456" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A456" s="102" t="s">
         <v>873</v>
       </c>
-      <c r="C419" s="9"/>
-      <c r="V419" s="8"/>
-    </row>
-    <row r="420" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B420" s="80"/>
-      <c r="C420" s="93" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="421" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B421" s="80"/>
-      <c r="C421" s="93" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="422" spans="1:22" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A422" s="98" t="s">
-        <v>865</v>
-      </c>
-      <c r="B422" s="80"/>
-      <c r="C422" s="93" t="s">
-        <v>871</v>
-      </c>
-      <c r="D422" s="99" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="423" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B423" s="80"/>
-      <c r="C423" s="80"/>
-    </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A424" s="13"/>
-      <c r="B424" s="14"/>
-      <c r="C424" s="14"/>
-      <c r="D424" s="13"/>
-      <c r="F424" s="13"/>
-      <c r="G424" s="14"/>
-      <c r="H424" s="13"/>
-      <c r="I424" s="13"/>
-      <c r="K424" s="13"/>
-      <c r="L424" s="13"/>
-      <c r="M424" s="13"/>
-      <c r="N424" s="13"/>
-      <c r="P424" s="14"/>
-      <c r="Q424" s="14"/>
-      <c r="R424" s="14"/>
-      <c r="S424" s="14"/>
-      <c r="U424" s="14"/>
-    </row>
-    <row r="425" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A425" s="74" t="s">
-        <v>808</v>
-      </c>
-      <c r="C425" s="83" t="s">
-        <v>809</v>
-      </c>
-      <c r="V425" s="8"/>
-    </row>
-    <row r="426" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C426" s="80" t="s">
-        <v>810</v>
-      </c>
-      <c r="D426" s="74" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="427" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A427" s="68" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="428" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A428" s="105" t="s">
-        <v>895</v>
-      </c>
-      <c r="D428" s="9" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="429" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A429" s="104" t="s">
-        <v>891</v>
-      </c>
-      <c r="B429" s="104" t="s">
-        <v>878</v>
-      </c>
-      <c r="C429" s="104" t="s">
-        <v>894</v>
-      </c>
-      <c r="D429" s="104" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="430" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A430" s="105" t="s">
-        <v>879</v>
-      </c>
-      <c r="D430" s="102" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="431" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B431" s="104" t="s">
-        <v>886</v>
-      </c>
-      <c r="C431" s="104" t="s">
-        <v>880</v>
-      </c>
-      <c r="D431" s="104" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="432" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A432" s="105" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="B433" s="104" t="s">
-        <v>889</v>
-      </c>
-      <c r="C433" s="104" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A434" s="105" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="B435" s="104" t="s">
-        <v>888</v>
-      </c>
-      <c r="C435" s="104" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A436" s="106" t="s">
-        <v>896</v>
-      </c>
-      <c r="B436" s="104"/>
-      <c r="C436" s="104"/>
-      <c r="D436" s="104"/>
-    </row>
-    <row r="437" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A437" s="104"/>
-      <c r="B437" s="104" t="s">
-        <v>893</v>
-      </c>
-      <c r="C437" s="104" t="s">
-        <v>892</v>
-      </c>
-      <c r="D437" s="104"/>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A438" s="107" t="s">
-        <v>897</v>
-      </c>
-      <c r="D438" s="9" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="C439" s="104" t="s">
-        <v>899</v>
-      </c>
-      <c r="D439" s="104" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A440" s="106" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A441" s="104" t="s">
-        <v>908</v>
-      </c>
-      <c r="B441" s="104" t="s">
-        <v>906</v>
-      </c>
-      <c r="C441" s="104" t="s">
+      <c r="C456" s="103" t="s">
+        <v>874</v>
+      </c>
+      <c r="V456" s="8"/>
+    </row>
+    <row r="457" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B457" s="108" t="s">
         <v>909</v>
-      </c>
-      <c r="D441" s="104" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A442" s="106" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="B443" s="104" t="s">
-        <v>904</v>
-      </c>
-      <c r="C443" s="104" t="s">
-        <v>903</v>
-      </c>
-      <c r="D443" s="104" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="450" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A450" s="13"/>
-      <c r="B450" s="14"/>
-      <c r="C450" s="14"/>
-      <c r="D450" s="13"/>
-      <c r="F450" s="13"/>
-      <c r="G450" s="14"/>
-      <c r="H450" s="13"/>
-      <c r="I450" s="13"/>
-      <c r="K450" s="13"/>
-      <c r="L450" s="13"/>
-      <c r="M450" s="13"/>
-      <c r="N450" s="13"/>
-      <c r="P450" s="14"/>
-      <c r="Q450" s="14"/>
-      <c r="R450" s="14"/>
-      <c r="S450" s="14"/>
-      <c r="U450" s="14"/>
-    </row>
-    <row r="451" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A451" s="102" t="s">
-        <v>874</v>
-      </c>
-      <c r="C451" s="103" t="s">
-        <v>875</v>
-      </c>
-      <c r="V451" s="8"/>
-    </row>
-    <row r="452" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B452" s="108" t="s">
-        <v>910</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A311:D311"/>
+    <mergeCell ref="A316:D316"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H11" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -30921,10 +31440,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="122"/>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
+      <c r="A1" s="126"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -30947,11 +31466,11 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="118" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B3" s="119"/>
       <c r="C3" s="120" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D3" s="118"/>
       <c r="P3" s="1"/>
@@ -30982,7 +31501,7 @@
         <v>712</v>
       </c>
       <c r="D6" s="114" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="P6" s="1"/>
       <c r="U6" s="1"/>
@@ -31019,7 +31538,7 @@
         <v>718</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -31050,7 +31569,7 @@
         <v>721</v>
       </c>
       <c r="D10" s="117" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="144" x14ac:dyDescent="0.3">
@@ -31063,7 +31582,7 @@
         <v>723</v>
       </c>
       <c r="D12" s="114" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
@@ -31151,10 +31670,10 @@
         <v>719</v>
       </c>
       <c r="B24" s="113" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C24" s="112" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="144" x14ac:dyDescent="0.3">
@@ -31164,7 +31683,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -31172,7 +31691,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="113" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -31182,7 +31701,7 @@
     </row>
     <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="109" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>742</v>
@@ -31195,12 +31714,12 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="110" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B32" s="109" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>742</v>
@@ -31231,8 +31750,8 @@
   </sheetPr>
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31267,10 +31786,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="124"/>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="A1" s="128"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -31293,11 +31812,11 @@
     </row>
     <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>929</v>
-      </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
+        <v>928</v>
+      </c>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
@@ -31316,18 +31835,18 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>933</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -31339,8 +31858,8 @@
       <c r="A7" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B7" s="129" t="s">
-        <v>940</v>
+      <c r="B7" s="125" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -31364,11 +31883,11 @@
     </row>
     <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>930</v>
-      </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="128"/>
+        <v>929</v>
+      </c>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="124"/>
       <c r="F11" s="1"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
@@ -31387,26 +31906,26 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -31439,31 +31958,31 @@
       <c r="U17" s="6"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="126" t="s">
+      <c r="A18" s="122" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="122" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="125" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="126" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="129" t="s">
-        <v>940</v>
-      </c>
-      <c r="C20" s="129"/>
+      <c r="C20" s="125"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="126" t="s">
-        <v>929</v>
+      <c r="A21" s="122" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="129" t="s">
-        <v>940</v>
-      </c>
-      <c r="C22" s="129"/>
+      <c r="B22" s="125" t="s">
+        <v>939</v>
+      </c>
+      <c r="C22" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -31694,12 +32213,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>

--- a/4 четверть_4_JavaScript_Back.xlsx
+++ b/4 четверть_4_JavaScript_Back.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D555C8-06E7-4AF7-A3C6-F879F87DA9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D623FEB1-8BA4-461F-9FC1-60088C2AC4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Крутой онлайн debugger" sheetId="1" r:id="rId1"/>
@@ -23479,11 +23479,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -24140,11 +24148,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -24162,164 +24170,164 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="8" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="8" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -24328,149 +24336,152 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="17" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="17" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -24481,31 +24492,28 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="18" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="18" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -24514,13 +24522,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -24529,11 +24543,8 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -25895,8 +25906,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5963522" y="5473065"/>
-          <a:ext cx="4752104" cy="650461"/>
+          <a:off x="5965427" y="5501640"/>
+          <a:ext cx="4748294" cy="654271"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26597,10 +26608,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="126"/>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
+      <c r="A1" s="128"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -26942,7 +26953,7 @@
   </sheetPr>
   <dimension ref="A2:V457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
@@ -27975,41 +27986,41 @@
     <row r="93" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="131" t="s">
+      <c r="C93" s="127" t="s">
         <v>941</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="131" t="s">
+      <c r="A94" s="127" t="s">
         <v>944</v>
       </c>
-      <c r="B94" s="131" t="s">
+      <c r="B94" s="127" t="s">
         <v>943</v>
       </c>
-      <c r="C94" s="131" t="s">
+      <c r="C94" s="127" t="s">
         <v>947</v>
       </c>
       <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="131" t="s">
+      <c r="A95" s="127" t="s">
         <v>945</v>
       </c>
       <c r="B95" s="2"/>
-      <c r="C95" s="131" t="s">
+      <c r="C95" s="127" t="s">
         <v>946</v>
       </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A96" s="131" t="s">
+      <c r="A96" s="127" t="s">
         <v>948</v>
       </c>
-      <c r="B96" s="131" t="s">
+      <c r="B96" s="127" t="s">
         <v>949</v>
       </c>
-      <c r="C96" s="131" t="s">
+      <c r="C96" s="127" t="s">
         <v>950</v>
       </c>
       <c r="D96" s="2"/>
@@ -29190,7 +29201,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" ht="216" x14ac:dyDescent="0.3">
       <c r="A215" s="8" t="s">
         <v>457</v>
       </c>
@@ -29905,7 +29916,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="287" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B287" s="8" t="s">
         <v>606</v>
       </c>
@@ -30129,12 +30140,12 @@
       </c>
     </row>
     <row r="316" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A316" s="127" t="s">
+      <c r="A316" s="129" t="s">
         <v>774</v>
       </c>
-      <c r="B316" s="127"/>
-      <c r="C316" s="127"/>
-      <c r="D316" s="127"/>
+      <c r="B316" s="129"/>
+      <c r="C316" s="129"/>
+      <c r="D316" s="129"/>
     </row>
     <row r="317" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A317" s="13"/>
@@ -30264,7 +30275,7 @@
       <c r="B330" s="8" t="s">
         <v>670</v>
       </c>
-      <c r="C330" s="130" t="s">
+      <c r="C330" s="126" t="s">
         <v>940</v>
       </c>
       <c r="P330" s="9"/>
@@ -31440,10 +31451,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="126"/>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
+      <c r="A1" s="128"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -31750,8 +31761,8 @@
   </sheetPr>
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31786,10 +31797,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="128"/>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="A1" s="130"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -31916,7 +31927,7 @@
       <c r="A13" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="132" t="s">
         <v>936</v>
       </c>
     </row>
@@ -32213,12 +32224,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="131" t="s">
         <v>759</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>

--- a/4 четверть_4_JavaScript_Back.xlsx
+++ b/4 четверть_4_JavaScript_Back.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D623FEB1-8BA4-461F-9FC1-60088C2AC4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB87AD1-B629-4F94-851D-62B7DC183306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13875" yWindow="-21720" windowWidth="51840" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Крутой онлайн debugger" sheetId="1" r:id="rId1"/>
@@ -23479,11 +23479,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -24148,9 +24156,9 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -24170,164 +24178,164 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="49" fontId="24" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="8" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="8" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -24336,149 +24344,152 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="17" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="17" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -24489,31 +24500,28 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="18" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="18" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -24522,19 +24530,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -24542,9 +24553,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -26145,9 +26153,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3802527</xdr:colOff>
+      <xdr:colOff>3793002</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>1567815</xdr:rowOff>
+      <xdr:rowOff>1577340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -26608,10 +26616,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="128"/>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="A1" s="129"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -27154,7 +27162,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>79</v>
       </c>
@@ -30140,12 +30148,12 @@
       </c>
     </row>
     <row r="316" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A316" s="129" t="s">
+      <c r="A316" s="130" t="s">
         <v>774</v>
       </c>
-      <c r="B316" s="129"/>
-      <c r="C316" s="129"/>
-      <c r="D316" s="129"/>
+      <c r="B316" s="130"/>
+      <c r="C316" s="130"/>
+      <c r="D316" s="130"/>
     </row>
     <row r="317" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A317" s="13"/>
@@ -31451,10 +31459,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="128"/>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="A1" s="129"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -31761,7 +31769,7 @@
   </sheetPr>
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -31797,10 +31805,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="130"/>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="A1" s="131"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -31927,7 +31935,7 @@
       <c r="A13" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="128" t="s">
         <v>936</v>
       </c>
     </row>
@@ -32224,12 +32232,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>759</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>

--- a/4 четверть_4_JavaScript_Back.xlsx
+++ b/4 четверть_4_JavaScript_Back.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB87AD1-B629-4F94-851D-62B7DC183306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5E6FBC-2885-4CD6-877C-8E808E0A1EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13875" yWindow="-21720" windowWidth="51840" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13875" yWindow="-21720" windowWidth="51840" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Крутой онлайн debugger" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="952">
   <si>
     <t>Крутой онлайн debugger</t>
   </si>
@@ -23472,6 +23472,35 @@
         <scheme val="minor"/>
       </rPr>
       <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Интересный вариант создания массива из других массивов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+this.currentFilter
+                        .map((i) =&gt; i.filterFilters)
+                        .reduce((i, k) =&gt; k != null ? [...i, ...k] : [...i]);
+                },</t>
     </r>
   </si>
 </sst>
@@ -24160,7 +24189,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -24553,6 +24582,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -25590,7 +25622,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1409698</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1800824</xdr:rowOff>
+      <xdr:rowOff>1810349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25630,9 +25662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3843768</xdr:colOff>
+      <xdr:colOff>3832338</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1403350</xdr:rowOff>
+      <xdr:rowOff>1390015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25674,7 +25706,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>918106</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>1174751</xdr:rowOff>
+      <xdr:rowOff>1161416</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25708,15 +25740,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>87704</xdr:colOff>
+      <xdr:colOff>91514</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>54610</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2260600</xdr:colOff>
+      <xdr:colOff>2268220</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>2163982</xdr:rowOff>
+      <xdr:rowOff>2152552</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25737,8 +25769,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6132904" y="8890000"/>
-          <a:ext cx="2172896" cy="2113182"/>
+          <a:off x="6025589" y="16304260"/>
+          <a:ext cx="2172896" cy="2107467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25752,11 +25784,11 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>3581924</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>29845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4870449</xdr:colOff>
+      <xdr:colOff>4860924</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>1656</xdr:rowOff>
     </xdr:to>
@@ -25779,8 +25811,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9627124" y="8870950"/>
-          <a:ext cx="1288525" cy="2172086"/>
+          <a:off x="9515999" y="16279495"/>
+          <a:ext cx="1279000" cy="2162561"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25798,9 +25830,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:colOff>1996440</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>1772091</xdr:rowOff>
+      <xdr:rowOff>1768281</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25839,10 +25871,10 @@
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4883151</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>636</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>413354</xdr:rowOff>
+      <xdr:rowOff>400019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25883,15 +25915,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>29447</xdr:colOff>
+      <xdr:colOff>27542</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4777741</xdr:colOff>
+      <xdr:colOff>4781551</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>669511</xdr:rowOff>
+      <xdr:rowOff>665701</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25914,8 +25946,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5965427" y="5501640"/>
-          <a:ext cx="4748294" cy="654271"/>
+          <a:off x="5961617" y="5476875"/>
+          <a:ext cx="4754009" cy="646651"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -31423,8 +31455,8 @@
   </sheetPr>
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31646,6 +31678,9 @@
       <c r="C18" s="2" t="s">
         <v>731</v>
       </c>
+      <c r="D18" s="133" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -31769,8 +31804,8 @@
   </sheetPr>
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
